--- a/classification_results.xlsx
+++ b/classification_results.xlsx
@@ -13,10 +13,836 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="271">
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>change_control</t>
+  </si>
+  <si>
+    <t>Amendments_Consent</t>
+  </si>
+  <si>
+    <t>C. PENNEY PURCHASING CORPORATION,\n\n  \n\nThe Lenders Party Hereto,\n\n  \n\nWELLS FARGO BANK, NATIONAL ASSOCIATION,\n\nas Administrative Agent, Revolving Agent and Swingline Lender\n\n\n\nBANK OF AMERICA, N.A.,\n\nas Term Agent\n\n  \n\nWELLS FARGO BANK, NATIONAL ASSOCIATION and BANK OF AMERICA, N.A.,\n\nas Co-Collateral Agents\n\n  \n\nand\n\n  \n\nWELLS FARGO BANK, NATIONAL ASSOCIATION, as LC Agent\n\n  \n\nBANK OF AMERICA, N.A.\n\nWELLS FARGO SECURITIES LLC\n\nJ.P.</t>
+  </si>
+  <si>
+    <t>MORGAN SECURITIES LLC\n\nBARCLAYS BANK PLC\n\nGOLDMAN SACHS BANK USA\n\nHSBC BANK USA, N.A.\n\nCIT FINANCE LLC\n\nCITIZENS BANK, NATIONAL ASSOCIATION\n\nREGIONS BUSINESS CAPITAL, A DIVISION OF REGIONS BANK\n\nas Revolving Joint Bookrunners and Revolving Joint Lead Arrangers\n\n  \n\nBANK OF AMERICA, N.A.\n\nas Syndication Agent\n\n  \n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\nand\n\n  \n\nJ.P.</t>
+  </si>
+  <si>
+    <t>None of the following shall be Eligible Credit Card\nReceivables:\n\n  \n\n18\n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\n  \n\n(a)Accounts that have been outstanding for more than five Business Days from\nthe date of sale or for such longer period as may be approved by the Co-\nCollateral Agents;\n\n  \n\n(b)Accounts with respect to which a Loan Party does not have good, valid and\nmarketable title thereto;\n\n  \n\n(c)Accounts that are not subject to a perfected first-priority Lien securing\nthe Obligations pursuant to the terms of the Collateral Agreement, or that are\nsubject to any Lien whatsoever other than (i) Permitted Encumbrances that do\nnot have priority over the Lien securing the Obligations pursuant to the terms\nof the Collateral Agreement or (ii) the Lien to secure Indebtedness under the\nExisting Term Loan Agreement subject to the terms of the Existing\nIntercreditor Agreement or other Intercreditor Agreement with respect thereto\n(provided that the Co-Collateral Agents may in their Permitted Discretion\nelect to deem as an Eligible Credit Card Receivable any Account subject to a\nSpecified Involuntary Lien in respect of which the Co-Collateral Agents shall\nhave established an appropriate Reserve);\n\n  \n\n(d)Accounts which are disputed, or with respect to which a claim,\ncounterclaim, offset or chargeback has been asserted, by the related credit\ncard processor (but only to the extent of such dispute, counterclaim, offset\nor chargeback) (it being the intent that chargebacks in the ordinary course by\nthe credit card processors shall not be deemed violative of this clause);\n\n  \n\n(e)Accounts arising from J. C. Penney Corporation\xe2\x80\x99s private label credit card\nreceivables or any other private label credit card receivables of the Loan\nParties, other than Accounts owed by Persons that are not Loan Parties or\nAffiliates of Loan Parties and in respect of which no Person has recourse to\nany Loan Party through any repurchase, guarantee or other arrangement, but\nexcluding those of GE Money Bank and any successor thereto under J. C. Penney\nCorporation\xe2\x80\x99s existing private label credit card processor agreement; or\n\n  \n\n(f)Accounts due from major credit card processors (other than Visa,\nMastercard, American Express, Diners Club, Discover, Paymentech, LLC and Banc\nof America Merchant Services, LLC) which the Co-Collateral Agents determine in\ntheir Permitted Discretion to be unlikely to be collected.\n\n  \n\n\xe2\x80\x9cEligible In-Transit Inventory\xe2\x80\x9d means, as of any date of determination,\nwithout duplication of other Eligible Inventory, Inventory (the purchase of\nwhich may be supported by a Letter of Credit or any other letter of credit\nreasonably acceptable to the Co-Collateral Agents (which is issued by a bank\nreasonably acceptable to the Co-Collateral Agents)): (a)(i) which has been\ndelivered to a carrier in a foreign port or foreign airport for receipt by a\nLoan Party in the United States within 60 days of the date of determination,\nbut which has not yet been received by a Loan Party or (ii) which has been\ndelivered to a carrier in the United States for receipt by a Loan Party in the\nUnited States within five Business Days of the date of determination, but\nwhich has not yet been received by a Loan Party, (b) for which the purchase\norder is in the name of a Loan Party and title has passed to a Loan Party, (c)\nexcept as otherwise agreed by the Co-Collateral Agents, for which the document\nof title or waybill reflects a Loan Party as consignee (along with delivery to\na Loan Party or its customs broker of the documents of title, to the extent\napplicable, with respect thereto (which documents may be in electronic\nformat)), (d) as to which the Administrative Agent has control over the\ndocuments of title, to the extent applicable, which evidence ownership of the\nsubject Inventory (such as by the delivery of a Customs Broker Agreement), (e)\nwhich is insured in accordance with the provisions of this Agreement and the\nother Loan Documents, including marine cargo insurance; and (f) which\notherwise is not excluded from the definition of Eligible Inventory; provided\nthat the Co-Collateral Agents may, upon notice to the Parent Borrower, exclude\nany particular Inventory from the definition of \xe2\x80\x9cEligible In-Transit\nInventory\xe2\x80\x9d in the event that the Co-Collateral Agents\n\n  \n\n19\n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\ndetermine that such Inventory is subject to any Person\xe2\x80\x99s right or claim which\nis (or is capable of being) senior to, or pari passu with, the Lien of the\nAdministrative Agent (provided that the Co-Collateral Agents may in their\nPermitted Discretion elect to deem as Eligible In-Transit Inventory any such\nInventory subject to a Specified Involuntary Lien in respect of which the Co-\nCollateral Agents shall have established an appropriate Reserve), or may\notherwise adversely impact the ability of the Administrative Agent to realize\nupon such Inventory.\n\n\xe2\x80\x9cEligible Inventory\xe2\x80\x9d means, as of any date of determination, without\nduplication, (1) Eligible In-Transit Inventory and (2) Inventory comprised of\nfinished goods, merchantable and readily saleable to the public in the\nordinary course, in each case that are not excluded as ineligible by virtue of\none or more of the criteria set forth below.</t>
+  </si>
+  <si>
+    <t>If a Swap Obligation arises under a\nmaster agreement governing more than one Swap Agreement, such exclusion shall\napply only to the portion of such Swap Obligation that is attributable to Swap\nAgreements for which such guaranty or security interest becomes illegal.\n\n\xe2\x80\x9cExcluded Taxes\xe2\x80\x9d means, with respect to the Administrative Agent, any Lender,\nany Issuing Bank or any other recipient of any payment to be made by or on\naccount of any obligation of any Loan Party under this Agreement or any other\nLoan Document: (a) any Other Connection Taxes, (b) with respect to any payment\nmade by or on account of any obligation of any Loan Party to a Lender, any\nU.S.</t>
+  </si>
+  <si>
+    <t>L. No.</t>
+  </si>
+  <si>
+    <t>Person\xe2\x80\x9d means a \xe2\x80\x9cUnited States person\xe2\x80\x9d within the meaning of Section\n7701(a)(30) of the Code.\n\n\xe2\x80\x9cU.S.</t>
+  </si>
+  <si>
+    <t>Terms Generally.</t>
+  </si>
+  <si>
+    <t>The definitions of terms herein shall apply\nequally to the singular and plural forms of the terms defined.</t>
+  </si>
+  <si>
+    <t>Unless the context requires otherwise (a) any definition of or\nreference to any agreement, instrument or other document herein shall be\nconstrued as referring to such agreement, instrument or other document as from\ntime to time amended, supplemented, restated, refinanced, replaced, extended,\nrenewed, restructured or otherwise modified, in whole or in part (subject to\nany restrictions on such amendments, supplements, restatements, refinancings,\nreplacements, extensions, renewals, restructurings or modifications set forth\nherein), (b) any reference herein to any Person shall be construed to include\nsuch Person\xe2\x80\x99s successors and assigns, (c) the words \xe2\x80\x9cherein\xe2\x80\x9d, \xe2\x80\x9chereof\xe2\x80\x9d and\n\xe2\x80\x9chereunder\xe2\x80\x9d, and words of similar import, shall be construed to refer to this\nAgreement in its entirety and not to any particular provision hereof, (d) all\nreferences herein to Articles, Sections, Exhibits and Schedules shall be\nconstrued to refer to Articles and Sections of, and Exhibits and Schedules to,\nthis Agreement and (e) the words \xe2\x80\x9casset\xe2\x80\x9d and \xe2\x80\x9cproperty\xe2\x80\x9d shall be construed to\nhave the same meaning and effect and to refer to any and all tangible and\nintangible assets and properties, including cash, securities, accounts and\ncontract rights.\n\n    \n\nSECTION 1.04.</t>
+  </si>
+  <si>
+    <t>Accounting Terms; GAAP.\n\n  \n\n(a)Except as otherwise expressly provided herein, all terms of an accounting\nor financial nature shall be construed in accordance with GAAP, as in effect\nfrom time to time; provided that (i) for purposes of determining compliance\nwith any provision of this Agreement, the determination of whether a lease is\nto be treated as an operating lease or capital lease shall be made without\ngiving effect to any change in accounting for leases pursuant to GAAP\nresulting from the implementation of proposed Accounting Standards Update\n(ASU) Leases (Topic 842) issued May 16, 2013, any oral, public deliberations\nby the Financial Accounting Standards Board regarding such proposal, any\nsuccessor proposal, or any FASB deliberations regarding any such successor\nproposal and (ii) if Holdings or the Parent Borrower notifies the\nAdministrative Agent that Holdings or the Parent Borrower requests an\namendment to any provision hereof to eliminate the effect of any change\noccurring after the Closing Date in GAAP or in the application thereof on the\noperation of such provision (or if the Administrative Agent notifies Holdings\nor the Parent Borrower that the Required Lenders request an amendment to any\nprovision hereof for such purpose), regardless of whether any such notice is\ngiven before or after such change in GAAP or in the application thereof, then\nsuch provision shall be interpreted on the basis of GAAP as in effect and\napplied immediately before such change shall have become effective until such\nnotice shall have been withdrawn or such provision amended in accordance\nherewith.</t>
+  </si>
+  <si>
+    <t>The purchase of\nparticipations in a Swingline Loan pursuant to this paragraph shall not\nrelieve the relevant Borrower of any default in the payment thereof.\n\n  \n\n(iv)The Parent Borrower may designate any Revolving Lender to be a Swingline\nLender hereunder subject to the prior written consent of the Administrative\nAgent (which consent shall not be unreasonably withheld) and such Lender.</t>
+  </si>
+  <si>
+    <t>In the event of any inconsistency between the terms and\nconditions of this Agreement and the terms and conditions of any form of\nletter of credit application or other agreement submitted by an Account Party\nto, or entered into by an Account Party with, any Issuing Bank relating to any\nLetter of Credit, the terms and conditions of this Agreement shall control.\n\n  \n\n(b)Notice of Issuance, Amendment, Renewal, Extension; Certain Conditions.\n\n  \n\n(i)To request the issuance of a Letter of Credit (or the amendment, renewal or\nextension of an outstanding Letter of Credit), an Account Party shall hand\ndeliver or telecopy (or transmit by electronic communication, if arrangements\nfor doing so have been approved by the applicable Issuing Bank) to the\napplicable Issuing Bank (reasonably in advance of the requested date of\nissuance, amendment, renewal or extension) a notice requesting the issuance of\na Letter of Credit, or identifying the Letter of Credit to be amended, renewed\nor extended, and specifying the date of issuance, amendment, renewal or\nextension (which shall be a Business Day), the date on which such Letter of\nCredit is to expire (which shall comply with paragraph (c) of this Section),\nthe amount of such Letter of Credit, the name and address of the beneficiary\nthereof and such other information as shall be necessary to prepare, amend,\nrenew or extend such Letter of Credit.</t>
+  </si>
+  <si>
+    <t>Each Revolving Lender acknowledges and agrees that its obligation to\nacquire participations pursuant to this paragraph in respect of Letters of\nCredit is absolute and unconditional and shall not be affected by any\ncircumstance whatsoever, including any amendment, renewal or extension of any\nLetter of Credit or the occurrence and continuance of a Default or reduction\nor termination of the Revolving Commitments, and that each such payment shall\nbe made without any offset, abatement, withholding or reduction whatsoever.\n\n  \n\n(e)Reimbursement.</t>
+  </si>
+  <si>
+    <t>An Account Party\xe2\x80\x99s obligation to reimburse LC\nDisbursements as provided in paragraph (e) of this Section shall be absolute,\nunconditional and irrevocable, and shall be performed strictly in accordance\nwith the terms of this Agreement under any and all circumstances whatsoever\nand irrespective of (i) any lack of validity or enforceability of any Letter\nof Credit or this Agreement, or any term or provision therein, (ii) any draft\nor other document presented under a Letter of Credit proving to be forged,\nfraudulent or invalid in any respect or any statement therein being untrue or\ninaccurate in any respect, (iii) payment by an Issuing Bank under a Letter of\nCredit against presentation of a draft or other document that does not comply\nwith the terms of such Letter of Credit, or (iv) any other event or\ncircumstance whatsoever, whether or not similar to any of the foregoing, that\nmight, but for the provisions of this Section, constitute a legal or equitable\ndischarge of, or provide a right of setoff against, such Account Party\xe2\x80\x99s\nobligations hereunder.</t>
+  </si>
+  <si>
+    <t>Account Parties shall\ndesignate each Revolving Lender (or an Affiliate of a Revolving Lender\nidentified by such Revolving Lender to Parent Borrower for such purpose) to be\nan Issuing Bank hereunder and such Revolving Lender (or the Affiliate of such\nRevolving Lender, as the case may be) upon such designation shall agree to\nbecome an Issuing Bank, except that a Revolving Lender shall not be required\nto be an Issuing Bank with the consent of Administrative Agent and Parent\nBorrower; provided, that, Parent Borrower\xe2\x80\x99s consent shall not be required in\nthe determination of which Lenders are Issuing Banks on the Closing Date.</t>
+  </si>
+  <si>
+    <t>Upon a Revolving Lender becoming an Issuing Bank\nafter the date hereof, Schedule 2.05 shall be amended by Administrative Agent\n(and no consent or approval of Lenders shall be required with respect to such\namendment) to adjust the sublimits for each Issuing Bank set forth on such\nSchedule in such amounts as Parent Borrower, Administrative Agent and such\nIssuing Bank may agree.</t>
+  </si>
+  <si>
+    <t>Administrative Agent may\namend Schedule 2.05 to reflect any such change permitted by this Section\n2.05(i) (without the consent or approval of Lenders).</t>
+  </si>
+  <si>
+    <t>From and after the effective date of any such\nreplacement, (i) the successor Issuing Bank shall have all the rights and\nobligations of an Issuing Bank under this Agreement with respect to Letters of\nCredit to be issued thereafter and (ii) references herein to the term \xe2\x80\x9cIssuing\nBank\xe2\x80\x9d shall be deemed to refer to such successor or to any previous Issuing\nBank, or to such successor and all\n\n  \n\n58\n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\nprevious Issuing Banks, as the context shall require.</t>
+  </si>
+  <si>
+    <t>Each reduction of the Revolving Commitments\nshall be made ratably among the Revolving Lenders based on their Applicable\nRevolving Percentage.\n\n  \n\nSECTION 2.09.</t>
+  </si>
+  <si>
+    <t>Person shall not be\ntreated as \xe2\x80\x9cForeign Lender\xe2\x80\x9d for purposes of this Agreement.</t>
+  </si>
+  <si>
+    <t>Defaulting Lenders.</t>
+  </si>
+  <si>
+    <t>The decision to agree or withhold agreement to any Maturity Date\nExtension Request shall be at the sole discretion of each Lender.</t>
+  </si>
+  <si>
+    <t>This Section 2.23 supersedes any provisions in Section\n9.02 to the contrary.</t>
+  </si>
+  <si>
+    <t>Governmental Approvals; No Conflicts.</t>
+  </si>
+  <si>
+    <t>No transfer of property has been or will be made by any Loan Party\nand no obligation has been or will be incurred by any Loan Party in connection\nwith the transactions contemplated by this Agreement or the other Loan\nDocuments with the intent to hinder, delay, or defraud either present or\nfuture creditors of any Loan Party.\n\nARTICLE IV\n\nConditions\n\n  \n\nSECTION 4.01.</t>
+  </si>
+  <si>
+    <t>Notices of Material Events.</t>
+  </si>
+  <si>
+    <t>This Section shall not be\nconstrued to prohibit transfers of cash by Holdings or any of its Subsidiaries\nthat are not prohibited by any other provision of this Agreement.\n\nSECTION 6.06.</t>
+  </si>
+  <si>
+    <t>Restrictive Agreements.</t>
+  </si>
+  <si>
+    <t>Neither Holdings nor the\nParent Borrower will, nor will they permit any Subsidiary to, amend, modify or\nwaive any of its rights under (a) its certificate of incorporation, by-laws,\noperating, management or partnership agreement or other organizational\ndocuments or (b) any documents governing any Material Indebtedness, in each\ncase to the extent any such amendment, modification or waiver would be\nmaterially adverse to the Lenders.\n\n  \n\nSECTION6.11.</t>
+  </si>
+  <si>
+    <t>Events of Default.</t>
+  </si>
+  <si>
+    <t>Each Lender and Issuing Bank hereby irrevocably\ndesignates and appoints (i) Wells Fargo as Administrative Agent, (ii) Wells\nFargo and Bank of America as Co-Collateral Agents, (iii) Bank of America as\nTerm Agent, and (iv) Wells Fargo as Revolving Agent, in each case under this\nAgreement and the other Loan Documents, and each such Lender irrevocably\nauthorizes Administrative Agent, Co-Collateral Agents, Revolving Agent and\nTerm Agent, in each case in such capacity, to take such action on its behalf\nunder the provisions of this Agreement and the other Loan Documents and to\nexercise such powers and perform such duties as are expressly delegated to\nAdministrative Agent, Co-Collateral Agents, Revolving Agent and Term Agent, as\napplicable, by the terms of this Agreement and the other Loan Documents,\ntogether with such other powers as are reasonably incidental thereto.\nNotwithstanding anything to the contrary contained in this Agreement and the\nother Loan Documents, no consent of the Lenders shall be required to amend\nthis Agreement or the Loan Documents to (i) cause additional assets to become\nCollateral or to add additional Subsidiaries as guarantors of the Obligations,\nor (ii) implement the provisions of Sections 2.05(i), 2.23 or 2.21, 2.22, and\nAdministrative Agent and the Loan Parties shall be entitled to execute any and\nall amendments necessary or desirable to accomplish any of the foregoing and\nsuch amendments shall be binding on the other parties hereto.</t>
+  </si>
+  <si>
+    <t>Notwithstanding\nany provision to the contrary elsewhere in this Agreement, none of the\nAdministrative Agent, the Co-Collateral Agents, the Revolving Agent or the\nTerm Agent shall have any duties or responsibilities, except those expressly\nset forth in this Agreement and the other Loan Documents to which it is a\nparty, or any fiduciary relationship with any Lender, and no implied\ncovenants, functions, responsibilities, duties, obligations or liabilities\nshall be read into this Agreement or any other Loan Document or otherwise\nexist against Administrative Agent, the Co-Collateral Agents, the Revolving\nAgent or the Term Agent.\n\n  \n\nSECTION 8.02.</t>
+  </si>
+  <si>
+    <t>Each Agent shall be fully justified\nin failing or refusing to take any action under this Agreement or any other\nLoan Document unless they shall first receive such advice or concurrence of\nthe Required Lenders (or, if so specified by this Agreement, the Required\nRevolving Lenders, Required Term Lenders or Supermajority Lenders or all\nLenders) as they deem appropriate or they shall first be indemnified to its\nsatisfaction by the Lenders against any and all liability and expense that may\nbe incurred by them by reason of taking or continuing to take any such action.\nEach Agent shall in all cases be fully protected in acting, or in refraining\nfrom acting, under this Agreement and the other Loan Documents in accordance\nwith a request of the Required Lenders (or, if so specified by this Agreement,\nthe Required Revolving Lenders, Required\n\n  \n\n117\n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\nTerm Lenders, Supermajority Lenders or all Lenders), and such request and any\naction taken or failure to act pursuant thereto shall be binding upon all the\nLenders and all future holders of the Loans.\n\n  \n\nSECTION 8.04.</t>
+  </si>
+  <si>
+    <t>Exculpatory Provisions.</t>
+  </si>
+  <si>
+    <t>No Agent (for purposes of this Article\nVIII, \xe2\x80\x9cAgent\xe2\x80\x9d and \xe2\x80\x9cAgents\xe2\x80\x9d shall mean the collective reference to the\nAdministrative Agent, the Co-Collateral Agents, the Revolving Agent, the Term\nAgent and any other Lender designated as an \xe2\x80\x9cAgent\xe2\x80\x9d for purposes of this\nAgreement, including the Lead Arrangers, the Syndication Agent and the Co-\nDocumentation Agents) nor any of their respective officers, directors,\nemployees, agents, attorneys-in-fact or affiliates shall be (i) liable for any\naction lawfully taken or omitted to be taken by it or such Person under or in\nconnection with this Agreement or any other Loan Document (except to the\nextent that any of the foregoing are found by a final and nonappealable\ndecision of a court of competent jurisdiction to have resulted from its or\nsuch Person\xe2\x80\x99s own gross negligence, bad faith or willful misconduct (or a\nmaterial breach of its obligations under any Loan Document) or (ii)\nresponsible in any manner to any of the Lenders for any recitals, statements,\nrepresentations or warranties made by any Loan Party or any officer thereof\ncontained in this Agreement or any other Loan Document or in any certificate,\nreport, statement or other document referred to or provided for in, or\nreceived by the Agents under or in connection with, this Agreement or any\nother Loan Document or for the value, validity, effectiveness, genuineness,\nenforceability or sufficiency of this Agreement or any other Loan Document or\nfor any failure of any Loan Party that is a party thereto to perform its\nobligations hereunder or thereunder.</t>
+  </si>
+  <si>
+    <t>Notice of Default.</t>
+  </si>
+  <si>
+    <t>Each Agent shall not be deemed to have\nknowledge or notice of the occurrence of any Default or Event of Default\nunless such Agent has received notice from a Lender, Holdings or a Borrower\nreferring to this Agreement, describing such Default or Event of Default and\nstating that such notice is a \xe2\x80\x9cnotice of default\xe2\x80\x9d.</t>
+  </si>
+  <si>
+    <t>Non-Reliance on Agents and Other Lenders.</t>
+  </si>
+  <si>
+    <t>The agreements in this Section\nshall survive the payment of the Obligations and all other amounts payable\nhereunder.\n\n  \n\nSECTION 8.10.</t>
+  </si>
+  <si>
+    <t>Notwithstanding\nthe provisions of this Agreement or any of the other Loan Documents, no Person\nwho is or becomes a Co-Syndication Agent or a Documentation Agent nor a Lead\nArranger shall have any powers, rights, duties, responsibilities or\nliabilities with respect to this Agreement and the other Loan Documents.\n\n  \n\nSECTION 8.13.</t>
+  </si>
+  <si>
+    <t>Intercreditor Agreement.\n\n  \n\n(a)Each of the Lenders and other Secured Parties hereby (i) authorizes and\ninstructs the Administrative Agent to enter into an Intercreditor Agreement or\na Collateral Cooperation Agreement, as applicable, if Indebtedness is incurred\nthat is secured by Liens contemplated by clause (m) of Section 6.02, (ii)\nagrees that it will be subject to and bound by, and will take no actions\ncontrary to, the provisions of such Intercreditor Agreement or such Collateral\nCooperation Agreement, as applicable, and (iii) agrees that Administrative\nAgent may take such actions on behalf of such Lender or other Secured Party as\nis contemplated by the terms of such Intercreditor Agreement or Collateral\nCooperation Agreement.\n\n  \n\n121\n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\n  \n\n(b)Each of the Lenders and other Secured Parties hereby (i) agrees that it\nwill be bound by and will take no actions contrary to the provisions of the\nExisting Intercreditor Agreement, (ii) authorizes and instructs Administrative\nAgent to enter into the Existing Intercreditor Agreement as Administrative\nAgent and on behalf of such Lender or other Secured Party, as applicable, and\n(iii) agrees that Administrative Agent may take such actions on behalf of such\nLender or other Secured Party as is contemplated by the terms of such Existing\nIntercreditor Agreement.\n\n  \n\nSECTION 8.14.</t>
+  </si>
+  <si>
+    <t>Except as otherwise expressly set forth in\nany other Loan Documents, no Lender or any Affiliate of a Lender that is owed\nany Secured Swap Obligations, Secured Treasury Services Obligations, or\nSecured Supply Chain Obligations shall have any right to notice of any action\nor to consent to, direct or object to any action hereunder or under any other\nLoan Document or otherwise in respect of the Collateral (including the release\nor impairment of any Collateral) other than in its capacity as a Lender or an\nIssuing Bank and, in such case, only to the extent expressly provided in the\nLoan Documents.</t>
+  </si>
+  <si>
+    <t>All\nnotices and other communications given to any party hereto in accordance with\nthe provisions of this Agreement shall be deemed to have been given on the\ndate of receipt.\n\n  \n\nSECTION 9.02.</t>
+  </si>
+  <si>
+    <t>No waiver\nof any provision of any Loan Document or consent to any departure by any Loan\nParty therefrom shall in any event be effective unless the same shall be\npermitted by paragraph (b) of this Section, and then such waiver or consent\nshall be effective only in the specific instance and for the purpose for which\ngiven.</t>
+  </si>
+  <si>
+    <t>Without limiting the generality of the foregoing, the making of a Loan\nor issuance of a Letter of Credit shall not be construed as a waiver of any\nDefault, regardless of whether the Administrative Agent, the Term Agent, any\nCo-Collateral Agent, any Lender or any Issuing Bank may have had notice or\nknowledge of such Default at the time.\n\n  \n\n(b)Except as expressly contemplated by Section 2.05(i), 2.22 or 2.23 (which\namendments shall be permitted if entered into by the parties referred to\ntherein, but subject to Section 9.02(b)(iv) below), neither this Agreement nor\nany other Loan Document nor any provision hereof or thereof may be waived,\namended or modified except, in the case of this Agreement, pursuant to an\nagreement or agreements in writing entered into by Holdings, the Borrowers,\nthe Account Parties, the Required Lenders, the Administrative Agent, the Term\nAgent, or, in the case of any other Loan Document, pursuant to an agreement or\nagreements in writing entered into by the Administrative Agent, the Term\nAgent, and the Loan Party or Loan Parties that are parties thereto, in each\ncase with the consent of the Required Lenders; provided that no such agreement\nshall\n\n  \n\n(i)increase the Commitment of any Lender without the written consent of such\nLender,\n\n  \n\n(ii)reduce the principal amount of any Loan or LC Disbursement or reduce the\nrate of interest thereon, or reduce any fees payable hereunder, without the\nwritten consent of each Lender directly affected thereby; provided that (A)\nonly the consent of the Required Revolving Lenders shall be necessary to amend\nthe provisions of Section 2.12(c) providing for the default rate of interest\nas to any Revolving Loans or unreimbursed LC Disbursements, or to waive any\nobligations of any Borrower or any Account Party to pay interest at such\ndefault rate and (B) only the consent of the Required Term Lenders shall be\nnecessary to amend the provisions of Section 2.12(c) providing for the default\nrate of interest as to any Term Loans, or to waive any obligations of any\nBorrower or any Account Party to pay interest at such default rate,\n\n  \n\n(iii)postpone the scheduled date of payment of the principal amount of any\nLoan or LC Disbursement, or any interest thereon, or any fees payable\nhereunder, or reduce the amount of, waive or excuse any such payment, or\npostpone the scheduled date of expiration of any Commitment, or postpone or\nreduce the amount of, or waive or excuse any mandatory prepayment under\nSection 2.10(c) or Section 2.10(d), in each case without the written consent\nof each Lender directly affected thereby; provided that (A) only the consent\nof the Required Revolving Lenders shall be necessary to amend the provisions\nof Section 2.12(c) providing for the default rate of interest as to any\nRevolving Loans or unreimbursed LC Disbursements, or to waive any obligations\nof any Borrower or any Account Party to pay interest at such default rate and\n(B) only the consent of the Required Term Lenders shall be necessary to amend\nthe provisions of Section 2.12(c) providing for the default rate of interest\nas to any Term Loans, or to waive any obligations of any Borrower or any\nAccount Party to pay interest at such default rate and (C) any amendment to\nSection 2.10(e) or any other change to any repayment of the Term\n\n  \n\n124\n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\nLoans from any Consolidated Excess Cash Flow may be waived or modified solely\nwith the written consent of the Required Term Lenders,\n\n  \n\n(iv)change the order of application of funds provided in Section 2.09(g) and\n2.17(h), or the provisions in Sections 2.22, 2.23 and 9.02(e) with respect to\nthe order of application of funds, without the consent of each Lender directly\naffected thereby;\n\n  \n\n(v)change Section 2.17(b) or (c) in a manner that would alter the pro rata\nsharing of payments required thereby, without the written consent of each\nLender,\n\n  \n\n(vi)change any of the provisions of this Section or the definition of\n\xe2\x80\x9cRequired Lenders\xe2\x80\x9d, \xe2\x80\x9cRequired Revolving Lenders, \xe2\x80\x9cSupermajority Lenders\xe2\x80\x9d,\n\xe2\x80\x9cRequired Term Lenders\xe2\x80\x9d or any other provision of any Loan Document specifying\nthe number or percentage of Lenders required to waive, amend or modify any\nrights thereunder or make any determination or grant any consent thereunder,\nwithout the written consent of each Lender in the case of the definition of\n\xe2\x80\x9cRequired Lenders\xe2\x80\x9d, each Revolving Lender in the case of the definition of\n\xe2\x80\x9cRequired Revolving Lenders\xe2\x80\x9d, each Lender in the case of \xe2\x80\x9cSupermajority\nLenders\xe2\x80\x9d and each Term Lender in the case of the definition of \xe2\x80\x9cRequired Term\nLenders\xe2\x80\x9d,\n\n  \n\n(vii)release the Parent Borrower or Holdings from its Guarantee under the\nCollateral Agreement (except as expressly provided in the Collateral\nAgreement), or limit all or substantially all its liability in respect of such\nGuarantee, without the written consent of each Lender,\n\n  \n\n(viii)release all or substantially all of the Loan Parties from their\nGuarantees under the Collateral Agreement (except as expressly provided in the\nCollateral Agreement), or limit all or substantially all their liability in\nrespect of such Guarantees, without the written consent of each Lender,\n\n  \n\n(ix)release all or substantially all of the Collateral from the Liens of the\nCollateral Agreement (except as expressly provided in the Collateral\nAgreement) without the written consent of each Lender;\n\n  \n\n(x)change Section 2.05(k)(i) in a manner that would alter the participation\nobligation of any Lender, without the written consent of such Lender;\n\n  \n\n(xi)permit any Loan Party to assign its rights under the Loan Documents,\nwithout the written consent of each Lender;\n\n  \n\n(xii)increase the percentages applied to eligible assets in the definition of\nthe Borrowing Base, without the consent of each Lender;\n\n\n\n(xiii)except as otherwise provided in clause (xii) above as to an increase in\nsuch percentages, change the definition of the term \xe2\x80\x9cBorrowing Base\xe2\x80\x9d or any\ncomponent definition thereof if as a result thereof the amounts available to\nbe borrowed by the Borrowers would be increased, without the written consent\nof Supermajority Lenders and Required Term Lenders, provided, that, (A) the\nforegoing shall not limit the discretion of the Co-Collateral Agents to\nchange, establish or eliminate any Reserves, and (B) in no event shall the\namount of the Term Loan Reserve be reduced below the principal amount of the\nTerm Loans without the written consent of each Term Lender;\n\n  \n\n(xiv)except as expressly permitted herein or in any other Loan Document,\nsubordinate the Obligations hereunder or the Liens granted hereunder or under\nthe other Loan\n\n  \n\n125\n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\nDocuments, to any other Indebtedness or Lien, as the case may be without the\nwritten consent of each Lender; and\n\n  \n\n(xv)amend, modify or waive any terms of Section 8.11 hereof, or amend the\ndefinition of \xe2\x80\x9cCo-Collateral Agents\xe2\x80\x9d, in each case without the consent of each\nof the Co-Collateral Agents;\n\nand, provided, that, (1) no amendment, waiver or consent shall, unless in\nwriting and signed by the applicable Issuing Bank in addition to the Lenders\nrequired above, affect the rights or duties of such Issuing Bank under this\nAgreement or any Issuer Document relating to any Letter of Credit issued or to\nbe issued by it; (2) no amendment, waiver or consent shall, unless in writing\nand signed by the Swingline Lender in addition to the Lenders required above,\naffect the rights or duties of the Swingline Lender under this Agreement; (3)\nno amendment, waiver or consent shall, unless in writing and signed by the\nAdministrative Agent or Term Agent, as applicable, in addition to the Lenders\nrequired above, affect the rights or duties of the Administrative Agent or\nTerm Agent, as applicable, under this Agreement or any other Loan Document;\n(4) no amendment, waiver or consent shall, unless in writing and signed by the\naffected Co-Collateral Agent in addition to the Lenders required above, affect\nany rights, duties or discretion of such affected Co-Collateral Agent under\nthis Agreement or any other Loan Document, and (5) any fee letters may be\namended, or rights or privileges thereunder waived, in a writing executed only\nby the parties thereto.</t>
+  </si>
+  <si>
+    <t>Notwithstanding anything to the contrary herein, no\nDefaulting Lender shall have any right to approve or disapprove any amendment,\nwaiver or consent hereunder, except that the Revolving Commitment of such\nLender may not be increased or extended without the consent of such Lender.\n\n(c)Notwithstanding anything to the contrary in this Agreement or any other\nLoan Document, no provider or holder of any Secured Swap Obligations, Secured\nTreasury Services Obligations, or Secured Supply Chain Obligations shall have\nany voting or approval rights hereunder (or be deemed a Lender) solely by\nvirtue of its status as the provider or holder of such agreements or products\nor the Obligations owing thereunder, nor shall the consent of any such\nprovider or holder be required (other than in their capacities as Lenders, to\nthe extent applicable) for any matter hereunder or under any of the other Loan\nDocuments, including as to any matter relating to the Collateral or the\nrelease of Collateral or any Loan Party.\n\n  \n\n(d)Notwithstanding the foregoing, (i) the consent of the Required Lenders\nshall not be required to amend this Agreement to increase the total\nCommitments pursuant to Section 2.22 and to make other changes incidental\nthereto or contemplated thereby and (ii) this Agreement may be amended by an\nagreement in writing entered into by the Parent Borrower, the Administrative\nAgent and the Term Agent to cure any ambiguity, omission, defect or\ninconsistency; provided that, in the case of clause (ii), the Lenders shall\nhave received at least five Business Days\xe2\x80\x99 prior written notice thereof and\nthe Administrative Agent shall not have received, within five Business Days of\nthe date of such notice to the Lenders, written notice from the Required\nLenders to the effect that the Required Lenders object to such amendment.\n\n  \n\n(e)Notwithstanding anything to the contrary (but subject to Section\n9.02(b)(iv) to the extent provided therein), this Agreement may be amended (or\ndeemed amended) or amended and restated, in whole or in part, with the written\nconsent of the Required Revolving Lenders and the Required Term Lenders, the\nAdministrative Agent, the Term Agent and the Parent Borrower to (i) add one or\nmore additional credit facilities to this Agreement and to permit the\nextensions of credit from time to time outstanding hereunder and the accrued\ninterest and fees in respect thereof to share ratably in the benefits of this\nAgreement and the other Loan Documents with the existing facilities and the\naccrued interest and fees in respect thereof, (ii) to include, as appropriate,\nLenders holding such credit facilities in any required\n\n  \n\n  \n\n126\n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\nvote or action of the Required Lenders, Required Revolving Lenders, Required\nTerm Lenders or of the Lenders of each facility under this Agreement and (iii)\nto provide class protection for any additional credit facilities in a manner\nconsistent with those provided the original facilities pursuant to the\nprovisions of this Agreement originally in effect.</t>
+  </si>
+  <si>
+    <t>Any payments in respect of\nobligations under such additional credit facilities shall only be applied to\nsuch obligations either pari passu with, or after the payment in full of, the\nprincipal of the Term Loans pursuant to the priority of application of\npayments set forth in this Agreement.\n\n  \n\n(f)If, in connection with any proposed change, waiver, discharge or\ntermination of or to any of the provision of this Agreement and/or any other\nLoan Document requiring the consent of \xe2\x80\x9ceach Lender\xe2\x80\x9d or \xe2\x80\x9ceach Lender directly\naffected thereby\xe2\x80\x9d, the consent of the Required Lenders, Required Revolving\nLenders or Required Term Lenders, as the case may be, is obtained, but the\nconsent of other necessary Lenders is not obtained (any such Lender whose\nconsent is necessary but not obtained being referred to herein as a \xe2\x80\x9cNon-\nConsenting Lender\xe2\x80\x9d), then the Parent Borrower may, upon prior written notice\nto the Administrative Agent and the Non-Consenting Lender, elect to replace\nsuch Non-Consenting Lender as a Lender party to this Agreement; provided that,\nconcurrently with such replacement, (i) another bank or other entity shall\nagree, as of such date, to purchase (and the Non-Consenting Lender shall be\nobligated to sell) for cash the Loans and other Obligations due to the Non-\nConsenting Lender pursuant to an Assignment and Assumption and to become a\nLender for all purposes under this Agreement and to assume all obligations of\nthe Non-Consenting Lender to be terminated as of such date and to comply with\nthe requirements of Section 9.04(b) (provided that each such bank or other\nentity, if not already a Lender (or an Affiliate of a Lender) hereunder, shall\nbe subject to the approval of the Administrative Agent (not to be unreasonably\nwithheld)), (ii) the replacement Lender shall pay the processing and\nrecordation fee referred to in Section 9.04(b)(ii)(C), if applicable, in\naccordance with the terms of such Section, (iii) the replacement Lender shall\ngrant its consent with respect to the applicable proposed change, waiver,\ndischarge or termination and (iv) the replacement Lender shall pay to such\nNon-Consenting Lender in same day funds on the day of such replacement (1) all\nprincipal, interest, fees and other amounts then accrued but unpaid to such\nNon-Consenting Lender by the Borrowers and the Account Parties hereunder to\nand including the date of termination, including, without limitation, payments\ndue to such Non-Consenting Lender under Sections 2.14 and 2.16, and (2) an\namount, if any, equal to the payment which would have been due to such Non-\nConsenting Lender on the day of such replacement under Section 2.15 had the\nLoans of such Non-Consenting Lender been prepaid on such date rather than sold\nto the replacement Lender.</t>
+  </si>
+  <si>
+    <t>This Section 9.03(b)\nshall not apply with respect to Taxes other than any Taxes that represent\nlosses or damages arising from any non-Tax claim.</t>
+  </si>
+  <si>
+    <t>The Indemnifying Parties shall\nbe liable for any settlement of any claim against any of the Indemnified\nParties, to the extent such claim is required to be indemnified by any such\nIndemnifying Party pursuant to the terms of this Section 9.03 (an \xe2\x80\x9cIndemnified\nClaim\xe2\x80\x9d) and is made with any Indemnifying Party\xe2\x80\x99s prior written consent (not\nto be unreasonably withheld or delayed).</t>
+  </si>
+  <si>
+    <t>Without the prior written consent of\nthe Administrative Agent, the Revolving Agent and the Term Agent (not to be\nunreasonably withheld or delayed), an Indemnifying Party shall not settle or\ncompromise any Indemnified Claim, permit a default or consent to the entry of\nany judgment in\n\n  \n\n129\n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\nrespect thereof, unless such settlement (i) includes an unconditional release\nof such Indemnified Party in form and substance reasonably satisfactory to\nsuch Indemnified Party from all liability or claims that are the subject\nmatter of such proceedings and (ii) does not include any statement as to or\nany admission of fault, culpability, wrongdoing or a failure to act by or on\nbehalf of any Indemnified Party.\n\n  \n\n(d)No Indemnified Party, Indemnifying Party or other party hereto shall be\nliable for any damages arising from the use by others of materials obtained\nthrough internet, Intralinks, SyndTrak or other similar transmission systems\nin connection with this Agreement and the financing arrangements contemplated\nhereby, except to the extent any such damages arise from the gross negligence,\nbad faith or willful misconduct of such Indemnified Party or any of such\nIndemnified Party\xe2\x80\x99s Related Parties as determined pursuant to a final, non-\nappealable order of a court of competent jurisdiction.</t>
+  </si>
+  <si>
+    <t>In addition, none of\nthe Indemnified Parties or any Loan Party or any of its or their respective\naffiliates, directors, officers, employees, advisors, agents, members or\nrepresentatives shall be responsible or liable for special, indirect,\nconsequential, exemplary, incidental or punitive damages which may be alleged\nas a result of this Agreement, provided that nothing contained in this\nsentence shall limit any Loan Party\xe2\x80\x99s indemnity and reimbursement obligations\nas set forth herein (including the Loan Parties\xe2\x80\x99 indemnity and reimbursement\nobligations to indemnify the Indemnified Parties for indirect, special,\npunitive or consequential damages that are included in any third party claim\nin connection with which such Indemnified Party is entitled to indemnification\nhereunder).</t>
+  </si>
+  <si>
+    <t>It is further agreed that the Loan Parties shall have no liability\nto any person other than the Indemnified Parties to the extent set forth\nherein, provided that nothing contained in this sentence shall limit the Loan\nParties\xe2\x80\x99 indemnity and reimbursement obligations as set forth herein\n(including the Loan Parties\xe2\x80\x99 indemnity and reimbursement obligations to\nindemnify the Indemnified Parties with respect to any third party claim in\nconnection with which such Indemnified Party is entitled to indemnification\nhereunder).</t>
+  </si>
+  <si>
+    <t>Successors and Assigns.\n\n  \n\n(a)The provisions of this Agreement shall be binding upon and inure to the\nbenefit of the parties hereto and their respective successors and assigns\npermitted hereby (including any Affiliate of any Issuing Bank that issues any\nLetter of Credit), except that (i) neither Holdings, any Borrower nor any\nAccount Party may assign or otherwise transfer any of its rights or\nobligations hereunder except in a transaction expressly permitted hereby that\nexpressly contemplates such assignment or transfer without the prior written\nconsent of each Lender (and any attempted assignment or transfer by Holdings,\nany Borrower or any Account Party without such consent shall be null and void)\nand (ii) no Lender may assign or otherwise transfer its rights or obligations\nhereunder except in accordance with this Section.</t>
+  </si>
+  <si>
+    <t>Any agreement or instrument pursuant to which a Lender sells such\na participation shall provide that such Lender shall retain the sole right to\nenforce the Loan Documents and to approve any amendment, modification or\nwaiver of any provision of the Loan Documents; provided that such agreement or\ninstrument may provide that such Lender will not, without the consent of the\nParticipant, agree to any amendment, modification or waiver described in the\nfirst proviso to Section 9.02(b) that directly affects such Participant.\nSubject to paragraph (c)(ii) of this Section, Holdings, the Borrowers and the\nAccount Parties agree that each Participant shall be entitled to the benefits\nof Sections 2.14, 2.15 and 2.16 to the same extent as if it were a Lender and\nhad acquired its interest by assignment pursuant to paragraph (b) of this\nSection.</t>
+  </si>
+  <si>
+    <t>This Agreement, the other Loan\nDocuments and any separate letter agreements with respect to fees payable to\nthe Administrative Agent constitute the entire contract among the parties\nrelating to the subject matter hereof and supersede any and all previous\nagreements and understandings, oral or written, relating to the subject matter\nhereof.\n\n  \n\nSECTION 9.07.</t>
+  </si>
+  <si>
+    <t>Any provision of this Agreement held to be\ninvalid, illegal or unenforceable in any jurisdiction shall, as to such\njurisdiction, be ineffective to the extent of such invalidity, illegality or\nunenforceability without affecting the validity, legality and enforceability\nof the remaining provisions hereof; and the invalidity of a particular\nprovision in a particular jurisdiction shall not invalidate such provision in\nany other jurisdiction.\n\n  \n\nSECTION 9.08.</t>
+  </si>
+  <si>
+    <t>Governing Law; Jurisdiction; Consent to Service of Process.\n\n  \n\n(a)This Agreement shall be construed in accordance with and governed by the\nlaws of the State of New York (excluding any principles of conflicts of law or\nother rule of law that would cause the application of the law of any\njurisdiction other than the laws of the State of New York).\n\n  \n\n(b)Each of Holdings, the Borrowers and the Account Parties hereby irrevocably\nand unconditionally submits, for itself and its property, to the exclusive\njurisdiction of the Supreme Court of the State of New York sitting in New York\nCounty and of the United States District Court of the Southern District of New\nYork, and any appellate court from any thereof, in any action or proceeding\narising out of or relating to any Loan Document, or for recognition or\nenforcement of any judgment, and each of the parties hereto hereby irrevocably\nand unconditionally agrees that all claims in respect of any such action or\nproceeding may be heard and determined in such New York State or, to the\nextent permitted by law, in such Federal court.</t>
+  </si>
+  <si>
+    <t>Each of the parties hereto\nagrees that a final judgment in any such action or proceeding shall be\nconclusive and may be enforced in other jurisdictions by suit on the judgment\nor in any other manner provided by law.</t>
+  </si>
+  <si>
+    <t>Nothing in this Agreement or any other\nLoan Document shall affect any right that the Administrative Agent, the Term\nAgent, any Issuing Bank or any Lender may otherwise have to bring any action\nor proceeding relating to this Agreement or any other Loan Document against\nHoldings, a Borrower or an Account Party or any of their respective properties\nin the courts of any jurisdiction.\n\n  \n\n(c)Each of Holdings, the Borrowers and the Account Parties hereby irrevocably\nand unconditionally waives, to the fullest extent it may legally and\neffectively do so, any objection which it may now or hereafter have to the\nlaying of venue of any suit, action or proceeding arising out of or relating\nto this Agreement or any other Loan Document in any court referred to in\nparagraph (b) of this Section.</t>
+  </si>
+  <si>
+    <t>Each of the parties hereto hereby irrevocably\nwaives, to the fullest extent permitted by law, the defense of an inconvenient\nforum to the maintenance of such action or proceeding in any such court.\n\n  \n\n(d)Each party to this Agreement irrevocably consents to service of process in\nthe manner provided for notices in Section 9.01.</t>
+  </si>
+  <si>
+    <t>Nothing in this Agreement or\nany other Loan Document will affect the right of any party to this Agreement\nto serve process in any other manner permitted by law.\n\n  \n\nSECTION 9.10.</t>
+  </si>
+  <si>
+    <t>WAIVER OF JURY TRIAL EACH PARTY HERETO HEREBY WAIVES, TO THE\nFULLEST EXTENT PERMITTED BY APPLICABLE LAW, ANY RIGHT IT MAY HAVE TO A TRIAL\nBY JURY IN ANY LEGAL PROCEEDING DIRECTLY OR INDIRECTLY ARISING OUT OF OR\nRELATING TO THIS AGREEMENT, ANY OTHER LOAN DOCUMENT OR THE TRANSACTIONS\nCONTEMPLATED HEREBY (WHETHER BASED ON CONTRACT, TORT OR ANY OTHER THEORY).\nEACH PARTY HERETO (A) CERTIFIES THAT NO REPRESENTATIVE, AGENT OR ATTORNEY OF\nANY OTHER PARTY HAS REPRESENTED, EXPRESSLY OR OTHERWISE, THAT SUCH OTHER PARTY\nWOULD NOT, IN THE EVENT OF LITIGATION, SEEK TO ENFORCE THE FOREGOING WAIVER\nAND (B) ACKNOWLEDGES THAT IT AND THE OTHER PARTIES HERETO HAVE BEEN INDUCED TO\nENTER INTO THIS AGREEMENT BY, AMONG OTHER THINGS, THE MUTUAL WAIVERS AND\nCERTIFICATIONS IN THIS SECTION.\n\n  \n\nSECTION 9.11.</t>
+  </si>
+  <si>
+    <t>USA Patriot Act.</t>
+  </si>
+  <si>
+    <t>No Fiduciary Duty.</t>
+  </si>
+  <si>
+    <t>The Loan Parties acknowledge\nand agree that (i) the transactions contemplated by the Loan Documents\n(including the exercise of rights and remedies hereunder and thereunder) are\narm\xe2\x80\x99s-length commercial transactions between the Lenders, on the one hand, and\nthe Loan Parties, on the other, and (ii) in connection therewith and with the\nprocess leading thereto, (x) no Lender has assumed an advisory or fiduciary\nresponsibility in favor of any Loan Party, its stockholders or its Affiliates\nwith respect to the transactions contemplated hereby (or the exercise of\nrights or remedies with respect thereto) or the process leading thereto\n(irrespective of whether any\n\n  \n\n137\n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\nLender has advised, is currently advising or will advise any Loan Party, its\nstockholders or its Affiliates on other matters) or any other obligation to\nany Loan Party except the obligations expressly set forth in the Loan\nDocuments and (y) each Lender is acting solely as principal and not as the\nagent or fiduciary of any Loan Party, its management, stockholders, creditors\nor any other Person.</t>
+  </si>
+  <si>
+    <t>Each Loan\nParty intends this Section to constitute, and this Section shall be deemed to\nconstitute, a guarantee of the obligations of, and a \xe2\x80\x9ckeepwell, support, or\nother agreement\xe2\x80\x9d for the benefit of, each Specified Loan Party for all\npurposes of the Commodity Exchange Act.</t>
+  </si>
+  <si>
+    <t>\n  \n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\n  \n\nSCHEDULE 6.01\n\nExisting Indebtedness\n\n  \n  \n  \n---  \n| | |  \n  \nName of Issuer\n\n|\n\nTitle of Securities of Issuer\n\n|\n\nAmount of Such Securities Outstanding (in millions of $)  \n  \nJ.</t>
+  </si>
+  <si>
+    <t>Capitalized terms used but not defined herein shall have the\nmeanings given to them in the Credit Agreement identified below (as amended,\nthe \xe2\x80\x9cCredit Agreement\xe2\x80\x9d), receipt of a copy of which is hereby acknowledged by\nthe Assignee.</t>
+  </si>
+  <si>
+    <t>The Standard Terms and Conditions set forth in Annex 1 attached\nhereto are hereby agreed to and incorporated herein by reference and made a\npart of this Assignment and Assumption as if set forth herein in full.\n\nFor an agreed consideration, the Assignor hereby irrevocably sells and assigns\nto the Assignee, and the Assignee hereby irrevocably purchases and assumes\nfrom the Assignor, subject to and in accordance with the Standard Terms and\nConditions and the Credit Agreement, as of the Effective Date inserted by the\nAdministrative Agent as contemplated below (i) all of the Assignor\xe2\x80\x99s rights\nand obligations in its capacity as a Lender under the Credit Agreement and any\nother documents or instruments delivered pursuant thereto to the extent\nrelated to the amount and percentage interest identified below of all of such\noutstanding rights and obligations of the Assignor under the respective\nfacilities identified below (including any letters of credit, guarantees, and\nswingline loans included in such facilities) and (ii) to the extent permitted\nto be assigned under applicable law, all claims, suits, causes of action and\nany other right of the Assignor (in its capacity as a Lender) against any\nPerson, whether known or unknown, arising under or in connection with the\nCredit Agreement, any other documents or instruments delivered pursuant\nthereto or the loan transactions governed thereby or in any way based on or\nrelated to any of the foregoing, including contract claims, tort claims,\nmalpractice claims, statutory claims and all other claims at law or in equity\nrelated to the rights and obligations sold and assigned pursuant to clause (i)\nabove (the rights and obligations sold and assigned pursuant to clauses (i)\nand (ii) above being referred to herein collectively as the \xe2\x80\x9cAssigned\nInterest\xe2\x80\x9d).</t>
+  </si>
+  <si>
+    <t>)\n\n  \n\n3 Set forth, to at least 9 decimals, as a percentage of the Commitment/Loans\nof all Lenders thereunder.\n\n  \n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\n  \n\nThe terms set forth in this Assignment and Assumption are hereby agreed to:\n\nASSIGNOR [NAME OF ASSIGNOR],\n\n  \n\nby__________________________\n\nTitle:\n\nASSIGNEE [NAME OF ASSIGNEE],\n\n  \n\nby__________________________\n\nTitle:\n\n  \n\n  \n\nConsented to:\n\n  \n\nJ.</t>
+  </si>
+  <si>
+    <t>The Assignee (a) represents and warrants that (i) it has full\npower and authority, and has taken all action necessary, to execute and\ndeliver this Assignment and Assumption and to consummate the transactions\ncontemplated hereby and to become a Lender under the Credit Agreement, (ii) it\nsatisfies the requirements, if any, specified in the Credit Agreement that are\nrequired to be satisfied by it in order to acquire the Assigned Interest and\nbecome a Lender, (iii) from and after the Effective Date, it shall be bound by\nthe provisions of the Credit Agreement as a Lender thereunder and, to the\nextent of the Assigned Interest, shall have the obligations of a Lender\nthereunder, (iv) it has received a copy of the Credit Agreement, together with\ncopies of the most recent financial statements delivered pursuant to Section\n5.01 thereof, as applicable, and such other documents and information as it\nhas deemed appropriate to make its own credit analysis and decision to enter\ninto this Assignment and Assumption and to purchase the Assigned Interest on\nthe basis of which it has made such analysis and decision independently and\nwithout reliance on the Administrative Agent or any other Lender, and (v)\nattached to this Assignment and Assumption is any documentation required to be\ndelivered by it pursuant to the terms of the Credit Agreement, duly completed\nand executed by the Assignee; and (b) agrees that (i) it will, independently\nand without reliance on the Administrative Agent, the Assignor or any other\nLender, and based on such documents and information as it shall deem\nappropriate at the time, continue to make its own credit decisions in taking\nor not taking action under the Loan Documents, and (ii) it will perform in\naccordance with their terms all of the obligations\n\n  \n\n* * *\n\n  \n\n  \n\nwhich by the terms of the Loan Documents are required to be performed by it as\na Lender.\n\n2\\.</t>
+  </si>
+  <si>
+    <t>General Provisions.</t>
+  </si>
+  <si>
+    <t>This Assignment and Assumption shall be binding upon,\nand inure to the benefit of, the parties hereto and their respective\nsuccessors and assigns.</t>
+  </si>
+  <si>
+    <t>This Assignment and Assumption may be executed in any\nnumber of counterparts, which together shall constitute one instrument.\nDelivery of an executed counterpart of a signature page of this Assignment and\nAssumption by telecopy shall be effective as delivery of a manually executed\ncounterpart of this Assignment and Assumption.</t>
+  </si>
+  <si>
+    <t>THIS ASSIGNMENT AND ASSUMPTION\nSHALL BE SUBJECT TO THE PROVISIONS REGARDING CHOICE OF LAW, JURISDICTION,\nVENUE, JURY TRIAL WAIVER, AND CONSENT TO PROCESS SET FORTH IN SECTIONS 9.09\nAND 9.10 OF THE CREDIT AGREEMENT, AND SUCH PROVISIONS ARE INCORPORATED HEREIN\nBY THIS REFERENCE, MUTATIS MUTANDIS.\n\n  \n\n  \n\n  \n\n* * *\n\n  \n\n  \n\nEXHIBIT C\n\nGUARANTEE AND COLLATERAL AGREEMENT\n\ndated as of\n\nJune 20, 2014\n\namong\n\n  \n\nJ.</t>
+  </si>
+  <si>
+    <t>No Limitations, Etc\n..............................................................................................4\n\nSECTION 2.04.</t>
+  </si>
+  <si>
+    <t>Agreement To Pay;\nSubrogation...........................................................................5\n\nSECTION 2.06.\nInformation...........................................................................................................5\n\n  \n\nARTICLE III\n\nSecurity Interest\n\nSECTION 3.01.</t>
+  </si>
+  <si>
+    <t>Remedies upon Default\n........................................................................................12\n\nSECTION 4.02.</t>
+  </si>
+  <si>
+    <t>Waivers; Amendment\n.........................................................................................19\n\nSECTION 6.10.</t>
+  </si>
+  <si>
+    <t>WAIVER OF JURY TRIAL\n...............................................................................19\n\nSECTION 6.11.</t>
+  </si>
+  <si>
+    <t>Jurisdiction; Consent to Service of Process\n.......................................................20\n\nSECTION 6.15.</t>
+  </si>
+  <si>
+    <t>No Limitations, Etc.</t>
+  </si>
+  <si>
+    <t>Without limiting the generality of the foregoing, the\nobligations of each Guarantor hereunder shall not be discharged or impaired or\notherwise affected by (i) the failure of the Administrative Agent or any other\nSecured Party to assert any claim or demand or to enforce any right or remedy\nunder the provisions of any Loan Document or otherwise; (ii) any rescission,\nwaiver, amendment or modification of, or any release from any of the terms or\nprovisions of, any Loan Document or any other agreement, including with\nrespect to any other Guarantor under this Agreement; (iii) the release of any\nsecurity held by the Administrative Agent or any other Secured Party for the\nObligations or any of them; (iv) any default, failure or delay, willful or\notherwise, in the performance of the Obligations; or (v) any other act or\nomission that may or might in any manner or to any extent vary the risk of any\nGuarantor or otherwise operate as a discharge of any Guarantor as a matter of\nlaw or equity (other than the payment in full of all the Loan Document\nObligations (other than unasserted indemnification, tax gross up, expense\nreimbursement or yield protection obligations, in each case for which no claim\nhas been made)).</t>
+  </si>
+  <si>
+    <t>Agreement To Pay; Subrogation.</t>
+  </si>
+  <si>
+    <t>The Grantors jointly and\nseverally represent and warrant to the Administrative Agent and the other\nSecured Parties that:\n\n  \n\n  \n\n  \n\n  \n\n  \n\n  \n\n7\n\n  \n\n* * *\n\n  \n\n  \n\n  \n\n(a)Each Grantor has good and valid rights in and title to the Collateral with\nrespect to which it has purported to grant a Security Interest hereunder and\nhas full power and authority to grant to the Administrative Agent the Security\nInterest in such Collateral pursuant hereto and to execute, deliver and\nperform its obligations in accordance with the terms of this Agreement,\nwithout the consent or approval of any other Person other than any consent or\napproval that has been obtained.\n\n  \n\n(b) The Perfection Certificate has been duly prepared, completed and executed\nand the information set forth therein, including the exact legal name of each\nGrantor, is correct and complete as of the date hereof.</t>
+  </si>
+  <si>
+    <t>None of the Grantors has filed or consented to the\nfiling of (i) any financing statement or analogous document under the Uniform\nCommercial Code or any other applicable laws covering any Collateral except\nany such filings made pursuant to the GE Agreement, or (ii) any assignment in\nwhich any Grantor assigns any Collateral or any security agreement or similar\n\n  \n\n8\n\n  \n\n* * *\n\n  \n\n  \n\ninstrument covering any Collateral with any foreign governmental, municipal or\nother office, which financing statement or analogous document, assignment,\nsecurity agreement or similar instrument is still in effect, except, in each\ncase, for involuntary Permitted Encumbrances, Specified Involuntary Liens\nsecuring obligations not in excess of $20,000,000 at any time and Liens\nexpressly permitted pursuant to clauses (a), (c), (g), (h) and (m) of Section\n6.02 of the Credit Agreement.\n\n  \n\n(e)To the knowledge of each Grantor, (i) each Grantor owns, licenses or\notherwise has the rights to use, all Patents, Trademarks, Copyrights or other\nIntellectual Property material to the preparing for sale or sale of the\nInventory, (ii) the use thereof by each Grantor for any such purpose does not\ninfringe upon the rights of any other Person and (iii) no such Intellectual\nProperty (other than Intellectual Property rights granted to such Grantor\nunder license agreements with third parties) is subject to any Lien or other\nrestriction (other than (A) any such Lien or other restriction with respect to\nwhich a waiver or release has been obtained or (B) any such Lien or\nrestriction permitted under the Credit Agreement), in each case except to the\nextent (1) of any defects in ownership or licenses and any such infringements\nthat, individually or in the aggregate, would not result in a Material Adverse\nEffect or (2) that the failure to have such rights, such infringement or such\nLien or restriction would not materially adversely affect the exercise of the\nAdministrative Agent\xe2\x80\x99s rights with respect to such Intellectual Property to\nprepare for sale or to sell any Inventory under Article IV.\n\n  \n\n(f) Notwithstanding the foregoing, the representations and warranties set\nforth in this Section as to perfection and priority of the Security Interest\nin Proceeds are limited to the extent provided in Section 9-315 of the Uniform\nCommercial Code.\n\n  \n\nSECTION 3.03.</t>
+  </si>
+  <si>
+    <t>Remedies upon Default.</t>
+  </si>
+  <si>
+    <t>As an alternative to exercising the power\nof sale herein conferred upon it, the Administrative Agent may proceed by a\nsuit or suits at law or in equity to foreclose this Agreement and to sell the\nCollateral or any portion thereof pursuant to a judgment or decree of a court\nor courts having competent jurisdiction or\n\n  \n\n  \n\n  \n\n  \n\n13\n\n  \n\n* * *\n\n  \n\n  \n\npursuant to a proceeding by a court-appointed receiver.</t>
+  </si>
+  <si>
+    <t>Grantor\xe2\x80\x99s Obligations Upon Default.</t>
+  </si>
+  <si>
+    <t>All communications and notices hereunder shall (except\nas otherwise expressly permitted herein) be in writing and given as provided\nin Section 9.01 of the Credit Agreement.</t>
+  </si>
+  <si>
+    <t>Rights Absolute.</t>
+  </si>
+  <si>
+    <t>All rights of the Administrative Agent\nhereunder, the Security Interest and all obligations of each Guarantor and\nGrantor hereunder shall be absolute and unconditional irrespective of (a) any\nlack of validity or enforceability of the Credit Agreement, any other Loan\nDocument (other than this Agreement), any other agreement with respect to any\nof the Obligations or any other agreement or instrument relating to any of the\nforegoing, (b) any change in the time, manner or place of payment of, or in\nany other term of, all or any of the Obligations, or any other amendment or\nwaiver of or any consent to any departure from the Credit Agreement, any other\nLoan Document or any other agreement or instrument, (c) any exchange, release\nor non-perfection of any Lien on other collateral, or any release or amendment\nor waiver of or consent under or departure from any guarantee, securing or\nguaranteeing all or any of the Obligations, or (d) any other circumstance that\nmight otherwise constitute a defense available to, or a discharge of, any\nGuarantor or Grantor in respect of the Obligations or this Agreement, other\nthan payment in full of the Loan Document Obligations (other than unasserted\nindemnification, tax gross up, expense reimbursement or yield protection\nobligations, in each case for which no claim has been made).</t>
+  </si>
+  <si>
+    <t>Survival of Agreement.</t>
+  </si>
+  <si>
+    <t>Binding Effect; Several Agreement.</t>
+  </si>
+  <si>
+    <t>This Agreement shall become\neffective as to any Party when a counterpart hereof executed on behalf of such\nParty shall have been delivered to the Administrative Agent and a counterpart\nhereof shall have been executed on behalf of the Administrative Agent, and\nthereafter shall be binding upon such Party and the Administrative Agent and\ntheir respective permitted successors and\n\n  \n\n  \n\n  \n\n17\n\n  \n\n* * *\n\n  \n\n  \n\nassigns, and shall inure to the benefit of such Party, the Administrative\nAgent and the other Secured Parties and their respective successors and\nassigns, except that no Party shall have the right to assign or transfer its\nrights or obligations hereunder or any interest herein or in the Collateral\n(and any such assignment or transfer shall be void) except as expressly\ncontemplated by this Agreement or the Credit Agreement.</t>
+  </si>
+  <si>
+    <t>This Agreement shall\nbe construed as a separate agreement with respect to each Party and may be\namended, modified, supplemented, waived or released with respect to any Party\nwithout the approval of any other Party and without affecting the obligations\nof any other Party hereunder.\n\n  \n\nSECTION 6.05.</t>
+  </si>
+  <si>
+    <t>Whenever in this Agreement any of the\nparties hereto is referred to, such reference shall be deemed to include the\npermitted successors and assigns of such party; and all covenants, promises\nand agreements by or on behalf of any Guarantor or Grantor or the\nAdministrative Agent that are contained in this Agreement shall bind and inure\nto the benefit of their respective successors and assigns.\n\n  \n\nSECTION 6.06.</t>
+  </si>
+  <si>
+    <t>This Agreement shall be construed in accordance\nwith and governed by the laws of the State of New York (excluding any\nprinciples of conflicts of law or other rule of law that would cause the\napplication of the law of any jurisdiction other than the State of New York).\n\n  \n\nSECTION 6.09.</t>
+  </si>
+  <si>
+    <t>Waivers; Amendment.</t>
+  </si>
+  <si>
+    <t>(a) No failure or delay by the\nAdministrative Agent, any other Agent, any Issuing Bank or any Lender in\nexercising any right or power hereunder or under any other Loan Document shall\noperate as a waiver thereof, nor shall any single or partial exercise of any\nsuch right or power, or any abandonment or discontinuance of steps to enforce\nsuch a right or power, preclude any other or further exercise thereof or the\nexercise of any other right or power.</t>
+  </si>
+  <si>
+    <t>No waiver\nof any provision of this Agreement or consent to any departure by any Party\ntherefrom shall in any event be effective unless the same shall be permitted\nby paragraph (b) of this Section, and then such waiver or consent shall be\neffective only in the specific instance and for the purpose for which given.\nWithout limiting the generality of the foregoing, the making of a Loan or\nissuance of a Letter of Credit shall not be construed as a waiver of any\nDefault, regardless of whether the Administrative Agent, any other Agent, any\nLender or any Issuing Bank may have had notice or knowledge of such Default at\nthe time.</t>
+  </si>
+  <si>
+    <t>No notice or demand on any Party in any case shall entitle any Party\nto any other or further notice or demand in similar or other circumstances.\n\n  \n\n(b) Neither this Agreement nor any provision hereof may be waived, amended or\nmodified except pursuant to an agreement or agreements in writing entered into\nby the Administrative Agent and the Parties with respect to which such waiver,\namendment or modification is to apply, subject to any consent required in\naccordance with Section 9.02 of the Credit Agreement.\n\n  \n\nSECTION 6.10.</t>
+  </si>
+  <si>
+    <t>WAIVER OF JURY TRIAL.</t>
+  </si>
+  <si>
+    <t>EACH PARTY HERETO (INCLUDING, FOR THE\nAVOIDANCE OF DOUBT, THE ADMINISTRATIVE AGENT) HEREBY WAIVES, TO THE FULLEST\nEXTENT PERMITTED BY APPLICABLE LAW, ANY RIGHT IT MAY HAVE TO A TRIAL BY JURY\nIN ANY LEGAL PROCEEDING DIRECTLY OR INDIRECTLY ARISING OUT OF OR RELATING TO\nTHIS AGREEMENT, ANY OTHER LOAN DOCUMENT OR THE TRANSACTIONS CONTEMPLATED\nHEREBY (WHETHER BASED ON CONTRACT, TORT OR ANY OTHER THEORY).</t>
+  </si>
+  <si>
+    <t>Any provision of this Agreement held to be\ninvalid, illegal or unenforceable in any jurisdiction shall, as to such\njurisdiction, be ineffective to the extent of such invalidity, illegality or\nunenforceability without affecting the validity, legality and enforceability\nof the remaining provisions hereof; and the invalidity of a particular\nprovision in a particular jurisdiction shall not invalidate such provision in\nany other jurisdiction.\n\n  \n\nSECTION 6.12.</t>
+  </si>
+  <si>
+    <t>Counterparts.</t>
+  </si>
+  <si>
+    <t>This Agreement may be executed in counterparts\n(and by different parties hereto on different counterparts), each of which\nshall constitute a single contract (subject to Section 6.04), and shall become\neffective as provided in Section 6.04.</t>
+  </si>
+  <si>
+    <t>Delivery of an executed signature page\nto this Agreement by telecopy or electronic transmission shall be effective as\ndelivery of a manually executed counterpart of this Agreement.\n\n  \n\nSECTION 6.13.</t>
+  </si>
+  <si>
+    <t>Article and Section headings used herein are for the\npurpose of reference only, are not part of this Agreement and are not to\naffect the construction of, or to be taken into consideration in interpreting,\nthis Agreement.\n\n  \n\nSECTION 6.14.</t>
+  </si>
+  <si>
+    <t>Jurisdiction; Consent to Service of Process.</t>
+  </si>
+  <si>
+    <t>Each of the\nparties hereto (including, for the avoidance of doubt, the Administrative\nAgent) agrees that a final judgment in any such action or proceeding shall be\nconclusive and may be enforced in other jurisdictions by suit on the judgment\nor in any other manner provided by law.</t>
+  </si>
+  <si>
+    <t>Nothing in this Agreement or any other\nLoan Document shall affect any right that the Administrative Agent, any other\nAgent, any Issuing Bank or any Lender may otherwise have to bring any action\nor proceeding relating to this Agreement or any other Loan Document against\nany Guarantor or Grantor or its respective properties in the courts of any\njurisdiction.\n\n  \n\n(b) Each of the parties hereto (including, for avoidance of doubt, the\nAdministrative Agent) hereby irrevocably and unconditionally waives, to the\nfullest extent it may legally and effectively do so, any objection which it\nmay now or hereafter have to the\n\n  \n\n  \n\n  \n\n  \n\n  \n\n  \n\n  \n\n20\n\n  \n\n* * *\n\n  \n\n  \n\nlaying of venue of any suit, action or proceeding arising out of or relating\nto this Agreement or any other Loan Document in any court referred to in\nparagraph (a) of this Section.</t>
+  </si>
+  <si>
+    <t>Nothing in this Agreement or any other\nLoan Document will affect the right of any party to this Agreement to serve\nprocess in any other manner permitted by law.\n\n  \n\nSECTION 6.15.</t>
+  </si>
+  <si>
+    <t>Termination or Release.</t>
+  </si>
+  <si>
+    <t>(a) This Agreement, the Guarantees made\nherein, the Security Interest and all other security interests granted hereby\nshall automatically terminate when all the Loan Document Obligations have been\npaid in full (other than unasserted indemnification, tax gross up, expense\nreimbursement or yield protection obligations, in each case for which no claim\nhas been made) and the Lenders have no further commitment to lend under the\nCredit Agreement, the LC Exposure has been reduced to zero and no Issuing Bank\nhas any further obligations to issue Letters of Credit under the Credit\nAgreement.\n\n  \n\n(b) A Subsidiary Party shall automatically be released from its obligations\nhereunder and, in the case of a Subsidiary Party that is a Subsidiary Grantor,\nthe Security Interest in the Collateral of such Subsidiary Grantor shall be\nautomatically released upon the consummation of any transaction not prohibited\nby the Credit Agreement as a result of which such Subsidiary Party ceases to\nbe a Subsidiary of Holdings.\n\n  \n\n(c) Upon any sale or other transfer by any Grantor of any Collateral that is\nnot prohibited by the Credit Agreement to any Person that is not a Grantor, or\nupon the effectiveness of any written consent to the release of the Security\nInterest granted hereby in any Collateral pursuant to Section 9.02 of the\nCredit Agreement, the Security Interest in such Collateral shall be\nautomatically released.\n\n  \n\n(d) In connection with any termination or release pursuant to paragraph (a),\n(b) or (c) above, the Administrative Agent shall execute and deliver to any\nGrantor at such Grantor\xe2\x80\x99s expense, all documents that such Grantor shall\nreasonably request to evidence such termination or release and shall authorize\nthe filing of any applicable documents evidencing such termination or release\n(including, without limitation, UCC termination statements).</t>
+  </si>
+  <si>
+    <t>Pursuant to the terms of the Credit\nAgreement, Additional Grantors may enter into this Agreement as Subsidiary\nGrantors.</t>
+  </si>
+  <si>
+    <t>]\n\n  \n\n  \n\n  \n\n  \n\n  \n\n  \n\n  \n\n  \n\n  \n\n  \n\n22\n\n  \n\n* * *\n\n  \n\n  \n\n  \n\n  \n\nIN WITNESS WHEREOF, the parties hereto have duly executed this Agreement as of\nthe day and year first above written.\n\n  \n\n  \n\nJ.</t>
+  </si>
+  <si>
+    <t>Capitalized terms used herein and not otherwise defined herein shall have\nthe meanings assigned to such terms in the Credit Agreement and the Collateral\nAgreement referred to therein.\n\n  \n\nC.</t>
+  </si>
+  <si>
+    <t>The\nCollateral Agreement is hereby incorporated herein by reference.\n\n  \n\nSECTION 2.</t>
+  </si>
+  <si>
+    <t>This Supplement may be executed in counterparts (and by different\nparties hereto on different counterparts), each of which shall constitute an\noriginal, but all of which when taken together shall constitute a single\ncontract.</t>
+  </si>
+  <si>
+    <t>Delivery of an executed signature page to this\nSupplement by facsimile or electronic transmission shall be as effective as\ndelivery of a manually signed counterpart of this Supplement.\n\n  \n\nSECTION 4.</t>
+  </si>
+  <si>
+    <t>In case any one or more of the provisions contained in this\nSupplement should be held invalid, illegal or unenforceable in any respect,\nthe validity, legality and enforceability of the remaining provisions\ncontained herein and in the Collateral Agreement shall not in any way be\naffected or impaired thereby (it being understood that the invalidity of a\nparticular provision in a particular jurisdiction shall not in and of itself\naffect the validity of such provision in any other jurisdiction).</t>
+  </si>
+  <si>
+    <t>The parties\nhereto shall endeavor in good-faith negotiations to replace the invalid,\nillegal or unenforceable provisions with valid provisions the economic effect\nof which comes as close as possible to that of the invalid, illegal or\nunenforceable provisions.\n\n  \n\nSECTION 7.</t>
+  </si>
+  <si>
+    <t>All communications and notices hereunder shall be in writing and\ngiven as provided in Section 6.01 of the Collateral Agreement.\n\n  \n\nSECTION 8.</t>
+  </si>
+  <si>
+    <t>The Collateral\nAgreement is hereby incorporated herein by reference.\n\n  \n\nSECTION 2.</t>
+  </si>
+  <si>
+    <t>The parties\nhereto shall endeavor in good-faith negotiations to replace the invalid,\nillegal or unenforceable provisions with valid provisions the economic effect\nof which comes as close as possible to that of the invalid, illegal or\nunenforceable provisions.\n\n  \n\n* * *\n\n  \n\n  \n\n  \n\nSECTION 8.</t>
+  </si>
+  <si>
+    <t>All communications and notices hereunder shall be in writing and\ngiven as provided in Section 6.01 of the Collateral Agreement.\n\n  \n\nSECTION 9.</t>
+  </si>
+  <si>
+    <t>Set forth on Schedule 7 is a complete and correct list of\nall Deposit Accounts maintained by each Grantor that meet the description set\nforth on Schedule 5.16 of the Credit Agreement as of the date hereof (the\n\xe2\x80\x9cInitial Control Accounts\xe2\x80\x9d).</t>
+  </si>
+  <si>
+    <t>Securities Accounts.</t>
+  </si>
+  <si>
+    <t>\n  \n---  \n|  \n  \n[NAME OF LENDER],  \n  \nby  \n  \n\n\n|\n\n  \n  \n\n\n|\n\nName:  \n  \n\n\n|\n\nTitle:  \n  \n  \n\n* * *\n\n  \n\n  \n\nEXHIBIT D-2\n\n  \n\n[FORM OF]\n\nU.S.</t>
+  </si>
+  <si>
+    <t>\n  \n---  \n|  \n  \n[NAME OF LENDER],  \n  \nby  \n  \n\n\n|\n\n  \n  \n\n\n|\n\nName:  \n  \n\n\n|\n\nTitle:  \n  \n  \n\n  \n\n* * *\n\n  \n\n  \n\nEXHIBIT D-3\n\n  \n\n[FORM OF]\n\nU.S.</t>
+  </si>
+  <si>
+    <t>By executing this certificate, the undersigned agrees that (1) if the\ninformation provided on this certificate changes, the undersigned shall\npromptly so inform such Foreign Lender in writing and (2) the undersigned\nshall have at all times furnished such Foreign Lender with a properly\ncompleted and currently effective certificate in either the calendar year in\nwhich each payment is to be made to the undersigned, or in either of the two\ncalendar years preceding such payments.\n\nUnless otherwise defined herein, capitalized terms defined in the Credit\nAgreement and used herein shall have the meanings given to them in the Credit\nAgreement.\n\n  \n  \n  \n---  \n|  \n  \n[NAME OF PARTICIPANT],  \n  \nby  \n  \n\n\n|\n\n  \n  \n\n\n|\n\nName:  \n  \n\n\n|\n\nTitle:  \n  \n  \n\n  \n\n* * *\n\n  \n\n  \n\nEXHIBIT D-4\n\n  \n\n[FORM OF]\n\nU.S.</t>
+  </si>
+  <si>
+    <t>The non-exercise by the holder hereof of any\nof its rights hereunder in any particular instance shall not constitute a\nwaiver thereof in that or any subsequent instance.</t>
+  </si>
+  <si>
+    <t>THE WAIVER OF JURY\nTRIAL PROVISIONS OF SECTION 9.10 OF THE CREDIT AGREEMENT SHALL BE APPLICABLE\nTO THIS PROMISSORY NOTE.\n\n  \n\n  \n\n* * *\n\n  \n\n  \n\nIN WITNESS WHEREOF, the undersigned have duly executed this promissory note as\nof the date first above written.\n\n  \n  \n  \n---  \n|  \n  \nJ.</t>
+  </si>
+  <si>
+    <t>c penney purchasing corporationnn nnthe lenders party heretonn nnwells fargo bank national associationnnas administrative agent revolving agent swingline lendernnnnbank of america nannas term agentnn nnwells fargo bank national association bank of america nannas cocollateral agentsnn nnandnn nnwells fargo bank national association lc agentnn nnbank of america nannwells fargo securities llcnnjp</t>
+  </si>
+  <si>
+    <t>morgan securities llcnnbarclays bank plcnngoldman sachs bank usannhsbc bank usa nanncit finance llcnncitizens bank national associationnnregions business capital a division of regions banknnas revolving joint bookrunners revolving joint lead arrangersnn nnbank of america nannas syndication agentnn nn nn nn nn nn nn nnandnn nnjp</t>
+  </si>
+  <si>
+    <t>none following shall eligible credit cardnreceivablesnn nnnn nn nn nn nn nn nn nnaaccounts outstanding five business days fromnthe date sale longer period may approved concollateral agentsnn nnbaccounts respect loan party good valid andnmarketable title theretonn nncaccounts subject perfected firstpriority lien securingnthe obligations pursuant terms collateral agreement arensubject lien whatsoever permitted encumbrances donnot priority lien securing obligations pursuant termsnof collateral agreement ii lien secure indebtedness thenexisting term loan agreement subject terms existingnintercreditor agreement intercreditor agreement respect theretonprovided cocollateral agents may permitted discretionnelect deem eligible credit card receivable account subject anspecified involuntary lien respect cocollateral agents shallnhave established appropriate reservenn nndaccounts disputed respect claimncounterclaim offset chargeback asserted related creditncard processor extent dispute counterclaim offsetnor chargeback intent chargebacks ordinary course bynthe credit card processors shall deemed violative clausenn nneaccounts arising j c penney corporationxexxs private label credit cardnreceivables private label credit card receivables loannparties accounts owed persons loan parties ornaffiliates loan parties respect person recourse tonany loan party repurchase guarantee arrangement butnexcluding ge money bank successor thereto j c penneyncorporationxexxs existing private label credit card processor agreement ornn nnfaccounts due major credit card processors visanmastercard american express diners club discover paymentech llc bancnof america merchant services llc cocollateral agents determine inntheir permitted discretion unlikely collectednn nnxexxceligible intransit inventoryxexxd means date determinationnwithout duplication eligible inventory inventory purchase ofnwhich may supported letter credit letter creditnreasonably acceptable cocollateral agents issued banknreasonably acceptable cocollateral agents ai beenndelivered carrier foreign port foreign airport receipt anloan party united states within days date determinationnbut yet received loan party ii beenndelivered carrier united states receipt loan party thenunited states within five business days date determination butnwhich yet received loan party b purchasenorder name loan party title passed loan party cnexcept otherwise agreed cocollateral agents documentnof title waybill reflects loan party consignee along delivery tona loan party customs broker documents title extentnapplicable respect thereto documents may electronicnformat administrative agent control thendocuments title extent applicable evidence ownership thensubject inventory delivery customs broker agreement enwhich insured accordance provisions agreement thenother loan documents including marine cargo insurance f whichnotherwise excluded definition eligible inventory providednthat cocollateral agents may upon notice parent borrower excludenany particular inventory definition xexxceligible intransitninventoryxexxd event cocollateral agentsn \ n \ n \ n19 \ n \ n \ n \ n \ n \ n \ n \ n * * *\ n \ n \ n \ n \ n \ ndetermine inventory subject person \ xe2 \ x80 \ x99s right claim \ nis ( capable ) senior , pari passu , lien \ nadministrative agent ( provided co - collateral agents may \ npermitted discretion elect deem eligible in - transit inventory \ ninventory subject specified involuntary lien respect co -\ ncollateral agents shall established appropriate reserve ), may \ notherwise adversely impact ability administrative agent realize \ nupon inventory .\ n \ n \ xe2 \ x80 \ x9celigible inventory \ xe2 \ x80 \ x9d means , date determination , without \ nduplication , ( 1 ) eligible in - transit inventory ( 2 ) inventory comprised \ nfinished goods , merchantable readily saleable public \ nordinary course , case excluded ineligible virtue \ none criteria set forth .</t>
+  </si>
+  <si>
+    <t>if swap obligation arises anmaster agreement governing one swap agreement exclusion shallnapply portion swap obligation attributable swapnagreements guaranty security interest becomes illegalnnxexxcexcluded taxesxexxd means respect administrative agent lendernany issuing bank recipient payment made onnaccount obligation loan party agreement othernloan document other connection taxes b respect paymentnmade account obligation loan party lender anynus</t>
+  </si>
+  <si>
+    <t>l no</t>
+  </si>
+  <si>
+    <t>personxexxd means xexxcunited states personxexxd within meaning sectionna codennxexxcus</t>
+  </si>
+  <si>
+    <t>terms generally</t>
+  </si>
+  <si>
+    <t>the definitions terms herein shall applynequally singular plural forms terms defined</t>
+  </si>
+  <si>
+    <t>unless context requires otherwise definition ornreference agreement instrument document herein shall benconstrued referring agreement instrument document fromntime time amended supplemented restated refinanced replaced extendednrenewed restructured otherwise modified whole part subject tonany restrictions amendments supplements restatements refinancingsnreplacements extensions renewals restructurings modifications set forthnherein b reference herein person shall construed includensuch personxexxs successors assigns c words xexxchereinxexxd xexxchereofxexxd andnxexxchereunderxexxd words similar import shall construed refer thisnagreement entirety particular provision hereof allnreferences herein articles sections exhibits schedules shall benconstrued refer articles sections exhibits schedules tonthis agreement e words xexxcassetxexxd xexxcpropertyxexxd shall construed tonhave meaning effect refer tangible andnintangible assets properties including cash securities accounts andncontract rightsnn nnsection</t>
+  </si>
+  <si>
+    <t>accounting terms gaapnn nnaexcept otherwise expressly provided herein terms accountingnor financial nature shall construed accordance gaap effectnfrom time time provided purposes determining compliancenwith provision agreement determination whether lease isnto treated operating lease capital lease shall made withoutngiving effect change accounting leases pursuant gaapnresulting implementation proposed accounting standards updatenasu leases topic issued may oral public deliberationsnby financial accounting standards board regarding proposal anynsuccessor proposal fasb deliberations regarding successornproposal ii holdings parent borrower notifies thenadministrative agent holdings parent borrower requests annamendment provision hereof eliminate effect changenoccurring closing date gaap application thereof thenoperation provision administrative agent notifies holdingsnor parent borrower required lenders request amendment anynprovision hereof purpose regardless whether notice isngiven change gaap application thereof thennsuch provision shall interpreted basis gaap effect andnapplied immediately change shall become effective suchnnotice shall withdrawn provision amended accordancenherewith</t>
+  </si>
+  <si>
+    <t>the purchase ofnparticipations swingline loan pursuant paragraph shall notnrelieve relevant borrower default payment thereofnn nnivthe parent borrower may designate revolving lender swinglinenlender hereunder subject prior written consent administrativenagent consent shall unreasonably withheld lender</t>
+  </si>
+  <si>
+    <t>in event inconsistency terms andnconditions agreement terms conditions form ofnletter credit application agreement submitted account partynto entered account party issuing bank relating anynletter credit terms conditions agreement shall controlnn nnbnotice issuance amendment renewal extension certain conditionsnn nnito request issuance letter credit amendment renewal ornextension outstanding letter credit account party shall handndeliver telecopy transmit electronic communication arrangementsnfor approved applicable issuing bank thenapplicable issuing bank reasonably advance requested date ofnissuance amendment renewal extension notice requesting issuance ofna letter credit identifying letter credit amended renewednor extended specifying date issuance amendment renewal ornextension shall business day date letter ofncredit expire shall comply paragraph c sectionnthe amount letter credit name address beneficiarynthereof information shall necessary prepare amendnrenew extend letter credit</t>
+  </si>
+  <si>
+    <t>each revolving lender acknowledges agrees obligation tonacquire participations pursuant paragraph respect letters ofncredit absolute unconditional shall affected anyncircumstance whatsoever including amendment renewal extension anynletter credit occurrence continuance default reductionnor termination revolving commitments payment shallnbe made without offset abatement withholding reduction whatsoevernn nnereimbursement</t>
+  </si>
+  <si>
+    <t>an account partyxexxs obligation reimburse lcndisbursements provided paragraph e section shall absolutenunconditional irrevocable shall performed strictly accordancenwith terms agreement circumstances whatsoevernand irrespective lack validity enforceability letternof credit agreement term provision therein ii draftnor document presented letter credit proving forgednfraudulent invalid respect statement therein untrue orninaccurate respect iii payment issuing bank letter ofncredit presentation draft document complynwith terms letter credit iv event orncircumstance whatsoever whether similar foregoing thatnmight provisions section constitute legal equitablendischarge provide right setoff account partyxexxsnobligations hereunder</t>
+  </si>
+  <si>
+    <t>account parties shallndesignate revolving lender affiliate revolving lendernidentified revolving lender parent borrower purpose benan issuing bank hereunder revolving lender affiliate suchnrevolving lender case may upon designation shall agree tonbecome issuing bank except revolving lender shall requirednto issuing bank consent administrative agent parentnborrower provided parent borrowerxexxs consent shall required innthe determination lenders issuing banks closing date</t>
+  </si>
+  <si>
+    <t>upon revolving lender becoming issuing banknafter date hereof schedule shall amended administrative agentnand consent approval lenders shall required respect suchnamendment adjust sublimits issuing bank set forth suchnschedule amounts parent borrower administrative agent suchnissuing bank may agree</t>
+  </si>
+  <si>
+    <t>administrative agent maynamend schedule reflect change permitted sectionni without consent approval lenders</t>
+  </si>
+  <si>
+    <t>from effective date suchnreplacement successor issuing bank shall rights andnobligations issuing bank agreement respect letters ofncredit issued thereafter ii references herein term xexxcissuingnbankxexxd shall deemed refer successor previous issuingnbank successor allnn nnnn nn nn nn nn nn nnprevious issuing banks context shall require</t>
+  </si>
+  <si>
+    <t>each reduction revolving commitmentsnshall made ratably among revolving lenders based applicablenrevolving percentagenn nnsection</t>
+  </si>
+  <si>
+    <t>person shall bentreated xexxcforeign lenderxexxd purposes agreement</t>
+  </si>
+  <si>
+    <t>defaulting lenders</t>
+  </si>
+  <si>
+    <t>the decision agree withhold agreement maturity datenextension request shall sole discretion lender</t>
+  </si>
+  <si>
+    <t>this section supersedes provisions sectionn contrary</t>
+  </si>
+  <si>
+    <t>governmental approvals no conflicts</t>
+  </si>
+  <si>
+    <t>no transfer property made loan partynand obligation incurred loan party connectionnwith transactions contemplated agreement loanndocuments intent hinder delay defraud either present ornfuture creditors loan partynnarticle ivnnconditionsnn nnsection</t>
+  </si>
+  <si>
+    <t>notices material events</t>
+  </si>
+  <si>
+    <t>this section shall benconstrued prohibit transfers cash holdings subsidiariesnthat prohibited provision agreementnnsection</t>
+  </si>
+  <si>
+    <t>restrictive agreements</t>
+  </si>
+  <si>
+    <t>neither holdings thenparent borrower permit subsidiary amend modify ornwaive rights certificate incorporation bylawsnoperating management partnership agreement organizationalndocuments b documents governing material indebtedness eachncase extent amendment modification waiver would benmaterially adverse lendersnn nnsection</t>
+  </si>
+  <si>
+    <t>events default</t>
+  </si>
+  <si>
+    <t>each lender issuing bank hereby irrevocablyndesignates appoints wells fargo administrative agent ii wellsnfargo bank america cocollateral agents iii bank america asnterm agent iv wells fargo revolving agent case thisnagreement loan documents lender irrevocablynauthorizes administrative agent cocollateral agents revolving agent andnterm agent case capacity take action behalfnunder provisions agreement loan documents tonexercise powers perform duties expressly delegated tonadministrative agent cocollateral agents revolving agent term agent asnapplicable terms agreement loan documentsntogether powers reasonably incidental theretonnotwithstanding anything contrary contained agreement thenother loan documents consent lenders shall required amendnthis agreement loan documents cause additional assets becomencollateral add additional subsidiaries guarantors obligationsnor ii implement provisions sections andnadministrative agent loan parties shall entitled execute andnall amendments necessary desirable accomplish foregoing andnsuch amendments shall binding parties hereto</t>
+  </si>
+  <si>
+    <t>notwithstandingnany provision contrary elsewhere agreement none thenadministrative agent cocollateral agents revolving agent thenterm agent shall duties responsibilities except expresslynset forth agreement loan documents anparty fiduciary relationship lender impliedncovenants functions responsibilities duties obligations liabilitiesnshall read agreement loan document otherwisenexist administrative agent cocollateral agents revolvingnagent term agentnn nnsection</t>
+  </si>
+  <si>
+    <t>each agent shall fully justifiednin failing refusing take action agreement othernloan document unless shall first receive advice concurrence ofnthe required lenders specified agreement requirednrevolving lenders required term lenders supermajority lenders allnlenders deem appropriate shall first indemnified itsnsatisfaction lenders liability expense maynbe incurred reason taking continuing take actionneach agent shall cases fully protected acting refrainingnfrom acting agreement loan documents accordancenwith request required lenders specified agreementnthe required revolving lenders requirednn nnnn nn nn nn nn nn nnterm lenders supermajority lenders lenders request anynaction taken failure act pursuant thereto shall binding upon thenlenders future holders loansnn nnsection</t>
+  </si>
+  <si>
+    <t>exculpatory provisions</t>
+  </si>
+  <si>
+    <t>no agent purposes articlenviii xexxcagentxexxd xexxcagentsxexxd shall mean collective reference thenadministrative agent cocollateral agents revolving agent termnagent lender designated xexxcagentxexxd purposes thisnagreement including lead arrangers syndication agent condocumentation agents respective officers directorsnemployees agents attorneysinfact affiliates shall liable anynaction lawfully taken omitted taken person innconnection agreement loan document except thenextent foregoing found final nonappealablendecision court competent jurisdiction resulted ornsuch personxexxs gross negligence bad faith willful misconduct anmaterial breach obligations loan document iinresponsible manner lenders recitals statementsnrepresentations warranties made loan party officer thereofncontained agreement loan document certificatenreport statement document referred provided ornreceived agents connection agreement anynother loan document value validity effectiveness genuinenessnenforceability sufficiency agreement loan document ornfor failure loan party party thereto perform itsnobligations hereunder thereunder</t>
+  </si>
+  <si>
+    <t>notice default</t>
+  </si>
+  <si>
+    <t>each agent shall deemed havenknowledge notice occurrence default event defaultnunless agent received notice lender holdings borrowernreferring agreement describing default event default andnstating notice xexxcnotice defaultxexxd</t>
+  </si>
+  <si>
+    <t>nonreliance agents other lenders</t>
+  </si>
+  <si>
+    <t>the agreements sectionnshall survive payment obligations amounts payablenhereundernn nnsection</t>
+  </si>
+  <si>
+    <t>notwithstandingnthe provisions agreement loan documents personnwho becomes cosyndication agent documentation agent leadnarranger shall powers rights duties responsibilities ornliabilities respect agreement loan documentsnn nnsection</t>
+  </si>
+  <si>
+    <t>intercreditor agreementnn nnaeach lenders secured parties hereby authorizes andninstructs administrative agent enter intercreditor agreement orna collateral cooperation agreement applicable indebtedness incurrednthat secured liens contemplated clause section iinagrees subject bound take actionsncontrary provisions intercreditor agreement collateralncooperation agreement applicable iii agrees administrativenagent may take actions behalf lender secured party asnis contemplated terms intercreditor agreement collateralncooperation agreementnn nnnn nn nn nn nn nn nn nnbeach lenders secured parties hereby agrees itnwill bound take actions contrary provisions thenexisting intercreditor agreement ii authorizes instructs administrativenagent enter existing intercreditor agreement administrativenagent behalf lender secured party applicable andniii agrees administrative agent may take actions behalf suchnlender secured party contemplated terms existingnintercreditor agreementnn nnsection</t>
+  </si>
+  <si>
+    <t>except otherwise expressly set forth innany loan documents lender affiliate lender owednany secured swap obligations secured treasury services obligations ornsecured supply chain obligations shall right notice actionnor consent direct object action hereunder othernloan document otherwise respect collateral including releasenor impairment collateral capacity lender annissuing bank case extent expressly provided thenloan documents</t>
+  </si>
+  <si>
+    <t>allnnotices communications given party hereto accordance withnthe provisions agreement shall deemed given thendate receiptnn nnsection</t>
+  </si>
+  <si>
+    <t>no waivernof provision loan document consent departure loannparty therefrom shall event effective unless shall benpermitted paragraph b section waiver consentnshall effective specific instance purpose whichngiven</t>
+  </si>
+  <si>
+    <t>without limiting generality foregoing making loannor issuance letter credit shall construed waiver anyndefault regardless whether administrative agent term agent anyncocollateral agent lender issuing bank may notice ornknowledge default timenn nnbexcept expressly contemplated section whichnamendments shall permitted entered parties referred tontherein subject section biv neither agreement nornany loan document provision hereof thereof may waivednamended modified except case agreement pursuant annagreement agreements writing entered holdings borrowersnthe account parties required lenders administrative agent termnagent case loan document pursuant agreement ornagreements writing entered administrative agent termnagent loan party loan parties parties thereto eachncase consent required lenders provided agreementnshallnn nniincrease commitment lender without written consent suchnlendernn nniireduce principal amount loan lc disbursement reduce thenrate interest thereon reduce fees payable hereunder without thenwritten consent lender directly affected thereby provided anonly consent required revolving lenders shall necessary amendnthe provisions section c providing default rate interestnas revolving loans unreimbursed lc disbursements waive anynobligations borrower account party pay interest suchndefault rate b consent required term lenders shall bennecessary amend provisions section c providing defaultnrate interest term loans waive obligations anynborrower account party pay interest default ratenn nniiipostpone scheduled date payment principal amount anynloan lc disbursement interest thereon fees payablenhereunder reduce amount waive excuse payment ornpostpone scheduled date expiration commitment postpone ornreduce amount waive excuse mandatory prepayment undernsection c section case without written consentnof lender directly affected thereby provided a consentnof required revolving lenders shall necessary amend provisionsnof section c providing default rate interest anynrevolving loans unreimbursed lc disbursements waive obligationsnof borrower account party pay interest default rate andnb consent required term lenders shall necessary amendnthe provisions section c providing default rate interestnas term loans waive obligations borrower anynaccount party pay interest default rate c amendment tonsection e change repayment termnn nnnn nn nn nn nn nn nnloans consolidated excess cash flow may waived modified solelynwith written consent required term lendersnn nnivchange order application funds provided section g andnh provisions sections e respect tonthe order application funds without consent lender directlynaffected therebynn nnvchange section 7 ( b ) ( c ) manner would alter pro rata \ nsharing payments required thereby , without written consent \ nlender ,\ n \ n \ n \ n ( vi ) change provisions section definition \ n \ xe2 \ x80 \ x9crequired lenders \ xe2 \ x80 \ x9d , \ xe2 \ x80 \ x9crequired revolving lenders , \ xe2 \ x80 \ x9csupermajority lenders \ xe2 \ x80 \ x9d ,\ n \ xe2 \ x80 \ x9crequired term lenders \ xe2 \ x80 \ x9d provision loan document specifying \ nthe number percentage lenders required waive , amend modify \ nrights thereunder make determination grant consent thereunder ,\ nwithout written consent lender case definition \ n \ xe2 \ x80 \ x9crequired lenders \ xe2 \ x80 \ x9d , revolving lender case definition \ n \ xe2 \ x80 \ x9crequired revolving lenders \ xe2 \ x80 \ x9d , lender case \ xe2 \ x80 \ x9csupermajority \ nlenders \ xe2 \ x80 \ x9d term lender case definition \ xe2 \ x80 \ x9crequired term \ nlenders \ xe2 \ x80 \ x9d ,\ n \ n \ n \ n ( vii ) release parent borrower holdings guarantee \ ncollateral agreement ( except expressly provided collateral \ nagreement ), limit substantially liability respect \ nguarantee , without written consent lender ,\ n \ n \ n \ n ( viii ) release substantially loan parties \ nguarantees collateral agreement ( except expressly provided \ ncollateral agreement ), limit substantially liability \ nrespect guarantees , without written consent lender ,\ n \ n \ n \ n ( ix ) release substantially collateral liens \ ncollateral agreement ( except expressly provided collateral \ nagreement ) without written consent lender ;\ n \ n \ n \ n ( x ) change section 2 . 05 ( k )( ) manner would alter participation \ nobligation lender , without written consent lender ;\ n \ n \ n \ n ( xi ) permit loan party assign rights loan documents ,\ nwithout written consent lender ;\ n \ n \ n \ n ( xii ) increase percentages applied eligible assets definition \ nthe borrowing base , without consent lender ;\ n \ n \ n \ n ( xiii ) except otherwise provided clause ( xii ) increase \ nsuch percentages , change definition term \ xe2 \ x80 \ x9cborrowing base \ xe2 \ x80 \ x9d \ ncomponent definition thereof result thereof amounts available \ nbe borrowed borrowers would increased , without written consent \ nof supermajority lenders required term lenders , provided , , ( a ) \ nforegoing shall limit discretion co - collateral agents \ nchange , establish eliminate reserves , ( b ) event shall \ namount term loan reserve reduced principal amount \ nterm loans without written consent term lender ;\ n \ n \ n \ n ( xiv ) except expressly permitted herein loan document ,\ nsubordinate obligations hereunder liens granted hereunder \ nthe loan \ n \ n \ n \ n125 \ n \ n \ n \ n \ n \ n \ n \ n * * *\ n \ n \ n \ n \ n \ ndocuments , indebtedness lien , case may without \ nwritten consent lender ; \ n \ n \ n \ n ( xv ) amend , modify waive terms section 8 . 11 hereof , amend \ ndefinition \ xe2 \ x80 \ x9cco - collateral agents \ xe2 \ x80 \ x9d , case without consent \ nof co - collateral agents ;\ n \ nand , provided , , ( 1 ) amendment , waiver consent shall , unless \ nwriting signed applicable issuing bank addition lenders \ nrequired , affect rights duties issuing bank \ nagreement issuer document relating letter credit issued \ nbe issued ; ( 2 ) amendment , waiver consent shall , unless writing \ nand signed swingline lender addition lenders required ,\ naffect rights duties swingline lender agreement ; ( 3 )\ nno amendment , waiver consent shall , unless writing signed \ nadministrative agent term agent , applicable , addition lenders \ nrequired , affect rights duties administrative agent \ nterm agent , applicable , agreement loan document ;\ n ( 4 ) amendment , waiver consent shall , unless writing signed \ naffected co - collateral agent addition lenders required , affect \ nany rights , duties discretion affected co - collateral agent \ nthis agreement loan document , ( 5 ) fee letters may \ namended , rights privileges thereunder waived , writing executed \ nby parties thereto .</t>
+  </si>
+  <si>
+    <t>notwithstanding anything contrary herein nondefaulting lender shall right approve disapprove amendmentnwaiver consent hereunder except revolving commitment suchnlender may increased extended without consent lendernncnotwithstanding anything contrary agreement othernloan document provider holder secured swap obligations securedntreasury services obligations secured supply chain obligations shall havenany voting approval rights hereunder deemed lender solely bynvirtue status provider holder agreements productsnor obligations owing thereunder shall consent suchnprovider holder required capacities lenders tonthe extent applicable matter hereunder loanndocuments including matter relating collateral thenrelease collateral loan partynn nndnotwithstanding foregoing consent required lendersnshall required amend agreement increase totalncommitments pursuant section make changes incidentalnthereto contemplated thereby ii agreement may amended annagreement writing entered parent borrower administrativenagent term agent cure ambiguity omission defect orninconsistency provided case clause ii lenders shallnhave received least five business daysxexx prior written notice thereof andnthe administrative agent shall received within five business days ofnthe date notice lenders written notice requirednlenders effect required lenders object amendmentnn nnenotwithstanding anything contrary subject sectionnbiv extent provided therein agreement may amended orndeemed amended amended restated whole part writtennconsent required revolving lenders required term lenders thenadministrative agent term agent parent borrower add one ornmore additional credit facilities agreement permit thenextensions credit time time outstanding hereunder accruedninterest fees respect thereof share ratably benefits thisnagreement loan documents existing facilities thenaccrued interest fees respect thereof ii include appropriatenlenders holding credit facilities requirednn nn nnnn nn nn nn nn nn nnvote action required lenders required revolving lenders requirednterm lenders lenders facility agreement iiinto provide class protection additional credit facilities mannernconsistent provided original facilities pursuant thenprovisions agreement originally effect</t>
+  </si>
+  <si>
+    <t>any payments respect ofnobligations additional credit facilities shall applied tonsuch obligations either pari passu payment full thenprincipal term loans pursuant priority application ofnpayments set forth agreementnn nnfif connection proposed change waiver discharge orntermination provision agreement andor othernloan document requiring consent xexxceach lenderxexxd xexxceach lender directlynaffected therebyxexxd consent required lenders required revolvingnlenders required term lenders case may obtained thenconsent necessary lenders obtained lender whosenconsent necessary obtained referred herein xexxcnonnconsenting lenderxexxd parent borrower may upon prior written noticento administrative agent nonconsenting lender elect replacensuch nonconsenting lender lender party agreement provided thatnconcurrently replacement another bank entity shallnagree date purchase nonconsenting lender shall benobligated sell cash loans obligations due nonnconsenting lender pursuant assignment assumption become anlender purposes agreement assume obligations ofnthe nonconsenting lender terminated date comply withnthe requirements section b provided bank othernentity already lender affiliate lender hereunder shallnbe subject approval administrative agent unreasonablynwithheld ii replacement lender shall pay processing andnrecordation fee referred section biic applicable innaccordance terms section iii replacement lender shallngrant consent respect applicable proposed change waiverndischarge termination iv replacement lender shall pay suchnnonconsenting lender day funds day replacement allnprincipal interest fees amounts accrued unpaid suchnnonconsenting lender borrowers account parties hereunder tonand including date termination including without limitation paymentsndue nonconsenting lender sections annamount equal payment would due nonnconsenting lender day replacement section thenloans nonconsenting lender prepaid date rather soldnto replacement lender</t>
+  </si>
+  <si>
+    <t>this section bnshall apply respect taxes taxes representnlosses damages arising nontax claim</t>
+  </si>
+  <si>
+    <t>the indemnifying parties shallnbe liable settlement claim indemnifiednparties extent claim required indemnified suchnindemnifying party pursuant terms section xexxcindemnifiednclaimxexxd made indemnifying partyxexxs prior written consent notnto unreasonably withheld delayed</t>
+  </si>
+  <si>
+    <t>without prior written consent ofnthe administrative agent revolving agent term agent benunreasonably withheld delayed indemnifying party shall settle orncompromise indemnified claim permit default consent entry ofnany judgment innn nnnn nn nn nn nn nn nnrespect thereof unless settlement includes unconditional releasenof indemnified party form substance reasonably satisfactory tonsuch indemnified party liability claims subjectnmatter proceedings ii include statement ornany admission fault culpability wrongdoing failure act onnbehalf indemnified partynn nndno indemnified party indemnifying party party hereto shall benliable damages arising use others materials obtainednthrough internet intralinks syndtrak similar transmission systemsnin connection agreement financing arrangements contemplatednhereby except extent damages arise gross negligencenbad faith willful misconduct indemnified party suchnindemnified partyxexxs related parties determined pursuant final nonnappealable order court competent jurisdiction</t>
+  </si>
+  <si>
+    <t>in addition none ofnthe indemnified parties loan party respectivenaffiliates directors officers employees advisors agents members ornrepresentatives shall responsible liable special indirectnconsequential exemplary incidental punitive damages may allegednas result agreement provided nothing contained thisnsentence shall limit loan partyxexxs indemnity reimbursement obligationsnas set forth herein including loan partiesxexx indemnity reimbursementnobligations indemnify indemnified parties indirect specialnpunitive consequential damages included third party claimnin connection indemnified party entitled indemnificationnhereunder</t>
+  </si>
+  <si>
+    <t>it agreed loan parties shall liabilitynto person indemnified parties extent set forthnherein provided nothing contained sentence shall limit loannpartiesxexx indemnity reimbursement obligations set forth hereinnincluding loan partiesxexx indemnity reimbursement obligations tonindemnify indemnified parties respect third party claim innconnection indemnified party entitled indemnificationnhereunder</t>
+  </si>
+  <si>
+    <t>successors assignsnn nnathe provisions agreement shall binding upon inure thenbenefit parties hereto respective successors assignsnpermitted hereby including affiliate issuing bank issues anynletter credit except neither holdings borrower anynaccount party may assign otherwise transfer rights ornobligations hereunder except transaction expressly permitted hereby thatnexpressly contemplates assignment transfer without prior writtennconsent lender attempted assignment transfer holdingsnany borrower account party without consent shall null voidnand ii lender may assign otherwise transfer rights obligationsnhereunder except accordance section</t>
+  </si>
+  <si>
+    <t>any agreement instrument pursuant lender sells suchna participation shall provide lender shall retain sole right tonenforce loan documents approve amendment modification ornwaiver provision loan documents provided agreement orninstrument may provide lender without consent thenparticipant agree amendment modification waiver described thenfirst proviso section b directly affects participantnsubject paragraph cii section holdings borrowers thenaccount parties agree participant shall entitled benefitsnof sections extent lender andnhad acquired interest assignment pursuant paragraph b thisnsection</t>
+  </si>
+  <si>
+    <t>this agreement loanndocuments separate letter agreements respect fees payable tonthe administrative agent constitute entire contract among partiesnrelating subject matter hereof supersede previousnagreements understandings oral written relating subject matternhereofnn nnsection</t>
+  </si>
+  <si>
+    <t>any provision agreement held beninvalid illegal unenforceable jurisdiction shall suchnjurisdiction ineffective extent invalidity illegality ornunenforceability without affecting validity legality enforceabilitynof remaining provisions hereof invalidity particularnprovision particular jurisdiction shall invalidate provision innany jurisdictionnn nnsection</t>
+  </si>
+  <si>
+    <t>governing law jurisdiction consent service processnn nnathis agreement shall construed accordance governed thenlaws state new york excluding principles conflicts law ornother rule law would cause application law anynjurisdiction laws state new yorknn nnbeach holdings borrowers account parties hereby irrevocablynand unconditionally submits property exclusivenjurisdiction supreme court state new york sitting new yorkncounty united states district court southern district newnyork appellate court thereof action proceedingnarising relating loan document recognition ornenforcement judgment parties hereto hereby irrevocablynand unconditionally agrees claims respect action ornproceeding may heard determined new york state thenextent permitted law federal court</t>
+  </si>
+  <si>
+    <t>each parties heretonagrees final judgment action proceeding shall benconclusive may enforced jurisdictions suit judgmentnor manner provided law</t>
+  </si>
+  <si>
+    <t>nothing agreement othernloan document shall affect right administrative agent termnagent issuing bank lender may otherwise bring actionnor proceeding relating agreement loan document againstnholdings borrower account party respective propertiesnin courts jurisdictionnn nnceach holdings borrowers account parties hereby irrevocablynand unconditionally waives fullest extent may legally andneffectively objection may hereafter thenlaying venue suit action proceeding arising relatingnto agreement loan document court referred innparagraph b section</t>
+  </si>
+  <si>
+    <t>each parties hereto hereby irrevocablynwaives fullest extent permitted law defense inconvenientnforum maintenance action proceeding courtnn nndeach party agreement irrevocably consents service process innthe manner provided notices section</t>
+  </si>
+  <si>
+    <t>nothing agreement ornany loan document affect right party agreementnto serve process manner permitted lawnn nnsection</t>
+  </si>
+  <si>
+    <t>waiver of jury trial each party hereto hereby waives to thenfullest extent permitted by applicable law any right it may have to a trialnby jury in any legal proceeding directly or indirectly arising out of ornrelating to this agreement any other loan document or the transactionsncontemplated hereby whether based on contract tort or any other theoryneach party hereto a certifies that no representative agent or attorney ofnany other party has represented expressly or otherwise that such other partynwould not in the event of litigation seek to enforce the foregoing waivernand b acknowledges that it and the other parties hereto have been induced tonenter into this agreement by among other things the mutual waivers andncertifications in this sectionnn nnsection</t>
+  </si>
+  <si>
+    <t>usa patriot act</t>
+  </si>
+  <si>
+    <t>no fiduciary duty</t>
+  </si>
+  <si>
+    <t>the loan parties acknowledgenand agree transactions contemplated loan documentsnincluding exercise rights remedies hereunder thereunder arenarmxexxslength commercial transactions lenders one hand andnthe loan parties ii connection therewith thenprocess leading thereto x lender assumed advisory fiduciarynresponsibility favor loan party stockholders affiliatesnwith respect transactions contemplated hereby exercise ofnrights remedies respect thereto process leading theretonirrespective whether anynn nnnn nn nn nn nn nn nnlender advised currently advising advise loan party itsnstockholders affiliates matters obligation tonany loan party except obligations expressly set forth loanndocuments lender acting solely principal thenagent fiduciary loan party management stockholders creditorsnor person</t>
+  </si>
+  <si>
+    <t>each loannparty intends section constitute section shall deemed tonconstitute guarantee obligations xexxckeepwell support ornother agreementxexxd benefit specified loan party allnpurposes commodity exchange act</t>
+  </si>
+  <si>
+    <t>n n nn nn nn nn nn nn nnschedule nnexisting indebtednessnn n n n n n nname issuernnnntitle securities issuernnnnamount such securities outstanding millions n nj</t>
+  </si>
+  <si>
+    <t>capitalized terms used defined herein shall thenmeanings given credit agreement identified amendednthe xexxccredit agreementxexxd receipt copy hereby acknowledged bynthe assignee</t>
+  </si>
+  <si>
+    <t>the standard terms conditions set forth annex attachednhereto hereby agreed incorporated herein reference made anpart assignment assumption set forth herein fullnnfor agreed consideration assignor hereby irrevocably sells assignsnto assignee assignee hereby irrevocably purchases assumesnfrom assignor subject accordance standard terms andnconditions credit agreement effective date inserted thenadministrative agent contemplated assignorxexxs rightsnand obligations capacity lender credit agreement anynother documents instruments delivered pursuant thereto extentnrelated amount percentage interest identified suchnoutstanding rights obligations assignor respectivenfacilities identified including letters credit guarantees andnswingline loans included facilities ii extent permittednto assigned applicable law claims suits causes action andnany right assignor capacity lender anynperson whether known unknown arising connection thencredit agreement documents instruments delivered pursuantnthereto loan transactions governed thereby way based ornrelated foregoing including contract claims tort claimsnmalpractice claims statutory claims claims law equitynrelated rights obligations sold assigned pursuant clause inabove rights obligations sold assigned pursuant clauses inand ii referred herein collectively xexxcassignedninterestxexxd</t>
+  </si>
+  <si>
+    <t>nn nn set forth least decimals percentage commitmentloansnof lenders thereundernn nn nn nn nn nn nn nn nnthe terms set forth assignment assumption hereby agreed tonnassignor name of assignornn nnbynntitlennassignee name of assigneenn nnbynntitlenn nn nnconsented tonn nnj</t>
+  </si>
+  <si>
+    <t>the assignee represents warrants fullnpower authority taken action necessary execute andndeliver assignment assumption consummate transactionsncontemplated hereby become lender credit agreement ii itnsatisfies requirements specified credit agreement arenrequired satisfied order acquire assigned interest andnbecome lender iii effective date shall bound bynthe provisions credit agreement lender thereunder thenextent assigned interest shall obligations lendernthereunder iv received copy credit agreement together withncopies recent financial statements delivered pursuant sectionn thereof applicable documents information itnhas deemed appropriate make credit analysis decision enterninto assignment assumption purchase assigned interest onnthe basis made analysis decision independently andnwithout reliance administrative agent lender vnattached assignment assumption documentation required bendelivered pursuant terms credit agreement duly completednand executed assignee b agrees independentlynand without reliance administrative agent assignor othernlender based documents information shall deemnappropriate time continue make credit decisions takingnor taking action loan documents ii perform innaccordance terms obligationsnn nn nn nn nnwhich terms loan documents required performed asna lendernn</t>
+  </si>
+  <si>
+    <t>general provisions</t>
+  </si>
+  <si>
+    <t>this assignment assumption shall binding uponnand inure benefit parties hereto respectivensuccessors assigns</t>
+  </si>
+  <si>
+    <t>this assignment assumption may executed anynnumber counterparts together shall constitute one instrumentndelivery executed counterpart signature page assignment andnassumption telecopy shall effective delivery manually executedncounterpart assignment assumption</t>
+  </si>
+  <si>
+    <t>this assignment and assumptionnshall be subject to the provisions regarding choice of law jurisdictionnvenue jury trial waiver and consent to process set forth in sections nand of the credit agreement and such provisions are incorporated hereinnby this reference mutatis mutandisnn nn nn nn nn nn nnexhibit cnnguarantee and collateral agreementnndated ofnnjune nnamongnn nnj</t>
+  </si>
+  <si>
+    <t>no limitations etcnnnsection</t>
+  </si>
+  <si>
+    <t>agreement to paynsubrogationnnsection ninformationnn nnarticle iiinnsecurity interestnnsection</t>
+  </si>
+  <si>
+    <t>remedies upon defaultnnnsection</t>
+  </si>
+  <si>
+    <t>waivers amendmentnnnsection</t>
+  </si>
+  <si>
+    <t>waiver of jury trialnnnsection</t>
+  </si>
+  <si>
+    <t>jurisdiction consent service processnnnsection</t>
+  </si>
+  <si>
+    <t>no limitations etc</t>
+  </si>
+  <si>
+    <t>without limiting generality foregoing thenobligations guarantor hereunder shall discharged impaired ornotherwise affected failure administrative agent othernsecured party assert claim demand enforce right remedynunder provisions loan document otherwise ii rescissionnwaiver amendment modification release terms ornprovisions loan document agreement including withnrespect guarantor agreement iii release anynsecurity held administrative agent secured party thenobligations iv default failure delay willful ornotherwise performance obligations v act ornomission may might manner extent vary risk anynguarantor otherwise operate discharge guarantor matter ofnlaw equity payment full loan documentnobligations unasserted indemnification tax gross expensenreimbursement yield protection obligations case claimnhas made</t>
+  </si>
+  <si>
+    <t>agreement to pay subrogation</t>
+  </si>
+  <si>
+    <t>the grantors jointly andnseverally represent warrant administrative agent othernsecured parties thatnn nn nn nn nn nn nnnn nn nn nn nn nnaeach grantor good valid rights title collateral withnrespect purported grant security interest hereunder andnhas full power authority grant administrative agent securityninterest collateral pursuant hereto execute deliver andnperform obligations accordance terms agreementnwithout consent approval person consent ornapproval obtainednn nnb the perfection certificate duly prepared completed executednand information set forth therein including exact legal name eachngrantor correct complete date hereof</t>
+  </si>
+  <si>
+    <t>none grantors filed consented thenfiling financing statement analogous document uniformncommercial code applicable laws covering collateral exceptnany filings made pursuant ge agreement ii assignment innwhich grantor assigns collateral security agreement similarnn nnnn nn nn nn nninstrument covering collateral foreign governmental municipal ornother office financing statement analogous document assignmentnsecurity agreement similar instrument still effect except eachncase involuntary permitted encumbrances specified involuntary liensnsecuring obligations excess time liensnexpressly permitted pursuant clauses c g h sectionn credit agreementnn nneto knowledge grantor grantor owns licenses ornotherwise rights use patents trademarks copyrights othernintellectual property material preparing sale sale theninventory ii use thereof grantor purpose notninfringe upon rights person iii intellectualnproperty intellectual property rights granted grantornunder license agreements third parties subject lien othernrestriction a lien restriction respect tonwhich waiver release obtained b lien ornrestriction permitted credit agreement case except thenextent defects ownership licenses infringementsnthat individually aggregate would result material adverseneffect failure rights infringement suchnlien restriction would materially adversely affect exercise thenadministrative agentxexxs rights respect intellectual property tonprepare sale sell inventory article ivnn nnf notwithstanding foregoing representations warranties setnforth section perfection priority security interestnin proceeds limited extent provided section uniformncommercial codenn nnsection</t>
+  </si>
+  <si>
+    <t>remedies upon default</t>
+  </si>
+  <si>
+    <t>as alternative exercising powernof sale herein conferred upon administrative agent may proceed ansuit suits law equity foreclose agreement sell thencollateral portion thereof pursuant judgment decree courtnor courts competent jurisdiction ornn nn nn nn nnnn nn nn nn nnpursuant proceeding courtappointed receiver</t>
+  </si>
+  <si>
+    <t>grantorxexxs obligations upon default</t>
+  </si>
+  <si>
+    <t>all communications notices hereunder shall exceptnas otherwise expressly permitted herein writing given providednin section credit agreement</t>
+  </si>
+  <si>
+    <t>rights absolute</t>
+  </si>
+  <si>
+    <t>all rights administrative agentnhereunder security interest obligations guarantor andngrantor hereunder shall absolute unconditional irrespective anynlack validity enforceability credit agreement loanndocument agreement agreement respect anynof obligations agreement instrument relating thenforegoing b change time manner place payment innany term obligations amendment ornwaiver consent departure credit agreement othernloan document agreement instrument c exchange releasenor nonperfection lien collateral release amendmentnor waiver consent departure guarantee securing ornguaranteeing obligations circumstance thatnmight otherwise constitute defense available discharge anynguarantor grantor respect obligations agreement othernthan payment full loan document obligations unassertednindemnification tax gross expense reimbursement yield protectionnobligations case claim made</t>
+  </si>
+  <si>
+    <t>survival agreement</t>
+  </si>
+  <si>
+    <t>binding effect several agreement</t>
+  </si>
+  <si>
+    <t>this agreement shall becomeneffective party counterpart hereof executed behalf suchnparty shall delivered administrative agent counterpartnhereof shall executed behalf administrative agent andnthereafter shall binding upon party administrative agent andntheir respective permitted successors andnn nn nn nnnn nn nn nn nnassigns shall inure benefit party administrativenagent secured parties respective successors andnassigns except party shall right assign transfer itsnrights obligations hereunder interest herein collateralnand assignment transfer shall void except expresslyncontemplated agreement credit agreement</t>
+  </si>
+  <si>
+    <t>this agreement shallnbe construed separate agreement respect party may benamended modified supplemented waived released respect partynwithout approval party without affecting obligationsnof party hereundernn nnsection</t>
+  </si>
+  <si>
+    <t>whenever agreement thenparties hereto referred reference shall deemed include thenpermitted successors assigns party covenants promisesnand agreements behalf guarantor grantor thenadministrative agent contained agreement shall bind inurento benefit respective successors assignsnn nnsection</t>
+  </si>
+  <si>
+    <t>this agreement shall construed accordancenwith governed laws state new york excluding anynprinciples conflicts law rule law would cause thenapplication law jurisdiction state new yorknn nnsection</t>
+  </si>
+  <si>
+    <t>waivers amendment</t>
+  </si>
+  <si>
+    <t>no failure delay thenadministrative agent agent issuing bank lender innexercising right power hereunder loan document shallnoperate waiver thereof shall single partial exercise anynsuch right power abandonment discontinuance steps enforcensuch right power preclude exercise thereof thenexercise right power</t>
+  </si>
+  <si>
+    <t>no waivernof provision agreement consent departure partyntherefrom shall event effective unless shall permittednby paragraph b section waiver consent shall beneffective specific instance purpose givennwithout limiting generality foregoing making loan ornissuance letter credit shall construed waiver anyndefault regardless whether administrative agent agent anynlender issuing bank may notice knowledge default atnthe time</t>
+  </si>
+  <si>
+    <t>no notice demand party case shall entitle partynto notice demand similar circumstancesnn nnb neither agreement provision hereof may waived amended ornmodified except pursuant agreement agreements writing entered intonby administrative agent parties respect waivernamendment modification apply subject consent required innaccordance section credit agreementnn nnsection</t>
+  </si>
+  <si>
+    <t>waiver of jury trial</t>
+  </si>
+  <si>
+    <t>each party hereto including for thenavoidance of doubt the administrative agent hereby waives to the fullestnextent permitted by applicable law any right it may have to a trial by jurynin any legal proceeding directly or indirectly arising out of or relating tonthis agreement any other loan document or the transactions contemplatednhereby whether based on contract tort or any other theory</t>
+  </si>
+  <si>
+    <t>counterparts</t>
+  </si>
+  <si>
+    <t>this agreement may executed counterpartsnand different parties hereto different counterparts whichnshall constitute single contract subject section shall becomeneffective provided section</t>
+  </si>
+  <si>
+    <t>delivery executed signature pagento agreement telecopy electronic transmission shall effective asndelivery manually executed counterpart agreementnn nnsection</t>
+  </si>
+  <si>
+    <t>article section headings used herein thenpurpose reference part agreement tonaffect construction taken consideration interpretingnthis agreementnn nnsection</t>
+  </si>
+  <si>
+    <t>jurisdiction consent service process</t>
+  </si>
+  <si>
+    <t>each thenparties hereto including avoidance doubt administrativenagent agrees final judgment action proceeding shall benconclusive may enforced jurisdictions suit judgmentnor manner provided law</t>
+  </si>
+  <si>
+    <t>nothing agreement othernloan document shall affect right administrative agent othernagent issuing bank lender may otherwise bring actionnor proceeding relating agreement loan document againstnany guarantor grantor respective properties courts anynjurisdictionnn nnb each parties hereto including avoidance doubt thenadministrative agent hereby irrevocably unconditionally waives thenfullest extent may legally effectively objection itnmay hereafter thenn nn nn nn nn nn nn nnnn nn nn nn nnlaying venue suit action proceeding arising relatingnto agreement loan document court referred innparagraph section</t>
+  </si>
+  <si>
+    <t>nothing agreement othernloan document affect right party agreement servenprocess manner permitted lawnn nnsection</t>
+  </si>
+  <si>
+    <t>termination release</t>
+  </si>
+  <si>
+    <t>this agreement guarantees madenherein security interest security interests granted herebynshall automatically terminate loan document obligations beennpaid full unasserted indemnification tax gross expensenreimbursement yield protection obligations case claimnhas made lenders commitment lend thencredit agreement lc exposure reduced zero issuing banknhas obligations issue letters credit creditnagreementnn nnb a subsidiary party shall automatically released obligationsnhereunder case subsidiary party subsidiary grantornthe security interest collateral subsidiary grantor shall benautomatically released upon consummation transaction prohibitednby credit agreement result subsidiary party ceases tonbe subsidiary holdingsnn nnc upon sale transfer grantor collateral isnnot prohibited credit agreement person grantor ornupon effectiveness written consent release securityninterest granted hereby collateral pursuant section thencredit agreement security interest collateral shall benautomatically releasednn nnd in connection termination release pursuant paragraph anb c administrative agent shall execute deliver anyngrantor grantorxexxs expense documents grantor shallnreasonably request evidence termination release shall authorizenthe filing applicable documents evidencing termination releasenincluding without limitation ucc termination statements</t>
+  </si>
+  <si>
+    <t>pursuant terms creditnagreement additional grantors may enter agreement subsidiaryngrantors</t>
+  </si>
+  <si>
+    <t>nn nn nn nn nn nn nn nn nn nn nnnn nn nn nn nn nn nnin witness whereof parties hereto duly executed agreement ofnthe day year first writtennn nn nnj</t>
+  </si>
+  <si>
+    <t>capitalized terms used herein otherwise defined herein shall haventhe meanings assigned terms credit agreement collateralnagreement referred thereinnn nnc</t>
+  </si>
+  <si>
+    <t>thencollateral agreement hereby incorporated herein referencenn nnsection</t>
+  </si>
+  <si>
+    <t>this supplement may executed counterparts differentnparties hereto different counterparts shall constitute annoriginal taken together shall constitute singlencontract</t>
+  </si>
+  <si>
+    <t>delivery executed signature page thisnsupplement facsimile electronic transmission shall effective asndelivery manually signed counterpart supplementnn nnsection</t>
+  </si>
+  <si>
+    <t>in case one provisions contained thisnsupplement held invalid illegal unenforceable respectnthe validity legality enforceability remaining provisionsncontained herein collateral agreement shall way benaffected impaired thereby understood invalidity anparticular provision particular jurisdiction shall itselfnaffect validity provision jurisdiction</t>
+  </si>
+  <si>
+    <t>the partiesnhereto shall endeavor goodfaith negotiations replace invalidnillegal unenforceable provisions valid provisions economic effectnof comes close possible invalid illegal ornunenforceable provisionsnn nnsection</t>
+  </si>
+  <si>
+    <t>all communications notices hereunder shall writing andngiven provided section collateral agreementnn nnsection</t>
+  </si>
+  <si>
+    <t>the collateralnagreement hereby incorporated herein referencenn nnsection</t>
+  </si>
+  <si>
+    <t>the partiesnhereto shall endeavor goodfaith negotiations replace invalidnillegal unenforceable provisions valid provisions economic effectnof comes close possible invalid illegal ornunenforceable provisionsnn nn nn nn nn nnsection</t>
+  </si>
+  <si>
+    <t>set forth schedule complete correct list ofnall deposit accounts maintained grantor meet description setnforth schedule credit agreement date hereof thenxexxcinitial control accountsxexxd</t>
+  </si>
+  <si>
+    <t>securities accounts</t>
+  </si>
+  <si>
+    <t>n n n n nname of lender n nby n nnnnn n nnnnnname n nnnnntitle n n nn nn nn nnexhibit dnn nnform ofnnus</t>
+  </si>
+  <si>
+    <t>n n n n nname of lender n nby n nnnnn n nnnnnname n nnnnntitle n n nn nn nn nn nnexhibit dnn nnform ofnnus</t>
+  </si>
+  <si>
+    <t>by executing certificate undersigned agrees theninformation provided certificate changes undersigned shallnpromptly inform foreign lender writing undersignednshall times furnished foreign lender properlyncompleted currently effective certificate either calendar year innwhich payment made undersigned either twoncalendar years preceding paymentsnnunless otherwise defined herein capitalized terms defined creditnagreement used herein shall meanings given creditnagreementnn n n n n n nname of participant n nby n nnnnn n nnnnnname n nnnnntitle n n nn nn nn nn nnexhibit dnn nnform ofnnus</t>
+  </si>
+  <si>
+    <t>the nonexercise holder hereof anynof rights hereunder particular instance shall constitute anwaiver thereof subsequent instance</t>
+  </si>
+  <si>
+    <t>the waiver of juryntrial provisions of section of the credit agreement shall be applicablento this promissory notenn nn nn nn nn nnin witness whereof undersigned duly executed promissory note asnof date first writtennn n n n n n nj</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +858,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +866,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +1184,1942 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>159</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>161</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>195</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>256</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>287</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>301</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>304</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>311</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>333</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>348</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>410</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>415</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>419</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>428</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>431</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>432</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>438</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>442</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>443</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>446</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>447</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>449</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>457</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>468</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>469</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>471</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>480</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>483</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>484</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>485</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>486</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>490</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>492</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>493</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>494</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>495</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>497</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>507</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>516</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>518</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>523</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>524</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>525</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>526</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>527</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>528</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>537</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>539</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>542</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>548</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>570</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>586</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>587</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>592</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>600</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>603</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>604</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>605</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>606</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>613</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>615</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>618</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>633</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>634</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>637</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>651</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>653</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>658</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>668</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>671</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>680</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>693</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>698</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>713</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>715</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>716</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>718</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>720</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>721</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>722</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>724</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>732</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>733</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>734</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>736</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>737</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>738</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>739</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>742</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>743</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>744</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>745</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>747</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>748</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>750</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>751</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>753</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>754</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>755</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>762</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>769</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>778</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>783</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>785</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>787</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>790</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>791</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>792</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>801</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>803</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>124</v>
+      </c>
+      <c r="D127" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>805</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>125</v>
+      </c>
+      <c r="D128" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>809</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>126</v>
+      </c>
+      <c r="D129" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>810</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>130</v>
+      </c>
+      <c r="D130" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>811</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>131</v>
+      </c>
+      <c r="D131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>829</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>132</v>
+      </c>
+      <c r="D132" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>831</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>133</v>
+      </c>
+      <c r="D133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>836</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>134</v>
+      </c>
+      <c r="D134" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>840</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>135</v>
+      </c>
+      <c r="D135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>842</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>136</v>
+      </c>
+      <c r="D136" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>855</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>137</v>
+      </c>
+      <c r="D137" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>857</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>138</v>
+      </c>
+      <c r="D138" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/classification_results.xlsx
+++ b/classification_results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>label</t>
   </si>
@@ -25,117 +26,173 @@
     <t>clean</t>
   </si>
   <si>
-    <t>default_interest</t>
-  </si>
-  <si>
-    <t>By the issuance of a Letter of Credit  or an amendment to a nLetter of Credit increasing the amount thereof  and without any further action non the part of the applicable Issuing Bank or the Lenders, the Issuing Bank in nrespect of such Letter of Credit hereby grants to each Revolving Lender, and neach Revolving Lender hereby acquires from such Issuing Bank, a participation nin such Letter of Credit equal to such Lender xe2 x80 x99s Applicable Revolving nPercentage of the aggregate amount available to be drawn under such Letter of nCredit.</t>
-  </si>
-  <si>
-    <t>If  i  any Event of Default shall occur and be ncontinuing,  ii  the Administrative Agent has declared the Revolving Loans noutstanding hereunder due and payable pursuant to Section 7.01 or  iii  in the ncase of a Defaulting Lender, there shall exist any LC Exposure that cannot be nreallocated among the non-Defaulting Lenders pursuant to Section 2.21 c  then, non the Business Day that an Account Party receives notice from the nAdministrative Agent or the Required Revolving Lenders demanding the deposit nof cash collateral pursuant to this paragraph, such Account Party shall ndeposit in an account with the Administrative Agent, in the name of the nAdministrative Agent and for the benefit of the Lenders  or, in the case of nclause  iii , the non-Defaulting Lenders , an amount in cash equal to the LC nExposure  or, in the case of clause  iii , the LC Exposure of the Defaulting nLender that cannot be fully reallocated pursuant to Section 2.21 c  i   as of nsuch date attributable to Letters of Credit issued for the account of such nAccount Party plus any accrued and unpaid interest thereon; provided that the nobligation to deposit such cash collateral shall become effective immediately, nand such deposit shall become immediately due and payable, without demand or nother notice of any kind, upon the occurrence of any Event of Default with nrespect to Holdings, any Borrower or any Account Party described in clause  h  nor  i  of Section 7.01; provided further that, in the case of clause  iii , an nAccount Party may, if approved by each applicable Issuing Bank in its sole ndiscretion, provide other credit support in lieu of the deposit of cash ncollateral pursuant to this paragraph.</t>
-  </si>
-  <si>
-    <t>In such event, if a Lender has not in fact made its nshare of the applicable Borrowing  or such Revolving Lender xe2 x80 x99s Participation nAmount, as applicable  available to the Administrative Agent, then the napplicable Lender and the applicable Borrower  or the n n   n n60 n n   n n   n n   n n      n n   n n   n napplicable Issuing Bank, as applicable  severally agree to pay to the nAdministrative Agent forthwith on demand such corresponding amount with ninterest thereon, for each day from and including the date such amount is made navailable to such Borrower  or such Issuing Bank, as applicable  to but nexcluding the date of payment to the Administrative Agent, at  i  in the case nof such Lender or such Issuing Bank, the greater of the Federal Funds nEffective Rate and a rate determined by the Administrative Agent in accordance nwith banking industry rules on interbank compensation or  ii  in the case of nsuch Borrower, the interest rate applicable to ABR Loans.</t>
-  </si>
-  <si>
-    <t>Any amount which is added to the principal balance of the nLoan Account as provided in this Section shall bear interest at the interest nrate then and thereafter applicable to ABR Loans.</t>
-  </si>
-  <si>
-    <t>Notwithstanding anything to nthe contrary contained herein, at any time a Specified Event of Default has noccurred and is continuing, Administrative Agent may at its option  but shall nhave no obligation to  advance any such amounts provided for in this clause n d  or any other amounts to which any Agent or Lender is entitled from the nLoan Parties and may charge the same to the Loan Account  which shall not be ndeemed to be a waiver of any such Specified Event of Default or any other nEvent of Default .</t>
-  </si>
-  <si>
-    <t>Fees paid shall not be refundable nunder any circumstances. n n   n nSECTION 2.12.</t>
-  </si>
-  <si>
-    <t>During such periods as such Revolving Loan is an ABR Borrowing n which shall be all times in the case of any Swingline Loan or Protective nAdvance , a rate per annum equal at all times to the sum of  A  the Alternate nBase Rate in effect from time to time plus  B  the Applicable Revolving Loan nMargin for ABR Borrowings in effect from time to time. n n   n n ii Eurodollar Loans.</t>
-  </si>
-  <si>
-    <t>Upon the occurrence and during the continuance of an nEvent of Default, at the option of Revolving Agent or at the request of the nRequired Revolving Lenders, Borrowers shall pay interest on the unpaid nprincipal amount of each Revolving Loan and each unreimbursed LC Disbursement nowing to each Revolving Lender or Issuing Bank, as applicable, or at the noption of Term Agent or at the request of the Required Term Lenders, on the nprincipal amount of the Term Loans then outstanding, in each case at a rate nper annum equal to 2  per annum above the rate per annum otherwise required to nbe paid in respect thereof. n n   n n d      Interest Payment Date; Payment Instructions.</t>
-  </si>
-  <si>
-    <t>If such Taxes are Indemnified Taxes, then the nsum payable by the applicable Loan Party shall be increased as necessary so nthat after making all required deductions  including deductions applicable to nadditional sums payable under this Section 2.16  the Recipient receives an namount equal to the sum it would have received had no such deductions been nmade. n n   n n b In addition, the Borrowers and the Account Parties shall pay, or at the noption of the Administrative Agent  or, in the case of the Term Loans, the nTerm Agent  timely reimburse it for, the payment of any Other Taxes to the nrelevant Governmental Authorities in accordance with applicable law other than nany Other Taxes imposed upon any assignment or participation of a Lender xe2 x80 x99s nrights, interests and obligations hereunder or under any other Loan Document; nprovided that the amount such Borrower or such Account Party  as the case may nbe  shall be required to pay to a particular Lender in respect of Other Taxes nshall not exceed 1  of the aggregate amount of the Commitment of such Lender non which such Other Taxes are imposed; provided further that if a Lender is nactually aware of the application of any Other Tax to any such payment, nexecution, delivery or registration, such Lender shall promptly notify the nParent Borrower of such Other Tax and the relevant Borrower or the relevant nAccount Party  as the case may be  shall thereafter have the benefit of the nprovisions of Section 2.18 b . n n   n n c Each Borrower and each Account Party shall indemnify each Recipient, within n30 days after written demand therefor, for the full amount of any Indemnified nTaxes  including Indemnified n n   n n71 n n   n n   n n   n n      n n   n n   n nTaxes imposed or asserted on or attributable to amounts payable under this nSection 2.16  and expenses arising therefrom or with respect thereto, whether nor not such Indemnified Taxes were correctly or legally imposed or asserted by nthe relevant Governmental Authority.</t>
-  </si>
-  <si>
-    <t>If any Recipient receives a nrefund in respect of any Taxes for which such Recipient has received payment nfrom an indemnifying party hereunder, it shall within 30 days after the nreceipt thereof repay the lesser of such refund and the amount paid by such nindemnifying party with respect to such Taxes to the applicable indemnifying nparty, in each case net of all reasonable out-of-pocket expenses of such nRecipient and with interest received by such Recipient from the relevant ntaxing authority attributable to such refund; provided that such indemnifying nparty, upon the request of such Recipient, as applicable, agree to return any nsuch refund  plus interest, penalties and other charges  to such Recipient, as napplicable, in the event such Issuing Bank, Lender or the Administrative Agent nis required to pay such refund to any Governmental Authority.</t>
-  </si>
-  <si>
-    <t>Upon the occurrence and during the ncontinuance of an Event of Default, the Administrative Agent shall apply the nproceeds of any collection or sale of Collateral, including any Collateral nconsisting of cash, as specified in Section 2.17 h  of the Credit Agreement. nUpon the occurrence and during the continuance of an Event of Default, the nAdministrative Agent shall have absolute discretion as to the time of napplication of any such proceeds, moneys or balances in accordance with this nAgreement and the Credit Agreement.</t>
-  </si>
-  <si>
-    <t>Grantor xe2 x80 x99s Obligations Upon Default.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a  Notwithstanding any provision of this nAgreement to the contrary, all rights of the Guarantors and Grantors under nSections 5.01 and 5.02 and all other rights of the Guarantors and Grantors of nindemnity, contribution or subrogation under applicable law or otherwise shall nbe fully subordinated to the indefeasible payment in full in cash of the nObligations.</t>
-  </si>
-  <si>
-    <t>Capitalized terms used nbut not defined herein shall have the meanings assigned thereto in the Credit nAgreement. n nThe Parent Borrower promises to pay interest, on demand, on any overdue nprincipal and, to the extent permitted by law, overdue interest from their due ndates at the rate or rates provided in the Credit Agreement. n nThe Parent Borrower hereby waives diligence, presentment, demand, protest and nnotice of any kind whatsoever.</t>
-  </si>
-  <si>
-    <t>by issuance letter credit amendment anletter credit increasing amount thereof without actionnon part applicable issuing bank lenders issuing bank innrespect letter credit hereby grants revolving lender andneach revolving lender hereby acquires issuing bank participationnin letter credit equal lenderxexxs applicable revolvingnpercentage aggregate amount available drawn letter ofncredit</t>
-  </si>
-  <si>
-    <t>if event default shall occur bencontinuing ii administrative agent declared revolving loansnoutstanding hereunder due payable pursuant section iii thencase defaulting lender shall exist lc exposure cannot benreallocated among nondefaulting lenders pursuant section c thennon business day account party receives notice thenadministrative agent required revolving lenders demanding depositnof cash collateral pursuant paragraph account party shallndeposit account administrative agent name thenadministrative agent benefit lenders case ofnclause iii nondefaulting lenders amount cash equal lcnexposure case clause iii lc exposure defaultingnlender cannot fully reallocated pursuant section ci ofnsuch date attributable letters credit issued account suchnaccount party plus accrued unpaid interest thereon provided thenobligation deposit cash collateral shall become effective immediatelynand deposit shall become immediately due payable without demand ornother notice kind upon occurrence event default withnrespect holdings borrower account party described clause hnor section provided case clause iii annaccount party may approved applicable issuing bank solendiscretion provide credit support lieu deposit cashncollateral pursuant paragraph</t>
-  </si>
-  <si>
-    <t>in event lender fact made itsnshare applicable borrowing revolving lenderxexxs participationnamount applicable available administrative agent thenapplicable lender applicable borrower thenn nnnn nn nn nn nn nn nnapplicable issuing bank applicable severally agree pay thenadministrative agent forthwith demand corresponding amount withninterest thereon day including date amount madenavailable borrower issuing bank applicable butnexcluding date payment administrative agent casenof lender issuing bank greater federal fundsneffective rate rate determined administrative agent accordancenwith banking industry rules interbank compensation ii case ofnsuch borrower interest rate applicable abr loans</t>
-  </si>
-  <si>
-    <t>any amount added principal balance thenloan account provided section shall bear interest interestnrate thereafter applicable abr loans</t>
-  </si>
-  <si>
-    <t>notwithstanding anything tonthe contrary contained herein time specified event default hasnoccurred continuing administrative agent may option shallnhave obligation advance amounts provided clausend amounts agent lender entitled thenloan parties may charge loan account shall bendeemed waiver specified event default othernevent default</t>
-  </si>
-  <si>
-    <t>fees paid shall refundablenunder circumstancesnn nnsection</t>
-  </si>
-  <si>
-    <t>during periods revolving loan abr borrowingnwhich shall times case swingline loan protectivenadvance rate per annum equal times sum a alternatenbase rate effect time time plus b applicable revolving loannmargin abr borrowings effect time timenn nniieurodollar loans</t>
-  </si>
-  <si>
-    <t>upon occurrence continuance annevent default option revolving agent request thenrequired revolving lenders borrowers shall pay interest unpaidnprincipal amount revolving loan unreimbursed lc disbursementnowing revolving lender issuing bank applicable thenoption term agent request required term lenders thenprincipal amount term loans outstanding case ratenper annum equal per annum rate per annum otherwise required tonbe paid respect thereofnn nnd interest payment date payment instructions</t>
-  </si>
-  <si>
-    <t>if taxes indemnified taxes thensum payable applicable loan party shall increased necessary sonthat making required deductions including deductions applicable tonadditional sums payable section recipient receives annamount equal sum would received deductions beennmadenn nnbin addition borrowers account parties shall pay thenoption administrative agent case term loans thenterm agent timely reimburse payment other taxes thenrelevant governmental authorities accordance applicable law thannany other taxes imposed upon assignment participation lenderxexxsnrights interests obligations hereunder loan documentnprovided amount borrower account party case maynbe shall required pay particular lender respect other taxesnshall exceed aggregate amount commitment lendernon other taxes imposed provided lender isnactually aware application other tax paymentnexecution delivery registration lender shall promptly notify thenparent borrower other tax relevant borrower relevantnaccount party case may shall thereafter benefit thenprovisions section bnn nnceach borrower account party shall indemnify recipient withinn days written demand therefor full amount indemnifiedntaxes including indemnifiednn nnnn nn nn nn nn nn nntaxes imposed asserted attributable amounts payable thisnsection expenses arising therefrom respect thereto whethernor indemnified taxes correctly legally imposed asserted bynthe relevant governmental authority</t>
-  </si>
-  <si>
-    <t>if recipient receives anrefund respect taxes recipient received paymentnfrom indemnifying party hereunder shall within days thenreceipt thereof repay lesser refund amount paid suchnindemnifying party respect taxes applicable indemnifyingnparty case net reasonable outofpocket expenses suchnrecipient interest received recipient relevantntaxing authority attributable refund provided indemnifyingnparty upon request recipient applicable agree return anynsuch refund plus interest penalties charges recipient asnapplicable event issuing bank lender administrative agentnis required pay refund governmental authority</t>
-  </si>
-  <si>
-    <t>upon occurrence thencontinuance event default administrative agent shall apply thenproceeds collection sale collateral including collateralnconsisting cash specified section h credit agreementnupon occurrence continuance event default thenadministrative agent shall absolute discretion time ofnapplication proceeds moneys balances accordance thisnagreement credit agreement</t>
-  </si>
-  <si>
-    <t>grantorxexxs obligations upon default</t>
-  </si>
-  <si>
-    <t>notwithstanding provision thisnagreement contrary rights guarantors grantors undernsections rights guarantors grantors ofnindemnity contribution subrogation applicable law otherwise shallnbe fully subordinated indefeasible payment full cash thenobligations</t>
-  </si>
-  <si>
-    <t>capitalized terms usednbut defined herein shall meanings assigned thereto creditnagreementnnthe parent borrower promises pay interest demand overduenprincipal extent permitted law overdue interest duendates rate rates provided credit agreementnnthe parent borrower hereby waives diligence presentment demand protest andnnotice kind whatsoever</t>
+    <t>MAC_definition</t>
+  </si>
+  <si>
+    <t>Defined nTerms......................................................................................................................1 n nSECTION 1.02    Classification of Loans and nBorrowings............................................................................49 n nSECTION 1.03    Terms nGenerally.................................................................................................................49 n nSECTION 1.04    Accounting Terms; nGAAP.................................................................................................49 n nARTICLE II n nThe Credits 50 n nSECTION 2.01 nCommitments.....................................................................................................................50 n nSECTION 2.02    Loans and nBorrowings.......................................................................................................50 n nSECTION 2.03    Requests for nBorrowings....................................................................................................51 n nSECTION 2.04    Swingline Loans; Protective nAdvances..............................................................................52 n nSECTION 2.05    Letters of nCredit.................................................................................................................54 n nSECTION 2.06    Funding of nBorrowings......................................................................................................60 n nSECTION 2.07    Interest nElections................................................................................................................61 n nSECTION 2.08    Termination and Reduction of Revolving nCommitments..................................................62 n nSECTION 2.09    Repayment of Loans; Evidence of nDebt............................................................................63 n nSECTION 2.10    Optional and Mandatory Prepayment of Revolving Loans and Term nLoans....................65 n nSECTION 2.11 nFees....................................................................................................................................67 n nSECTION 2.12 nInterest................................................................................................................................68 n nSECTION 2.13    Alternate Rate of nInterest...................................................................................................69 n nSECTION 2.14    Increased nCosts...................................................................................................................69 n nSECTION 2.15    Break Funding nPayments...................................................................................................71 n nSECTION 2.16 nTaxes..................................................................................................................................71 n nSECTION 2.17    Payments Generally; Pro Rata Treatment; Sharing of Set- noffs.........................................74 n nSECTION 2.18    Mitigation Obligations; Replacement of nLenders.............................................................77 n nSECTION 2.19    Settlement Among nLenders...............................................................................................80 n nSECTION 2.20    Borrowing nSubsidiaries.....................................................................................................80 n nSECTION 2.21    Defaulting nLenders............................................................................................................81 n nSECTION 2.22    Increase in Commitments and Additional Term nLoans.....................................................83 n nSECTION 2.23    Extension of Maturity nDate...............................................................................................85 n nARTICLE III n nRepresentations and Warranties 86 n n   n n   n n   n n   n ni n n   n n      n n   n n   n nSECTION 3.01    Organization; nPowers.........................................................................................................87 n nSECTION 3.02    Authorization; nEnforceability.............................................................................................87 n nSECTION 3.03    Governmental Approvals; No Conflicts n..........................................................................87 n nSECTION 3.04    Financial Condition; No Material Adverse nChange...........................................................87 n nSECTION 3.05 nProperties...........................................................................................................................87 n nSECTION 3.06    Litigation and Environmental nMatters...............................................................................88 n nSECTION 3.07    Compliance with Laws and nAgreements...........................................................................88 n nSECTION 3.08    Investment Company nStatus..............................................................................................89 n nSECTION 3.09 nTaxes..................................................................................................................................89 n nSECTION 3.10 nERISA................................................................................................................................89 n nSECTION 3.11 nDisclosure..........................................................................................................................89 n nSECTION 3.12    Material nSubsidiaries.........................................................................................................89 n nSECTION 3.13 nSolvency............................................................................................................................90 n nARTICLE IV n nConditions 90 n n   n nSECTION 4.01    Conditions to Initial Loans and Letters of Credit n.............................................................90 n nSECTION 4.02    Each Credit nEvent..............................................................................................................92 n nSECTION 4.03    Borrowing Subsidiaries n....................................................................................................92 n nARTICLE V n nAffirmative Covenants 93 n n   n nSECTION 5.01    Financial Statements; Borrowing Base, Ratings Change and Other nInformation..............93 n nSECTION 5.02    Notices of Material nEvents.................................................................................................95 n nSECTION 5.03    Information Regarding nCollateral......................................................................................96 n nSECTION 5.04    Existence; Conduct of nBusiness.........................................................................................96 n nSECTION 5.05    Payment of nObligations......................................................................................................96 n nSECTION 5.06    Maintenance of nProperties..................................................................................................97 n nSECTION 5.07 nInsurance.............................................................................................................................97 n nSECTION 5.08    Books and Records; Inspection nRights...............................................................................97 n nSECTION 5.09    Compliance with nLaws.......................................................................................................98 n nSECTION 5.10    Use of Proceeds and Letters of nCredit................................................................................98 n nSECTION 5.11    Additional Guarantee nParties.............................................................................................98 n nSECTION 5.12    Further nAssurances.............................................................................................................98 n nSECTION 5.13    Maintenance of Ratings n....................................................................................................98 n nSECTION 5.14 nAppraisals..........................................................................................................................98 n nSECTION 5.15    Field nExaminations............................................................................................................99 n nSECTION 5.16    Cash Management; Control nAgreements...........................................................................99 n nSECTION 5.17    Environmental nLaws........................................................................................................102 n n   n n   n n      n n   n n   n n   n nSECTION 5.18    Lender nMeetings...............................................................................................................102 n nARTICLE VI n nNegative Covenants 102 n nSECTION 6.01 nIndebtedness.....................................................................................................................102 n nSECTION 6.02 nLiens.................................................................................................................................105 n nSECTION 6.03    Fundamental nChanges......................................................................................................106 n nSECTION 6.04    Investments, Loans, Advances, Guarantees and nAcquisitions.........................................107 n nSECTION 6.05    Asset nSales.......................................................................................................................109 n nSECTION 6.06    Sale and Leaseback nTransactions.....................................................................................111 n nSECTION 6.07    Restricted nPayments.........................................................................................................111 n nSECTION 6.08    Restrictive nAgreements....................................................................................................112 n nSECTION 6.09    Transactions with nAffiliates.............................................................................................113 n nSECTION 6.10    Amendments of Material nDocuments..............................................................................113 n nSECTION 6.11    Minimum Excess nAvailability..........................................................................................113 n nSECTION 6.12    Restriction on Non-Material nSubsidiaries........................................................................113 n nSECTION 6.13    Certain Payments of nIndebtedness...................................................................................113 n nSECTION 6.14    Net Settlement of Convertible nIndebtedness...................................................................114 n nARTICLE VII n nEvents of Default 114 n n   n nSECTION 7.01    Events of nDefault.............................................................................................................114 n nARTICLE VIII n nThe Administrative Agent; Co-Collateral Agents; Revolving Agent; Term Agent n117 n n   n nSECTION 8.01 nAppointment.....................................................................................................................117 n nSECTION 8.02    Each Agent in Its Individual nCapacity..............................................................................117 n nSECTION 8.03    Reliance by nAgents...........................................................................................................117 n nSECTION 8.04    Delegation of nDuties.........................................................................................................118 n nSECTION 8.05    Exculpatory Provisions n...................................................................................................118 n nSECTION 8.06    Notice of nDefault..............................................................................................................118 n nSECTION 8.07    Non-Reliance on Agents and Other nLenders..........................................................119 n nSECTION 8.08    Reports and Financial nStatements....................................................................................119 n nSECTION 8.09    Indemnification n...............................................................................................................120 n nSECTION 8.10    Successor nAgent...............................................................................................................120 n nSECTION 8.11    Co-Collateral Agent nDeterminations...............................................................................121 n nSECTION 8.12    Co-Documentation Agents and Syndication nAgent.................................................121 n nSECTION 8.13    Intercreditor nAgreement...................................................................................................121 n nSECTION 8.14    Secured Swap Obligations, Secured Treasury Services nObligations, Secured Supply n nChain nObligations...............................................................................................................................................122 n n   n n   n n      n n   n n   n n   n nSECTION 8.15    Administrative Agent May File Proofs of nClaim............................................................122 n nARTICLE IX n nMiscellaneous 123 n nSECTION 9.01 nNotices.............................................................................................................................123 n nSECTION 9.02    Waivers; nAmendments.....................................................................................................123 n nSECTION 9.03    Expenses; Indemnity; Damage nWaiver............................................................................127 n nSECTION 9.04    Successors and nAssigns...................................................................................................130 n nSECTION 9.05 nSurvival............................................................................................................................134 n nSECTION 9.06    Integration; nEffectiveness................................................................................................134 n nSECTION 9.07 nSeverability......................................................................................................................134 n nSECTION 9.08    Right of nSetoff.................................................................................................................134 n nSECTION 9.09    Governing Law; Jurisdiction; Consent to Service of nProcess.........................................135 n nSECTION 9.10    WAIVER OF JURY nTRIAL............................................................................................135 n nSECTION 9.11 nHeadings..........................................................................................................................135 n nSECTION 9.12 nConfidentiality.................................................................................................................135 n nSECTION 9.13    Interest Rate Limitation n..................................................................................................137 n nSECTION 9.14    USA Patriot Act n...............................................................................................................137 n nSECTION 9.15    No Fiduciary nDuty...........................................................................................................137 n nSECTION 9.16 nKeepwell.........................................................................................................................138 n n   n n   n n   n n   n n      n n   n n   n nSCHEDULES: n nSchedule 1.01 -- Existing Debt Documents n nSchedule 2.01      -- Commitments n nSchedule 2.05      -- Issuing Banks and Issuing Bank Sublimits n nSchedule 3.06A -- Disclosed Matters n nSchedule 3.06B -- Excluded Matters n nSchedule 3.12      -- Material Subsidiaries n nSchedule 5.16      -- Control Accounts n nSchedule 6.01      -- Existing Indebtedness n nSchedule 6.02      -- Existing Liens n nSchedule 6.04      -- Existing Investments n nSchedule 6.08      -- Existing Restrictions n nEXHIBITS: n nExhibit A --    Form of Assignment and Assumption n nExhibit B --     Intentionally Omitted.</t>
+  </si>
+  <si>
+    <t>definedntermsnnsection classification loans andnborrowingsnnsection termsngenerally ................................................................... 49 \ n \ nsection 1 . 04 accounting terms ;\ ngaap ................................................................................................. 49 \ n \ narticle ii \ n \ nthe credits 50 \ n \ nsection 2 . 01 \ ncommitments ..................................................................................................................... 50 \ n \ nsection 2 . 02 loans \ nborrowings ....................................................................................................... 50 \ n \ nsection 2 . 03 requests \ nborrowings .................................................................................................... 51 \ n \ nsection 2 . 04 swingline loans ; protective \ nadvances .............................................................................. 52 \ n \ nsection 2 . 05 letters \ ncredit ................................................................................................................. 54 \ n \ nsection 2 . 06 funding \ nborrowings ...................................................................................................... 60 \ n \ nsection 2 . 07 interest \ nelections ................................................................................................................ 61 \ n \ nsection 2 . 08 termination reduction revolving \ ncommitments .................................................. 62 \ n \ nsection 2 . 09 repayment loans ; evidence \ ndebt ............................................................................ 63 \ n \ nsection 2 . 10 optional mandatory prepayment revolving loans term \ nloans .................... 65 \ n \ nsection 2 . 11 \ nfees .................................................................................................................................... 67 \ n \ nsection 2 . 12 \ ninterest ................................................................................................................................ 68 \ n \ nsection 2 . 13 alternate rate \ ninterest ................................................................................................... 69 \ n \ nsection 2 . 14 increased \ ncosts ................................................................................................................... 69 \ n \ nsection 2 . 15 break funding \ npayments ................................................................................................... 71 \ n \ nsection 2 . 16 \ ntaxes .................................................................................................................................. 71 \ n \ nsection 2 . 17 payments generally ; pro rata treatment ; sharing set -\ noffs ......................................... 74 \ n \ nsection 2 . 18 mitigation obligations ; replacement \ nlenders ............................................................. 77 \ n \ nsection 2 . 19 settlement among \ nlenders ............................................................................................... 80 \ n \ nsection 2 . 20 borrowing \ nsubsidiaries ..................................................................................................... 80 \ n \ nsection 2 . 21 defaulting \ nlenders ............................................................................................................ 81 \ n \ nsection 2 . 22 increase commitments additional term \ nloans ..................................................... 83 \ n \ nsection 2 . 23 extension maturity \ ndate ............................................................................................... 85 \ n \ narticle iii \ n \ nrepresentations warranties 86 \ n \ n \ n \ n \ n \ n \ n \ n \ n \ ni \ n \ n \ n \ n * * *\ n \ n \ n \ n \ n \ nsection 3 . 01 organization ;\ npowers ......................................................................................................... 87 \ n \ nsection 3 . 02 authorization ;\ nenforceability ............................................................................................. 87 \ n \ nsection 3 . 03 governmental approvals ; no conflicts \ n .......................................................................... 87 \ n \ nsection 3 . 04 financial condition ; no material adverse \ nchange ........................................................... 87 \ n \ nsection 3 . 05 \ nproperties ........................................................................................................................... 87 \ n \ nsection 3 . 06 litigation environmental \ nmatters ............................................................................... 88 \ n \ nsection 3 . 07 compliance laws \ nagreements ........................................................................... 88 \ n \ nsection 3 . 08 investment company \ nstatus .............................................................................................. 89 \ n \ nsection 3 . 09 \ ntaxes .................................................................................................................................. 89 \ n \ nsection 3 . 10 \ nerisa ................................................................................................................................ 89 \ n \ nsection 3 . 11 \ ndisclosure .......................................................................................................................... 89 \ n \ nsection 3 . 12 material \ nsubsidiaries ......................................................................................................... 89 \ n \ nsection 3 . 13 \ nsolvency ............................................................................................................................ 90 \ n \ narticle iv \ n \ nconditions 90 \ n \ n \ n \ nsection 4 . 01 conditions initial loans letters credit \ n ............................................................. 90 \ n \ nsection 4 . 02 each credit \ nevent .............................................................................................................. 92 \ n \ nsection 4 . 03 borrowing subsidiaries \ n .................................................................................................... 92 \ n \ narticle v \ n \ naffirmative covenants 93 \ n \ n \ n \ nsection 5 . 01 financial statements ; borrowing base , ratings change other \ ninformation .............. 93 \ n \ nsection 5 . 02 notices material \ nevents ................................................................................................. 95 \ n \ nsection 5 . 03 information regarding \ ncollateral ...................................................................................... 96 \ n \ nsection 5 . 04 existence ; conduct \ nbusiness ......................................................................................... 96 \ n \ nsection 5 . 05 payment \ nobligations ...................................................................................................... 96 \ n \ nsection 5 . 06 maintenance \ nproperties .................................................................................................. 97 \ n \ nsection 5 . 07 \ ninsurance ............................................................................................................................. 97 \ n \ nsection 5 . 08 books records ; inspection \ nrights ............................................................................... 97 \ n \ nsection 5 . 09 compliance \ nlaws ....................................................................................................... 98 \ n \ nsection 5 . 10 use proceeds letters \ ncredit ................................................................................ 98 \ n \ nsection 5 . 11 additional guarantee \ nparties ............................................................................................. 98 \ n \ nsection 5 . 12 further \ nassurances ............................................................................................................. 98 \ n \ nsection 5 . 13 maintenance ratings \ n .................................................................................................... 98 \ n \ nsection 5 . 14 \ nappraisals .......................................................................................................................... 98 \ n \ nsection 5 . 15 field \ nexaminations ............................................................................................................ 99 \ n \ nsection 5 . 16 cash management ; control \ nagreements ........................................................................... 99 \ n \ nsection 5 . 17 environmental \ nlaws ........................................................................................................ 102 \ n \ n \ n \ n \ n \ n * * *\ n \ n \ n \ n \ n \ n \ n \ nsection 5 . 18 lender \ nmeetings ............................................................................................................... 102 \ n \ narticle vi \ n \ nnegative covenants 102 \ n \ nsection 6 . 01 \ nindebtedness ..................................................................................................................... 102 \ n \ nsection 6 . 02 \ nliens ................................................................................................................................. 105 \ n \ nsection 6 . 03 fundamental \ nchanges ...................................................................................................... 106 \ n \ nsection 6 . 04 investments , loans , advances , guarantees \ nacquisitions ......................................... 107 \ n \ nsection 6 . 05 asset \ nsales ....................................................................................................................... 109 \ n \ nsection 6 . 06 sale leaseback \ ntransactions ..................................................................................... 111 \ n \ nsection 6 . 07 restricted \ npayments ......................................................................................................... 111 \ n \ nsection 6 . 08 restrictive \ nagreements .................................................................................................... 112 \ n \ nsection 6 . 09 transactions \ naffiliates ............................................................................................. 113 \ n \ nsection 6 . 10 amendments material \ ndocuments .............................................................................. 113 \ n \ nsection 6 . 11 minimum excess \ navailability .......................................................................................... 113 \ n \ nsection 6 . 12 restriction non - material \ nsubsidiaries ........................................................................ 113 \ n \ nsection 6 . 13 certain payments \ nindebtedness ................................................................................... 113 \ n \ nsection 6 . 14 net settlement convertible \ nindebtedness ................................................................... 114 \ n \ narticle vii \ n \ nevents default 114 \ n \ n \ n \ nsection 7 . 01 events \ ndefault ............................................................................................................. 114 \ n \ narticle viii \ n \ nthe administrative agent ; co - collateral agents ; revolving agent ; term agent \ n117 \ n \ n \ n \ nsection 8 . 01 \ nappointment ..................................................................................................................... 117 \ n \ nsection 8 . 02 each agent its individual \ ncapacity .............................................................................. 117 \ n \ nsection 8 . 03 reliance \ nagents ........................................................................................................... 117 \ n \ nsection 8 . 04 delegation \ nduties ......................................................................................................... 118 \ n \ nsection 8 . 05 exculpatory provisions \ n ................................................................................................... 118 \ n \ nsection 8 . 06 notice \ ndefault .............................................................................................................. 118 \ n \ nsection 8 . 07 non - reliance agents other \ nlenders .......................................................... 119 \ n \ nsection 8 . 08 reports financial \ nstatements .................................................................................... 119 \ n \ nsection 8 . 09 indemnification \ n ............................................................................................................... 120 \ n \ nsection 8 . 10 successor \ nagent ............................................................................................................... 120 \ n \ nsection 8 . 11 co - collateral agent \ ndeterminations ............................................................................... 121 \ n \ nsection 8 . 12 co - documentation agents syndication \ nagent ................................................. 121 \ n \ nsection 8 . 13 intercreditor \ nagreement ................................................................................................... 121 \ n \ nsection 8 . 14 secured swap obligations , secured treasury services \ nobligations , secured supply \ n \ nchain \ nobligations ............................................................................................................................................... 122 \ n \ n \ n \ n \ n \ n * * *\ n \ n \ n \ n \ n \ n \ n \ nsection 8 . 15 administrative agent may file proofs \ nclaim ............................................................ 122 \ n \ narticle ix \ n \ nmiscellaneous 123 \ n \ nsection 9 . 01 \ nnotices ............................................................................................................................. 123 \ n \ nsection 9 . 02 waivers ;\ namendments ..................................................................................................... 123 \ n \ nsection 9 . 03 expenses ; indemnity ; damage \ nwaiver ............................................................................ 127 \ n \ nsection 9 . 04 successors \ nassigns ................................................................................................... 130 \ n \ nsection 9 . 05 \ nsurvival ............................................................................................................................ 134 \ n \ nsection 9 . 06 integration ;\ neffectiveness ................................................................................................ 134 \ n \ nsection 9 . 07 \ nseverability ...................................................................................................................... 134 \ n \ nsection 9 . 08 right \ nsetoff ................................................................................................................. 134 \ n \ nsection 9 . 09 governing law ; jurisdiction ; consent service \ nprocess ......................................... 135 \ n \ nsection 9 . 10 waiver of jury \ ntrial ............................................................................................ 135 \ n \ nsection 9 . 11 \ nheadings .......................................................................................................................... 135 \ n \ nsection 9 . 12 \ nconfidentiality ................................................................................................................. 135 \ n \ nsection 9 . 13 interest rate limitation \ n .................................................................................................. 137 \ n \ nsection 9 . 14 usa patriot act \ n ............................................................................................................... 137 \ n \ nsection 9 . 15 no fiduciary \ nduty ........................................................................................................... 137 \ n \ nsection 9 . 16 \ nkeepwell ......................................................................................................................... 138 \ n \ n \ n \ n \ n \ n \ n \ n \ n \ n * * *\ n \ n \ n \ n \ n \ nschedules :\ n \ nschedule 1 . 01 -- existing debt documents \ n \ nschedule 2 . 01 \\-- commitments \ n \ nschedule 2 . 05 \\-- issuing banks issuing bank sublimits \ n \ nschedule 3 . 06a -- disclosed matters \ n \ nschedule 3 . 06b -- excluded matters \ n \ nschedule 3 . 12 \\-- material subsidiaries \ n \ nschedule 5 . 16 \\-- control accounts \ n \ nschedule 6 . 01 \\-- existing indebtedness \ n \ nschedule 6 . 02 \\-- existing liens \ n \ nschedule 6 . 04 \\-- existing investments \ n \ nschedule 6 . 08 \\-- existing restrictions \ n \ nexhibits :\ n \ nexhibit a -- form assignment assumption \ n \ nexhibit b -- [ intentionally omitted .</t>
+  </si>
+  <si>
+    <t>Notwithstanding nanything to the contrary contained herein, the  xe2 x80 x9cLoan Document Obligations xe2 x80 x9d nshall not include any Excluded Swap Obligations. n n xe2 x80 x9cLoan Documents xe2 x80 x9d means this Agreement, the Collateral Agreement, the other nSecurity Documents and, solely for purposes of Section 9.02, the Intercreditor nAgreement. n n xe2 x80 x9cLoan Parties xe2 x80 x9d means Holdings, the Parent Borrower, the Borrowing nSubsidiaries, Purchasing, the Additional Grantors and each Material Subsidiary nthat is a Guarantee Party. n n xe2 x80 x9cLong-Term Indebtedness xe2 x80 x9d means any Indebtedness that, in accordance with GAAP, nconstitutes  or, when incurred, constituted  a long-term liability. n n xe2 x80 x9cMaterial Adverse Effect xe2 x80 x9d means  a  a materially adverse effect on the nbusiness, assets, operations or condition of Holdings and its Subsidiaries, ntaken as a whole,  b  a material impairment of the ability of the Loan Parties nto perform their payment obligations under the Loan Documents or  c  a nmaterial impairment of the rights of or benefits available to the Lenders or nthe Administrative Agent under any Loan Document  other than any such nimpairment of rights or benefits that is primarily attributable to  i  action ntaken by one or more Lenders or the Administrative Agent  excluding any action n n   n n29 n n   n n   n n   n n      n n   n n   n nagainst one or more Lenders or the Administrative Agent taken by Holdings, the nParent Borrower, any Borrowing Subsidiary, any Account Party, their nsubsidiaries or their affiliates  or  ii  circumstances that are unrelated to nHoldings, the Parent Borrower, any Borrowing Subsidiary, any Account Party, ntheir Subsidiaries or their Affiliates . n n xe2 x80 x9cMaterial Indebtedness xe2 x80 x9d means Indebtedness  other than the Loans and Letters nof Credit , or obligations in respect of one or more Swap Agreements, of any none or more of Holdings and its Subsidiaries in an aggregate principal amount nexceeding  100,000,000.</t>
+  </si>
+  <si>
+    <t>notwithstandingnanything contrary contained herein xexxcloan document obligationsxexxdnshall include excluded swap obligationsnnxexxcloan documentsxexxd means agreement collateral agreement othernsecurity documents solely purposes section intercreditornagreementnnxexxcloan partiesxexxd means holdings parent borrower borrowingnsubsidiaries purchasing additional grantors material subsidiarynthat guarantee partynnxexxclongterm indebtednessxexxd means indebtedness accordance gaapnconstitutes incurred constituted longterm liabilitynnxexxcmaterial adverse effectxexxd means materially adverse effect thenbusiness assets operations condition holdings subsidiariesntaken whole b material impairment ability loan partiesnto perform payment obligations loan documents c anmaterial impairment rights benefits available lenders ornthe administrative agent loan document suchnimpairment rights benefits primarily attributable actionntaken one lenders administrative agent excluding actionnn nnnn nn nn nn nn nn nnagainst one lenders administrative agent taken holdings thenparent borrower borrowing subsidiary account party theirnsubsidiaries affiliates ii circumstances unrelated tonholdings parent borrower borrowing subsidiary account partyntheir subsidiaries affiliatesnnxexxcmaterial indebtednessxexxd means indebtedness loans lettersnof credit obligations respect one swap agreements anynone holdings subsidiaries aggregate principal amountnexceeding</t>
+  </si>
+  <si>
+    <t>The word n xe2 x80 x9cwill xe2 x80 x9d shall be construed to have the same meaning and effect as the word n xe2 x80 x9cshall xe2 x80 x9d.</t>
+  </si>
+  <si>
+    <t>the wordnxexxcwillxexxd shall construed meaning effect wordnxexxcshallxexxd</t>
+  </si>
+  <si>
+    <t>The eligibility of any Borrowing Subsidiary to borrow nhereunder shall terminate when the Administrative Agent receives a Subsidiary nBorrower Termination with respect to such Material Subsidiary.</t>
+  </si>
+  <si>
+    <t>the eligibility borrowing subsidiary borrownhereunder shall terminate administrative agent receives subsidiarynborrower termination respect material subsidiary</t>
+  </si>
+  <si>
+    <t>Each of the Loan Parties is duly norganized, validly existing and in good standing under the laws of the njurisdiction of its organization, has all requisite power and authority to ncarry on its business as now conducted and is qualified to do business in, and nis in good standing in, every jurisdiction where such qualification is nrequired, except, in each case, where the failure to do so, individually or in nthe aggregate, would not result in a Material Adverse Effect. n n   n nSECTION 3.02.</t>
+  </si>
+  <si>
+    <t>each loan parties dulynorganized validly existing good standing laws thenjurisdiction organization requisite power authority toncarry business conducted qualified business andnis good standing every jurisdiction qualification isnrequired except case failure individually innthe aggregate would result material adverse effectnn nnsection</t>
+  </si>
+  <si>
+    <t>Authorization; Enforceability.</t>
+  </si>
+  <si>
+    <t>authorization enforceability</t>
+  </si>
+  <si>
+    <t>The Transactions  a  do nnot require any consent or approval of, registration or filing with, or any nother action by, any Governmental Authority, except  i  such as have been nobtained or made and are in full force and effect or as to which the failure nto be made or obtained and to be in full force and effect would not result in na Material Adverse Effect,  ii  filings necessary to perfect Liens created nunder the Collateral Agreement and  iii  filings of periodic reports with the nSecurities and Exchange Commission,  b  will not violate any law or regulation nor the charter, by-laws or other organizational documents of Holdings or any nSubsidiary or any material order of any Governmental Authority applicable to nsuch Person except, in each case, as would not reasonably be expected to have na Material Adverse Effect,  c  will not violate or result in a default under nany material provision of any indenture, agreement or other instrument binding nupon Holdings or any of its Subsidiaries or its assets, or give rise to a nright thereunder to require any payment to be made by Holdings or any nSubsidiary, and  d  will not result in the creation or imposition of any Lien non any asset of Holdings or any of its Subsidiaries, except Liens created nunder the Security Documents. n n   n nSECTION 3.04.</t>
+  </si>
+  <si>
+    <t>the transactions donnot require consent approval registration filing anynother action governmental authority except beennobtained made full force effect failurento made obtained full force effect would result inna material adverse effect ii filings necessary perfect liens creatednunder collateral agreement iii filings periodic reports thensecurities exchange commission b violate law regulationnor charter bylaws organizational documents holdings anynsubsidiary material order governmental authority applicable tonsuch person except case would reasonably expected havena material adverse effect c violate result default undernany material provision indenture agreement instrument bindingnupon holdings subsidiaries assets give rise anright thereunder require payment made holdings anynsubsidiary result creation imposition liennon asset holdings subsidiaries except liens creatednunder security documentsnn nnsection</t>
+  </si>
+  <si>
+    <t>Financial Condition; No Material Adverse Change. n n   n n a Holdings has heretofore furnished to the Lenders  i  its consolidated nbalance sheets and statements of operations, stockholders xe2 x80 x99 equity and cash nflows as of and for the fiscal year ended February 1, 2014, reported on by nKPMG LLP, independent public accountants and  ii  its consolidated balance nsheets and statements of operations and cash flows as of and for the fiscal nquarter and the 39 weeks ended May 3, 2014, certified by its chief financial nofficer.</t>
+  </si>
+  <si>
+    <t>financial condition no material adverse changenn nnaholdings heretofore furnished lenders consolidatednbalance sheets statements operations stockholdersxexx equity cashnflows fiscal year ended february reported bynkpmg llp independent public accountants ii consolidated balancensheets statements operations cash flows fiscalnquarter weeks ended may certified chief financialnofficer</t>
+  </si>
+  <si>
+    <t>Such financial statements present fairly, in all material respects, nthe financial position and results of operations and cash flows of Holdings nand its consolidated Subsidiaries as of such dates and for such periods in naccordance with GAAP, subject to normal year end audit adjustments and the nabsence of certain footnotes in the case of the statements referred to in nclause  ii  above. n n   n n b Since February 1, 2014, there has been no material adverse change in the nbusiness, assets, operations or condition of Holdings and its Subsidiaries, ntaken as a whole. n n   n nSECTION 3.05.</t>
+  </si>
+  <si>
+    <t>such financial statements present fairly material respectsnthe financial position results operations cash flows holdingsnand consolidated subsidiaries dates periods innaccordance gaap subject normal year end audit adjustments thenabsence certain footnotes case statements referred innclause ii abovenn nnbsince february material adverse change thenbusiness assets operations condition holdings subsidiariesntaken wholenn nnsection</t>
+  </si>
+  <si>
+    <t>Properties. n n   n n87 n n   n n   n n   n n      n n   n n   n n   n n a Each of Holdings and its Subsidiaries has good title to, or valid leasehold nor other property interests in, all its real and personal property material to nthe business of Holdings and its Subsidiaries  taken as a whole , except for nLiens permitted under Section 6.02 and minor defects in title and leases being ncontested, in each case, that do not materially interfere with its ability to nconduct its business as currently conducted or to utilize such properties for ntheir intended purposes. n n   n n b Each of Holdings and its Subsidiaries owns, or is licensed to use, all ntrademarks, tradenames, copyrights, patents and other intellectual property nmaterial to its business, and the use thereof by Holdings and its Subsidiaries ndoes not infringe upon the rights of any other Person, except for any defects nin ownership or licenses and any such infringements that, individually or in nthe aggregate, would not result in a Material Adverse Effect. n n   n nSECTION 3.06.</t>
+  </si>
+  <si>
+    <t>propertiesnn nnnn nn nn nn nn nn nn nnaeach holdings subsidiaries good title valid leaseholdnor property interests real personal property material tonthe business holdings subsidiaries taken whole except fornliens permitted section minor defects title leases beingncontested case materially interfere ability tonconduct business currently conducted utilize properties forntheir intended purposesnn nnbeach holdings subsidiaries owns licensed use allntrademarks tradenames copyrights patents intellectual propertynmaterial business use thereof holdings subsidiariesndoes infringe upon rights person except defectsnin ownership licenses infringements individually innthe aggregate would result material adverse effectnn nnsection</t>
+  </si>
+  <si>
+    <t>Litigation and Environmental Matters. n n   n n a There are no actions, suits or proceedings by or before any arbitrator or nGovernmental Authority pending against or, to the actual knowledge of nHoldings, the Parent Borrower or Purchasing, threatened in writing against or naffecting Holdings or any of its Subsidiaries  i  as to which there is a nreasonable possibility of an adverse determination and that, if adversely ndetermined, would, individually or in the aggregate, result in a Material nAdverse Effect  other than the Disclosed Matters  or  ii  that involve any of nthe Loan Documents or the Transactions  other than as disclosed in Schedule n3.06B . n n   n n b Except for the Disclosed Matters and except with respect to any other nmatters that, individually or in the aggregate, would not result in a Material nAdverse Effect, neither Holdings nor any of its Subsidiaries  i  has failed to ncomply with any Environmental Law or to obtain, maintain or comply with any npermit, license or other approval required under any Environmental Law,  ii  nhas become subject to any Environmental Liability,  iii  has received notice nof any claim with respect to any Environmental Liability or  iv  knows of any nbasis for any Environmental Liability. n n   n n c Since the Closing Date, there has been no change in the status of the nDisclosed Matters that, individually or in the aggregate, has resulted in, or nmaterially increased the likelihood of, a Material Adverse Effect. n n   n nSECTION 3.07.</t>
+  </si>
+  <si>
+    <t>litigation environmental mattersnn nnathere actions suits proceedings arbitrator orngovernmental authority pending actual knowledge ofnholdings parent borrower purchasing threatened writing ornaffecting holdings subsidiaries anreasonable possibility adverse determination adverselyndetermined would individually aggregate result materialnadverse effect disclosed matters ii involve ofnthe loan documents transactions disclosed schedulenbnn nnbexcept disclosed matters except respect othernmatters individually aggregate would result materialnadverse effect neither holdings subsidiaries failed toncomply environmental law obtain maintain comply anynpermit license approval required environmental law iinhas become subject environmental liability iii received noticenof claim respect environmental liability iv knows anynbasis environmental liabilitynn nncsince closing date change status thendisclosed matters individually aggregate resulted ornmaterially increased likelihood material adverse effectnn nnsection</t>
+  </si>
+  <si>
+    <t>Compliance with Laws and Agreements. n n   n n a Each of Holdings and its Subsidiaries is in compliance with all laws, nregulations and orders of any Governmental Authority applicable to it or its nproperty and all indentures, material agreements and other material ninstruments binding upon it or its property, except where the failure to do nso, individually or in the aggregate, would not result in a Material Adverse nEffect.</t>
+  </si>
+  <si>
+    <t>compliance laws agreementsnn nnaeach holdings subsidiaries compliance lawsnregulations orders governmental authority applicable itsnproperty indentures material agreements materialninstruments binding upon property except failure donso individually aggregate would result material adverseneffect</t>
+  </si>
+  <si>
+    <t>Each of Holdings and its Subsidiaries has timely filed or ncaused to be filed all Tax returns and reports required to have been filed and nhas paid or caused to be paid all Taxes shown to be due and payable on such nreturns, except  a  Taxes that are being contested in good faith by nappropriate proceedings and for which Holdings or such Subsidiary, as napplicable, has set aside on its books adequate reserves or  b  to the extent nthat the failure to do so would not result in a Material Adverse Effect. n n   n nSECTION 3.10.</t>
+  </si>
+  <si>
+    <t>each holdings subsidiaries timely filed orncaused filed tax returns reports required filed andnhas paid caused paid taxes shown due payable suchnreturns except taxes contested good faith bynappropriate proceedings holdings subsidiary asnapplicable set aside books adequate reserves b extentnthat failure would result material adverse effectnn nnsection</t>
+  </si>
+  <si>
+    <t>ERISA. n n   n n a No ERISA Event has occurred or is reasonably expected to occur that, when ntaken together with all other such ERISA Events for which liability is nreasonably expected to occur, would result in a Material Adverse Effect. n n   n n b There has been no change in the funding status of any Plan since the last nannual actuarial valuation date that would reasonably be expected to have a nMaterial Adverse Effect. n n   n nSECTION 3.11.</t>
+  </si>
+  <si>
+    <t>erisann nnano erisa event occurred reasonably expected occur whenntaken together erisa events liability isnreasonably expected occur would result material adverse effectnn nnbthere change funding status plan since lastnannual actuarial valuation date would reasonably expected anmaterial adverse effectnn nnsection</t>
+  </si>
+  <si>
+    <t>Material Subsidiaries.</t>
+  </si>
+  <si>
+    <t>material subsidiaries</t>
+  </si>
+  <si>
+    <t>Notices of Material Events.</t>
+  </si>
+  <si>
+    <t>notices material events</t>
+  </si>
+  <si>
+    <t>The Parent Borrower will furnish to nthe Administrative Agent and Term Agent for distribution to each Lender prompt nwritten notice after any Financial Officer or other executive officer obtains nknowledge of any of the following: n n   n n a the occurrence of any Default; n n   n n b the filing or commencement of any action, suit or proceeding by or before nany arbitrator or Governmental Authority against or affecting Holdings, the nParent Borrower or any Subsidiary thereof that, if adversely determined, would nreasonably be expected to result in a Material Adverse Effect  other than any nDisclosed Matters ; n n   n n c the occurrence of any ERISA Event that, alone or together with any other nERISA Events that have occurred, would result in liability of Holdings and its nSubsidiaries in an aggregate amount exceeding  100,000,000; n n d any Lien  other than Liens permitted under Section 6.02 a ,  b  or  m   or nclaim made or asserted against any of the Collateral in an amount or securing nan amount in excess of  30,000,000; n n   n n95 n n   n n   n n   n n      n n   n n   n n   n n e any loss, damage, or destruction to, or any condemnation or other taking by na Governmental Authority of, all or any portion of the Collateral, whether or nnot covered by insurance, having an aggregate fair market value in excess of n 30,000,000; n n   n n f any default notice received under or with respect to any leased location or npublic warehouse where Collateral with a fair market value in excess of n 50,000,000 is located and that is material to the conduct of the business of nHoldings and its Subsidiaries taken as a whole  which shall be delivered nwithin 5 Business Days after receipt thereof ; and n n   n n g any other development that results in, or would reasonably be expected to nresult in, a Material Adverse Effect. n n   n nEach notice delivered under this Section shall be accompanied by a statement nof a Financial Officer or other executive officer of the Parent Borrower nsetting forth the details of the event or development requiring such notice nand any action taken or proposed to be taken with respect thereto. n nSECTION 5.03.</t>
+  </si>
+  <si>
+    <t>the parent borrower furnish tonthe administrative agent term agent distribution lender promptnwritten notice financial officer executive officer obtainsnknowledge followingnn nnathe occurrence defaultnn nnbthe filing commencement action suit proceeding beforenany arbitrator governmental authority affecting holdings thenparent borrower subsidiary thereof adversely determined wouldnreasonably expected result material adverse effect anyndisclosed mattersnn nncthe occurrence erisa event alone together othernerisa events occurred would result liability holdings itsnsubsidiaries aggregate amount exceeding nndany lien liens permitted section b ornclaim made asserted collateral amount securingnan amount excess nn nnnn nn nn nn nn nn nn nneany loss damage destruction condemnation taking byna governmental authority portion collateral whether ornnot covered insurance aggregate fair market value excess ofnnn nnfany default notice received respect leased location ornpublic warehouse collateral fair market value excess ofn located material conduct business ofnholdings subsidiaries taken whole shall deliverednwithin business days receipt thereof andnn nngany development results would reasonably expected tonresult material adverse effectnn nneach notice delivered section shall accompanied statementnof financial officer executive officer parent borrowernsetting forth details event development requiring noticenand action taken proposed taken respect theretonnsection</t>
+  </si>
+  <si>
+    <t>Each of Holdings and the Parent nBorrower will, and will cause each of its Material Subsidiaries to,  a  do or ncause to be done all things necessary to preserve, renew and keep in full nforce and effect its legal existence and  b  except as would not reasonably be nexpected to have a Material Adverse Effect, take all reasonable action to npreserve, renew and keep in full force and effect its rights, licenses, npermits, privileges and franchises; provided that the foregoing shall not nprohibit any merger, consolidation, liquidation, transfer of assets or ndissolution permitted under Section 6.03 and, in the case of an asset ntransfer, Section 6.05. n n   n nSECTION 5.05.</t>
+  </si>
+  <si>
+    <t>each holdings parentnborrower cause material subsidiaries orncause done things necessary preserve renew keep fullnforce effect legal existence b except would reasonably benexpected material adverse effect take reasonable action tonpreserve renew keep full force effect rights licensesnpermits privileges franchises provided foregoing shall notnprohibit merger consolidation liquidation transfer assets orndissolution permitted section case assetntransfer section nn nnsection</t>
+  </si>
+  <si>
+    <t>Each of Holdings and the Parent Borrower nwill, and will cause each of its Subsidiaries to, comply with all laws, rules, nregulations and orders of any Governmental Authority applicable to it or its nproperty, except where the failure to do so, individually or in the aggregate, nwould not result in a Material Adverse Effect. n n   n nSECTION 5.10.</t>
+  </si>
+  <si>
+    <t>each holdings parent borrowernwill cause subsidiaries comply laws rulesnregulations orders governmental authority applicable itsnproperty except failure individually aggregatenwould result material adverse effectnn nnsection</t>
+  </si>
+  <si>
+    <t>Except for the Disclosed Matters and except nwith respect to any matters that, individually or in the aggregate, would not nresult in a Material Adverse Effect, each of Holdings and the Parent Borrower nwill, and will cause each of its Subsidiaries to,  a  conduct its operations nand keep and maintain its real property in material compliance with all nEnvironmental Laws; and  b  obtain and renew all environmental permits nnecessary for its operations and properties. n n   n nSECTION 5.18.</t>
+  </si>
+  <si>
+    <t>except disclosed matters exceptnwith respect matters individually aggregate would notnresult material adverse effect holdings parent borrowernwill cause subsidiaries conduct operationsnand keep maintain real property material compliance allnenvironmental laws b obtain renew environmental permitsnnecessary operations propertiesnn nnsection</t>
+  </si>
+  <si>
+    <t>Amendments of Material Documents.</t>
+  </si>
+  <si>
+    <t>amendments material documents</t>
+  </si>
+  <si>
+    <t>The rights and remedies of the Administrative Agent, the nTerm Agent, the Co-Collateral Agents, each Issuing Bank and the Lenders nhereunder and under the other Loan Documents are cumulative and are not nexclusive of any rights or remedies that they would otherwise have.</t>
+  </si>
+  <si>
+    <t>the rights remedies administrative agent thenterm agent cocollateral agents issuing bank lendersnhereunder loan documents cumulative notnexclusive rights remedies would otherwise</t>
+  </si>
+  <si>
+    <t>Binding Effect; Several Agreement n...................................................................17 n nSECTION 6.05.</t>
+  </si>
+  <si>
+    <t>binding effect several agreementnnnsection</t>
+  </si>
+  <si>
+    <t>The rights and remedies of the nAdministrative Agent, the other Agents, the Issuing Banks and the Lenders nhereunder and under the other Loan Documents are cumulative and are not nexclusive of any rights or remedies that they would otherwise have.</t>
+  </si>
+  <si>
+    <t>the rights remedies thenadministrative agent agents issuing banks lendersnhereunder loan documents cumulative notnexclusive rights remedies would otherwise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,35 +207,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -466,12 +514,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -485,8 +539,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>141</v>
+      <c r="A2" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -495,192 +549,332 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>182</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>198</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>199</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>217</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>221</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>226</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>242</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>250</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>696</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>698</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>710</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>853</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/classification_results.xlsx
+++ b/classification_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>label</t>
   </si>
@@ -26,151 +26,193 @@
     <t>clean</t>
   </si>
   <si>
-    <t>MAC_definition</t>
-  </si>
-  <si>
-    <t>Defined nTerms......................................................................................................................1 n nSECTION 1.02    Classification of Loans and nBorrowings............................................................................49 n nSECTION 1.03    Terms nGenerally.................................................................................................................49 n nSECTION 1.04    Accounting Terms; nGAAP.................................................................................................49 n nARTICLE II n nThe Credits 50 n nSECTION 2.01 nCommitments.....................................................................................................................50 n nSECTION 2.02    Loans and nBorrowings.......................................................................................................50 n nSECTION 2.03    Requests for nBorrowings....................................................................................................51 n nSECTION 2.04    Swingline Loans; Protective nAdvances..............................................................................52 n nSECTION 2.05    Letters of nCredit.................................................................................................................54 n nSECTION 2.06    Funding of nBorrowings......................................................................................................60 n nSECTION 2.07    Interest nElections................................................................................................................61 n nSECTION 2.08    Termination and Reduction of Revolving nCommitments..................................................62 n nSECTION 2.09    Repayment of Loans; Evidence of nDebt............................................................................63 n nSECTION 2.10    Optional and Mandatory Prepayment of Revolving Loans and Term nLoans....................65 n nSECTION 2.11 nFees....................................................................................................................................67 n nSECTION 2.12 nInterest................................................................................................................................68 n nSECTION 2.13    Alternate Rate of nInterest...................................................................................................69 n nSECTION 2.14    Increased nCosts...................................................................................................................69 n nSECTION 2.15    Break Funding nPayments...................................................................................................71 n nSECTION 2.16 nTaxes..................................................................................................................................71 n nSECTION 2.17    Payments Generally; Pro Rata Treatment; Sharing of Set- noffs.........................................74 n nSECTION 2.18    Mitigation Obligations; Replacement of nLenders.............................................................77 n nSECTION 2.19    Settlement Among nLenders...............................................................................................80 n nSECTION 2.20    Borrowing nSubsidiaries.....................................................................................................80 n nSECTION 2.21    Defaulting nLenders............................................................................................................81 n nSECTION 2.22    Increase in Commitments and Additional Term nLoans.....................................................83 n nSECTION 2.23    Extension of Maturity nDate...............................................................................................85 n nARTICLE III n nRepresentations and Warranties 86 n n   n n   n n   n n   n ni n n   n n      n n   n n   n nSECTION 3.01    Organization; nPowers.........................................................................................................87 n nSECTION 3.02    Authorization; nEnforceability.............................................................................................87 n nSECTION 3.03    Governmental Approvals; No Conflicts n..........................................................................87 n nSECTION 3.04    Financial Condition; No Material Adverse nChange...........................................................87 n nSECTION 3.05 nProperties...........................................................................................................................87 n nSECTION 3.06    Litigation and Environmental nMatters...............................................................................88 n nSECTION 3.07    Compliance with Laws and nAgreements...........................................................................88 n nSECTION 3.08    Investment Company nStatus..............................................................................................89 n nSECTION 3.09 nTaxes..................................................................................................................................89 n nSECTION 3.10 nERISA................................................................................................................................89 n nSECTION 3.11 nDisclosure..........................................................................................................................89 n nSECTION 3.12    Material nSubsidiaries.........................................................................................................89 n nSECTION 3.13 nSolvency............................................................................................................................90 n nARTICLE IV n nConditions 90 n n   n nSECTION 4.01    Conditions to Initial Loans and Letters of Credit n.............................................................90 n nSECTION 4.02    Each Credit nEvent..............................................................................................................92 n nSECTION 4.03    Borrowing Subsidiaries n....................................................................................................92 n nARTICLE V n nAffirmative Covenants 93 n n   n nSECTION 5.01    Financial Statements; Borrowing Base, Ratings Change and Other nInformation..............93 n nSECTION 5.02    Notices of Material nEvents.................................................................................................95 n nSECTION 5.03    Information Regarding nCollateral......................................................................................96 n nSECTION 5.04    Existence; Conduct of nBusiness.........................................................................................96 n nSECTION 5.05    Payment of nObligations......................................................................................................96 n nSECTION 5.06    Maintenance of nProperties..................................................................................................97 n nSECTION 5.07 nInsurance.............................................................................................................................97 n nSECTION 5.08    Books and Records; Inspection nRights...............................................................................97 n nSECTION 5.09    Compliance with nLaws.......................................................................................................98 n nSECTION 5.10    Use of Proceeds and Letters of nCredit................................................................................98 n nSECTION 5.11    Additional Guarantee nParties.............................................................................................98 n nSECTION 5.12    Further nAssurances.............................................................................................................98 n nSECTION 5.13    Maintenance of Ratings n....................................................................................................98 n nSECTION 5.14 nAppraisals..........................................................................................................................98 n nSECTION 5.15    Field nExaminations............................................................................................................99 n nSECTION 5.16    Cash Management; Control nAgreements...........................................................................99 n nSECTION 5.17    Environmental nLaws........................................................................................................102 n n   n n   n n      n n   n n   n n   n nSECTION 5.18    Lender nMeetings...............................................................................................................102 n nARTICLE VI n nNegative Covenants 102 n nSECTION 6.01 nIndebtedness.....................................................................................................................102 n nSECTION 6.02 nLiens.................................................................................................................................105 n nSECTION 6.03    Fundamental nChanges......................................................................................................106 n nSECTION 6.04    Investments, Loans, Advances, Guarantees and nAcquisitions.........................................107 n nSECTION 6.05    Asset nSales.......................................................................................................................109 n nSECTION 6.06    Sale and Leaseback nTransactions.....................................................................................111 n nSECTION 6.07    Restricted nPayments.........................................................................................................111 n nSECTION 6.08    Restrictive nAgreements....................................................................................................112 n nSECTION 6.09    Transactions with nAffiliates.............................................................................................113 n nSECTION 6.10    Amendments of Material nDocuments..............................................................................113 n nSECTION 6.11    Minimum Excess nAvailability..........................................................................................113 n nSECTION 6.12    Restriction on Non-Material nSubsidiaries........................................................................113 n nSECTION 6.13    Certain Payments of nIndebtedness...................................................................................113 n nSECTION 6.14    Net Settlement of Convertible nIndebtedness...................................................................114 n nARTICLE VII n nEvents of Default 114 n n   n nSECTION 7.01    Events of nDefault.............................................................................................................114 n nARTICLE VIII n nThe Administrative Agent; Co-Collateral Agents; Revolving Agent; Term Agent n117 n n   n nSECTION 8.01 nAppointment.....................................................................................................................117 n nSECTION 8.02    Each Agent in Its Individual nCapacity..............................................................................117 n nSECTION 8.03    Reliance by nAgents...........................................................................................................117 n nSECTION 8.04    Delegation of nDuties.........................................................................................................118 n nSECTION 8.05    Exculpatory Provisions n...................................................................................................118 n nSECTION 8.06    Notice of nDefault..............................................................................................................118 n nSECTION 8.07    Non-Reliance on Agents and Other nLenders..........................................................119 n nSECTION 8.08    Reports and Financial nStatements....................................................................................119 n nSECTION 8.09    Indemnification n...............................................................................................................120 n nSECTION 8.10    Successor nAgent...............................................................................................................120 n nSECTION 8.11    Co-Collateral Agent nDeterminations...............................................................................121 n nSECTION 8.12    Co-Documentation Agents and Syndication nAgent.................................................121 n nSECTION 8.13    Intercreditor nAgreement...................................................................................................121 n nSECTION 8.14    Secured Swap Obligations, Secured Treasury Services nObligations, Secured Supply n nChain nObligations...............................................................................................................................................122 n n   n n   n n      n n   n n   n n   n nSECTION 8.15    Administrative Agent May File Proofs of nClaim............................................................122 n nARTICLE IX n nMiscellaneous 123 n nSECTION 9.01 nNotices.............................................................................................................................123 n nSECTION 9.02    Waivers; nAmendments.....................................................................................................123 n nSECTION 9.03    Expenses; Indemnity; Damage nWaiver............................................................................127 n nSECTION 9.04    Successors and nAssigns...................................................................................................130 n nSECTION 9.05 nSurvival............................................................................................................................134 n nSECTION 9.06    Integration; nEffectiveness................................................................................................134 n nSECTION 9.07 nSeverability......................................................................................................................134 n nSECTION 9.08    Right of nSetoff.................................................................................................................134 n nSECTION 9.09    Governing Law; Jurisdiction; Consent to Service of nProcess.........................................135 n nSECTION 9.10    WAIVER OF JURY nTRIAL............................................................................................135 n nSECTION 9.11 nHeadings..........................................................................................................................135 n nSECTION 9.12 nConfidentiality.................................................................................................................135 n nSECTION 9.13    Interest Rate Limitation n..................................................................................................137 n nSECTION 9.14    USA Patriot Act n...............................................................................................................137 n nSECTION 9.15    No Fiduciary nDuty...........................................................................................................137 n nSECTION 9.16 nKeepwell.........................................................................................................................138 n n   n n   n n   n n   n n      n n   n n   n nSCHEDULES: n nSchedule 1.01 -- Existing Debt Documents n nSchedule 2.01      -- Commitments n nSchedule 2.05      -- Issuing Banks and Issuing Bank Sublimits n nSchedule 3.06A -- Disclosed Matters n nSchedule 3.06B -- Excluded Matters n nSchedule 3.12      -- Material Subsidiaries n nSchedule 5.16      -- Control Accounts n nSchedule 6.01      -- Existing Indebtedness n nSchedule 6.02      -- Existing Liens n nSchedule 6.04      -- Existing Investments n nSchedule 6.08      -- Existing Restrictions n nEXHIBITS: n nExhibit A --    Form of Assignment and Assumption n nExhibit B --     Intentionally Omitted.</t>
-  </si>
-  <si>
-    <t>definedntermsnnsection classification loans andnborrowingsnnsection termsngenerally ................................................................... 49 \ n \ nsection 1 . 04 accounting terms ;\ ngaap ................................................................................................. 49 \ n \ narticle ii \ n \ nthe credits 50 \ n \ nsection 2 . 01 \ ncommitments ..................................................................................................................... 50 \ n \ nsection 2 . 02 loans \ nborrowings ....................................................................................................... 50 \ n \ nsection 2 . 03 requests \ nborrowings .................................................................................................... 51 \ n \ nsection 2 . 04 swingline loans ; protective \ nadvances .............................................................................. 52 \ n \ nsection 2 . 05 letters \ ncredit ................................................................................................................. 54 \ n \ nsection 2 . 06 funding \ nborrowings ...................................................................................................... 60 \ n \ nsection 2 . 07 interest \ nelections ................................................................................................................ 61 \ n \ nsection 2 . 08 termination reduction revolving \ ncommitments .................................................. 62 \ n \ nsection 2 . 09 repayment loans ; evidence \ ndebt ............................................................................ 63 \ n \ nsection 2 . 10 optional mandatory prepayment revolving loans term \ nloans .................... 65 \ n \ nsection 2 . 11 \ nfees .................................................................................................................................... 67 \ n \ nsection 2 . 12 \ ninterest ................................................................................................................................ 68 \ n \ nsection 2 . 13 alternate rate \ ninterest ................................................................................................... 69 \ n \ nsection 2 . 14 increased \ ncosts ................................................................................................................... 69 \ n \ nsection 2 . 15 break funding \ npayments ................................................................................................... 71 \ n \ nsection 2 . 16 \ ntaxes .................................................................................................................................. 71 \ n \ nsection 2 . 17 payments generally ; pro rata treatment ; sharing set -\ noffs ......................................... 74 \ n \ nsection 2 . 18 mitigation obligations ; replacement \ nlenders ............................................................. 77 \ n \ nsection 2 . 19 settlement among \ nlenders ............................................................................................... 80 \ n \ nsection 2 . 20 borrowing \ nsubsidiaries ..................................................................................................... 80 \ n \ nsection 2 . 21 defaulting \ nlenders ............................................................................................................ 81 \ n \ nsection 2 . 22 increase commitments additional term \ nloans ..................................................... 83 \ n \ nsection 2 . 23 extension maturity \ ndate ............................................................................................... 85 \ n \ narticle iii \ n \ nrepresentations warranties 86 \ n \ n \ n \ n \ n \ n \ n \ n \ n \ ni \ n \ n \ n \ n * * *\ n \ n \ n \ n \ n \ nsection 3 . 01 organization ;\ npowers ......................................................................................................... 87 \ n \ nsection 3 . 02 authorization ;\ nenforceability ............................................................................................. 87 \ n \ nsection 3 . 03 governmental approvals ; no conflicts \ n .......................................................................... 87 \ n \ nsection 3 . 04 financial condition ; no material adverse \ nchange ........................................................... 87 \ n \ nsection 3 . 05 \ nproperties ........................................................................................................................... 87 \ n \ nsection 3 . 06 litigation environmental \ nmatters ............................................................................... 88 \ n \ nsection 3 . 07 compliance laws \ nagreements ........................................................................... 88 \ n \ nsection 3 . 08 investment company \ nstatus .............................................................................................. 89 \ n \ nsection 3 . 09 \ ntaxes .................................................................................................................................. 89 \ n \ nsection 3 . 10 \ nerisa ................................................................................................................................ 89 \ n \ nsection 3 . 11 \ ndisclosure .......................................................................................................................... 89 \ n \ nsection 3 . 12 material \ nsubsidiaries ......................................................................................................... 89 \ n \ nsection 3 . 13 \ nsolvency ............................................................................................................................ 90 \ n \ narticle iv \ n \ nconditions 90 \ n \ n \ n \ nsection 4 . 01 conditions initial loans letters credit \ n ............................................................. 90 \ n \ nsection 4 . 02 each credit \ nevent .............................................................................................................. 92 \ n \ nsection 4 . 03 borrowing subsidiaries \ n .................................................................................................... 92 \ n \ narticle v \ n \ naffirmative covenants 93 \ n \ n \ n \ nsection 5 . 01 financial statements ; borrowing base , ratings change other \ ninformation .............. 93 \ n \ nsection 5 . 02 notices material \ nevents ................................................................................................. 95 \ n \ nsection 5 . 03 information regarding \ ncollateral ...................................................................................... 96 \ n \ nsection 5 . 04 existence ; conduct \ nbusiness ......................................................................................... 96 \ n \ nsection 5 . 05 payment \ nobligations ...................................................................................................... 96 \ n \ nsection 5 . 06 maintenance \ nproperties .................................................................................................. 97 \ n \ nsection 5 . 07 \ ninsurance ............................................................................................................................. 97 \ n \ nsection 5 . 08 books records ; inspection \ nrights ............................................................................... 97 \ n \ nsection 5 . 09 compliance \ nlaws ....................................................................................................... 98 \ n \ nsection 5 . 10 use proceeds letters \ ncredit ................................................................................ 98 \ n \ nsection 5 . 11 additional guarantee \ nparties ............................................................................................. 98 \ n \ nsection 5 . 12 further \ nassurances ............................................................................................................. 98 \ n \ nsection 5 . 13 maintenance ratings \ n .................................................................................................... 98 \ n \ nsection 5 . 14 \ nappraisals .......................................................................................................................... 98 \ n \ nsection 5 . 15 field \ nexaminations ............................................................................................................ 99 \ n \ nsection 5 . 16 cash management ; control \ nagreements ........................................................................... 99 \ n \ nsection 5 . 17 environmental \ nlaws ........................................................................................................ 102 \ n \ n \ n \ n \ n \ n * * *\ n \ n \ n \ n \ n \ n \ n \ nsection 5 . 18 lender \ nmeetings ............................................................................................................... 102 \ n \ narticle vi \ n \ nnegative covenants 102 \ n \ nsection 6 . 01 \ nindebtedness ..................................................................................................................... 102 \ n \ nsection 6 . 02 \ nliens ................................................................................................................................. 105 \ n \ nsection 6 . 03 fundamental \ nchanges ...................................................................................................... 106 \ n \ nsection 6 . 04 investments , loans , advances , guarantees \ nacquisitions ......................................... 107 \ n \ nsection 6 . 05 asset \ nsales ....................................................................................................................... 109 \ n \ nsection 6 . 06 sale leaseback \ ntransactions ..................................................................................... 111 \ n \ nsection 6 . 07 restricted \ npayments ......................................................................................................... 111 \ n \ nsection 6 . 08 restrictive \ nagreements .................................................................................................... 112 \ n \ nsection 6 . 09 transactions \ naffiliates ............................................................................................. 113 \ n \ nsection 6 . 10 amendments material \ ndocuments .............................................................................. 113 \ n \ nsection 6 . 11 minimum excess \ navailability .......................................................................................... 113 \ n \ nsection 6 . 12 restriction non - material \ nsubsidiaries ........................................................................ 113 \ n \ nsection 6 . 13 certain payments \ nindebtedness ................................................................................... 113 \ n \ nsection 6 . 14 net settlement convertible \ nindebtedness ................................................................... 114 \ n \ narticle vii \ n \ nevents default 114 \ n \ n \ n \ nsection 7 . 01 events \ ndefault ............................................................................................................. 114 \ n \ narticle viii \ n \ nthe administrative agent ; co - collateral agents ; revolving agent ; term agent \ n117 \ n \ n \ n \ nsection 8 . 01 \ nappointment ..................................................................................................................... 117 \ n \ nsection 8 . 02 each agent its individual \ ncapacity .............................................................................. 117 \ n \ nsection 8 . 03 reliance \ nagents ........................................................................................................... 117 \ n \ nsection 8 . 04 delegation \ nduties ......................................................................................................... 118 \ n \ nsection 8 . 05 exculpatory provisions \ n ................................................................................................... 118 \ n \ nsection 8 . 06 notice \ ndefault .............................................................................................................. 118 \ n \ nsection 8 . 07 non - reliance agents other \ nlenders .......................................................... 119 \ n \ nsection 8 . 08 reports financial \ nstatements .................................................................................... 119 \ n \ nsection 8 . 09 indemnification \ n ............................................................................................................... 120 \ n \ nsection 8 . 10 successor \ nagent ............................................................................................................... 120 \ n \ nsection 8 . 11 co - collateral agent \ ndeterminations ............................................................................... 121 \ n \ nsection 8 . 12 co - documentation agents syndication \ nagent ................................................. 121 \ n \ nsection 8 . 13 intercreditor \ nagreement ................................................................................................... 121 \ n \ nsection 8 . 14 secured swap obligations , secured treasury services \ nobligations , secured supply \ n \ nchain \ nobligations ............................................................................................................................................... 122 \ n \ n \ n \ n \ n \ n * * *\ n \ n \ n \ n \ n \ n \ n \ nsection 8 . 15 administrative agent may file proofs \ nclaim ............................................................ 122 \ n \ narticle ix \ n \ nmiscellaneous 123 \ n \ nsection 9 . 01 \ nnotices ............................................................................................................................. 123 \ n \ nsection 9 . 02 waivers ;\ namendments ..................................................................................................... 123 \ n \ nsection 9 . 03 expenses ; indemnity ; damage \ nwaiver ............................................................................ 127 \ n \ nsection 9 . 04 successors \ nassigns ................................................................................................... 130 \ n \ nsection 9 . 05 \ nsurvival ............................................................................................................................ 134 \ n \ nsection 9 . 06 integration ;\ neffectiveness ................................................................................................ 134 \ n \ nsection 9 . 07 \ nseverability ...................................................................................................................... 134 \ n \ nsection 9 . 08 right \ nsetoff ................................................................................................................. 134 \ n \ nsection 9 . 09 governing law ; jurisdiction ; consent service \ nprocess ......................................... 135 \ n \ nsection 9 . 10 waiver of jury \ ntrial ............................................................................................ 135 \ n \ nsection 9 . 11 \ nheadings .......................................................................................................................... 135 \ n \ nsection 9 . 12 \ nconfidentiality ................................................................................................................. 135 \ n \ nsection 9 . 13 interest rate limitation \ n .................................................................................................. 137 \ n \ nsection 9 . 14 usa patriot act \ n ............................................................................................................... 137 \ n \ nsection 9 . 15 no fiduciary \ nduty ........................................................................................................... 137 \ n \ nsection 9 . 16 \ nkeepwell ......................................................................................................................... 138 \ n \ n \ n \ n \ n \ n \ n \ n \ n \ n * * *\ n \ n \ n \ n \ n \ nschedules :\ n \ nschedule 1 . 01 -- existing debt documents \ n \ nschedule 2 . 01 \\-- commitments \ n \ nschedule 2 . 05 \\-- issuing banks issuing bank sublimits \ n \ nschedule 3 . 06a -- disclosed matters \ n \ nschedule 3 . 06b -- excluded matters \ n \ nschedule 3 . 12 \\-- material subsidiaries \ n \ nschedule 5 . 16 \\-- control accounts \ n \ nschedule 6 . 01 \\-- existing indebtedness \ n \ nschedule 6 . 02 \\-- existing liens \ n \ nschedule 6 . 04 \\-- existing investments \ n \ nschedule 6 . 08 \\-- existing restrictions \ n \ nexhibits :\ n \ nexhibit a -- form assignment assumption \ n \ nexhibit b -- [ intentionally omitted .</t>
-  </si>
-  <si>
-    <t>Notwithstanding nanything to the contrary contained herein, the  xe2 x80 x9cLoan Document Obligations xe2 x80 x9d nshall not include any Excluded Swap Obligations. n n xe2 x80 x9cLoan Documents xe2 x80 x9d means this Agreement, the Collateral Agreement, the other nSecurity Documents and, solely for purposes of Section 9.02, the Intercreditor nAgreement. n n xe2 x80 x9cLoan Parties xe2 x80 x9d means Holdings, the Parent Borrower, the Borrowing nSubsidiaries, Purchasing, the Additional Grantors and each Material Subsidiary nthat is a Guarantee Party. n n xe2 x80 x9cLong-Term Indebtedness xe2 x80 x9d means any Indebtedness that, in accordance with GAAP, nconstitutes  or, when incurred, constituted  a long-term liability. n n xe2 x80 x9cMaterial Adverse Effect xe2 x80 x9d means  a  a materially adverse effect on the nbusiness, assets, operations or condition of Holdings and its Subsidiaries, ntaken as a whole,  b  a material impairment of the ability of the Loan Parties nto perform their payment obligations under the Loan Documents or  c  a nmaterial impairment of the rights of or benefits available to the Lenders or nthe Administrative Agent under any Loan Document  other than any such nimpairment of rights or benefits that is primarily attributable to  i  action ntaken by one or more Lenders or the Administrative Agent  excluding any action n n   n n29 n n   n n   n n   n n      n n   n n   n nagainst one or more Lenders or the Administrative Agent taken by Holdings, the nParent Borrower, any Borrowing Subsidiary, any Account Party, their nsubsidiaries or their affiliates  or  ii  circumstances that are unrelated to nHoldings, the Parent Borrower, any Borrowing Subsidiary, any Account Party, ntheir Subsidiaries or their Affiliates . n n xe2 x80 x9cMaterial Indebtedness xe2 x80 x9d means Indebtedness  other than the Loans and Letters nof Credit , or obligations in respect of one or more Swap Agreements, of any none or more of Holdings and its Subsidiaries in an aggregate principal amount nexceeding  100,000,000.</t>
-  </si>
-  <si>
-    <t>notwithstandingnanything contrary contained herein xexxcloan document obligationsxexxdnshall include excluded swap obligationsnnxexxcloan documentsxexxd means agreement collateral agreement othernsecurity documents solely purposes section intercreditornagreementnnxexxcloan partiesxexxd means holdings parent borrower borrowingnsubsidiaries purchasing additional grantors material subsidiarynthat guarantee partynnxexxclongterm indebtednessxexxd means indebtedness accordance gaapnconstitutes incurred constituted longterm liabilitynnxexxcmaterial adverse effectxexxd means materially adverse effect thenbusiness assets operations condition holdings subsidiariesntaken whole b material impairment ability loan partiesnto perform payment obligations loan documents c anmaterial impairment rights benefits available lenders ornthe administrative agent loan document suchnimpairment rights benefits primarily attributable actionntaken one lenders administrative agent excluding actionnn nnnn nn nn nn nn nn nnagainst one lenders administrative agent taken holdings thenparent borrower borrowing subsidiary account party theirnsubsidiaries affiliates ii circumstances unrelated tonholdings parent borrower borrowing subsidiary account partyntheir subsidiaries affiliatesnnxexxcmaterial indebtednessxexxd means indebtedness loans lettersnof credit obligations respect one swap agreements anynone holdings subsidiaries aggregate principal amountnexceeding</t>
-  </si>
-  <si>
-    <t>The word n xe2 x80 x9cwill xe2 x80 x9d shall be construed to have the same meaning and effect as the word n xe2 x80 x9cshall xe2 x80 x9d.</t>
-  </si>
-  <si>
-    <t>the wordnxexxcwillxexxd shall construed meaning effect wordnxexxcshallxexxd</t>
-  </si>
-  <si>
-    <t>The eligibility of any Borrowing Subsidiary to borrow nhereunder shall terminate when the Administrative Agent receives a Subsidiary nBorrower Termination with respect to such Material Subsidiary.</t>
-  </si>
-  <si>
-    <t>the eligibility borrowing subsidiary borrownhereunder shall terminate administrative agent receives subsidiarynborrower termination respect material subsidiary</t>
-  </si>
-  <si>
-    <t>Each of the Loan Parties is duly norganized, validly existing and in good standing under the laws of the njurisdiction of its organization, has all requisite power and authority to ncarry on its business as now conducted and is qualified to do business in, and nis in good standing in, every jurisdiction where such qualification is nrequired, except, in each case, where the failure to do so, individually or in nthe aggregate, would not result in a Material Adverse Effect. n n   n nSECTION 3.02.</t>
-  </si>
-  <si>
-    <t>each loan parties dulynorganized validly existing good standing laws thenjurisdiction organization requisite power authority toncarry business conducted qualified business andnis good standing every jurisdiction qualification isnrequired except case failure individually innthe aggregate would result material adverse effectnn nnsection</t>
-  </si>
-  <si>
-    <t>Authorization; Enforceability.</t>
-  </si>
-  <si>
-    <t>authorization enforceability</t>
-  </si>
-  <si>
-    <t>The Transactions  a  do nnot require any consent or approval of, registration or filing with, or any nother action by, any Governmental Authority, except  i  such as have been nobtained or made and are in full force and effect or as to which the failure nto be made or obtained and to be in full force and effect would not result in na Material Adverse Effect,  ii  filings necessary to perfect Liens created nunder the Collateral Agreement and  iii  filings of periodic reports with the nSecurities and Exchange Commission,  b  will not violate any law or regulation nor the charter, by-laws or other organizational documents of Holdings or any nSubsidiary or any material order of any Governmental Authority applicable to nsuch Person except, in each case, as would not reasonably be expected to have na Material Adverse Effect,  c  will not violate or result in a default under nany material provision of any indenture, agreement or other instrument binding nupon Holdings or any of its Subsidiaries or its assets, or give rise to a nright thereunder to require any payment to be made by Holdings or any nSubsidiary, and  d  will not result in the creation or imposition of any Lien non any asset of Holdings or any of its Subsidiaries, except Liens created nunder the Security Documents. n n   n nSECTION 3.04.</t>
-  </si>
-  <si>
-    <t>the transactions donnot require consent approval registration filing anynother action governmental authority except beennobtained made full force effect failurento made obtained full force effect would result inna material adverse effect ii filings necessary perfect liens creatednunder collateral agreement iii filings periodic reports thensecurities exchange commission b violate law regulationnor charter bylaws organizational documents holdings anynsubsidiary material order governmental authority applicable tonsuch person except case would reasonably expected havena material adverse effect c violate result default undernany material provision indenture agreement instrument bindingnupon holdings subsidiaries assets give rise anright thereunder require payment made holdings anynsubsidiary result creation imposition liennon asset holdings subsidiaries except liens creatednunder security documentsnn nnsection</t>
-  </si>
-  <si>
-    <t>Financial Condition; No Material Adverse Change. n n   n n a Holdings has heretofore furnished to the Lenders  i  its consolidated nbalance sheets and statements of operations, stockholders xe2 x80 x99 equity and cash nflows as of and for the fiscal year ended February 1, 2014, reported on by nKPMG LLP, independent public accountants and  ii  its consolidated balance nsheets and statements of operations and cash flows as of and for the fiscal nquarter and the 39 weeks ended May 3, 2014, certified by its chief financial nofficer.</t>
-  </si>
-  <si>
-    <t>financial condition no material adverse changenn nnaholdings heretofore furnished lenders consolidatednbalance sheets statements operations stockholdersxexx equity cashnflows fiscal year ended february reported bynkpmg llp independent public accountants ii consolidated balancensheets statements operations cash flows fiscalnquarter weeks ended may certified chief financialnofficer</t>
-  </si>
-  <si>
-    <t>Such financial statements present fairly, in all material respects, nthe financial position and results of operations and cash flows of Holdings nand its consolidated Subsidiaries as of such dates and for such periods in naccordance with GAAP, subject to normal year end audit adjustments and the nabsence of certain footnotes in the case of the statements referred to in nclause  ii  above. n n   n n b Since February 1, 2014, there has been no material adverse change in the nbusiness, assets, operations or condition of Holdings and its Subsidiaries, ntaken as a whole. n n   n nSECTION 3.05.</t>
-  </si>
-  <si>
-    <t>such financial statements present fairly material respectsnthe financial position results operations cash flows holdingsnand consolidated subsidiaries dates periods innaccordance gaap subject normal year end audit adjustments thenabsence certain footnotes case statements referred innclause ii abovenn nnbsince february material adverse change thenbusiness assets operations condition holdings subsidiariesntaken wholenn nnsection</t>
-  </si>
-  <si>
-    <t>Properties. n n   n n87 n n   n n   n n   n n      n n   n n   n n   n n a Each of Holdings and its Subsidiaries has good title to, or valid leasehold nor other property interests in, all its real and personal property material to nthe business of Holdings and its Subsidiaries  taken as a whole , except for nLiens permitted under Section 6.02 and minor defects in title and leases being ncontested, in each case, that do not materially interfere with its ability to nconduct its business as currently conducted or to utilize such properties for ntheir intended purposes. n n   n n b Each of Holdings and its Subsidiaries owns, or is licensed to use, all ntrademarks, tradenames, copyrights, patents and other intellectual property nmaterial to its business, and the use thereof by Holdings and its Subsidiaries ndoes not infringe upon the rights of any other Person, except for any defects nin ownership or licenses and any such infringements that, individually or in nthe aggregate, would not result in a Material Adverse Effect. n n   n nSECTION 3.06.</t>
-  </si>
-  <si>
-    <t>propertiesnn nnnn nn nn nn nn nn nn nnaeach holdings subsidiaries good title valid leaseholdnor property interests real personal property material tonthe business holdings subsidiaries taken whole except fornliens permitted section minor defects title leases beingncontested case materially interfere ability tonconduct business currently conducted utilize properties forntheir intended purposesnn nnbeach holdings subsidiaries owns licensed use allntrademarks tradenames copyrights patents intellectual propertynmaterial business use thereof holdings subsidiariesndoes infringe upon rights person except defectsnin ownership licenses infringements individually innthe aggregate would result material adverse effectnn nnsection</t>
-  </si>
-  <si>
-    <t>Litigation and Environmental Matters. n n   n n a There are no actions, suits or proceedings by or before any arbitrator or nGovernmental Authority pending against or, to the actual knowledge of nHoldings, the Parent Borrower or Purchasing, threatened in writing against or naffecting Holdings or any of its Subsidiaries  i  as to which there is a nreasonable possibility of an adverse determination and that, if adversely ndetermined, would, individually or in the aggregate, result in a Material nAdverse Effect  other than the Disclosed Matters  or  ii  that involve any of nthe Loan Documents or the Transactions  other than as disclosed in Schedule n3.06B . n n   n n b Except for the Disclosed Matters and except with respect to any other nmatters that, individually or in the aggregate, would not result in a Material nAdverse Effect, neither Holdings nor any of its Subsidiaries  i  has failed to ncomply with any Environmental Law or to obtain, maintain or comply with any npermit, license or other approval required under any Environmental Law,  ii  nhas become subject to any Environmental Liability,  iii  has received notice nof any claim with respect to any Environmental Liability or  iv  knows of any nbasis for any Environmental Liability. n n   n n c Since the Closing Date, there has been no change in the status of the nDisclosed Matters that, individually or in the aggregate, has resulted in, or nmaterially increased the likelihood of, a Material Adverse Effect. n n   n nSECTION 3.07.</t>
-  </si>
-  <si>
-    <t>litigation environmental mattersnn nnathere actions suits proceedings arbitrator orngovernmental authority pending actual knowledge ofnholdings parent borrower purchasing threatened writing ornaffecting holdings subsidiaries anreasonable possibility adverse determination adverselyndetermined would individually aggregate result materialnadverse effect disclosed matters ii involve ofnthe loan documents transactions disclosed schedulenbnn nnbexcept disclosed matters except respect othernmatters individually aggregate would result materialnadverse effect neither holdings subsidiaries failed toncomply environmental law obtain maintain comply anynpermit license approval required environmental law iinhas become subject environmental liability iii received noticenof claim respect environmental liability iv knows anynbasis environmental liabilitynn nncsince closing date change status thendisclosed matters individually aggregate resulted ornmaterially increased likelihood material adverse effectnn nnsection</t>
-  </si>
-  <si>
-    <t>Compliance with Laws and Agreements. n n   n n a Each of Holdings and its Subsidiaries is in compliance with all laws, nregulations and orders of any Governmental Authority applicable to it or its nproperty and all indentures, material agreements and other material ninstruments binding upon it or its property, except where the failure to do nso, individually or in the aggregate, would not result in a Material Adverse nEffect.</t>
-  </si>
-  <si>
-    <t>compliance laws agreementsnn nnaeach holdings subsidiaries compliance lawsnregulations orders governmental authority applicable itsnproperty indentures material agreements materialninstruments binding upon property except failure donso individually aggregate would result material adverseneffect</t>
-  </si>
-  <si>
-    <t>Each of Holdings and its Subsidiaries has timely filed or ncaused to be filed all Tax returns and reports required to have been filed and nhas paid or caused to be paid all Taxes shown to be due and payable on such nreturns, except  a  Taxes that are being contested in good faith by nappropriate proceedings and for which Holdings or such Subsidiary, as napplicable, has set aside on its books adequate reserves or  b  to the extent nthat the failure to do so would not result in a Material Adverse Effect. n n   n nSECTION 3.10.</t>
-  </si>
-  <si>
-    <t>each holdings subsidiaries timely filed orncaused filed tax returns reports required filed andnhas paid caused paid taxes shown due payable suchnreturns except taxes contested good faith bynappropriate proceedings holdings subsidiary asnapplicable set aside books adequate reserves b extentnthat failure would result material adverse effectnn nnsection</t>
-  </si>
-  <si>
-    <t>ERISA. n n   n n a No ERISA Event has occurred or is reasonably expected to occur that, when ntaken together with all other such ERISA Events for which liability is nreasonably expected to occur, would result in a Material Adverse Effect. n n   n n b There has been no change in the funding status of any Plan since the last nannual actuarial valuation date that would reasonably be expected to have a nMaterial Adverse Effect. n n   n nSECTION 3.11.</t>
-  </si>
-  <si>
-    <t>erisann nnano erisa event occurred reasonably expected occur whenntaken together erisa events liability isnreasonably expected occur would result material adverse effectnn nnbthere change funding status plan since lastnannual actuarial valuation date would reasonably expected anmaterial adverse effectnn nnsection</t>
-  </si>
-  <si>
-    <t>Material Subsidiaries.</t>
-  </si>
-  <si>
-    <t>material subsidiaries</t>
-  </si>
-  <si>
-    <t>Notices of Material Events.</t>
-  </si>
-  <si>
-    <t>notices material events</t>
-  </si>
-  <si>
-    <t>The Parent Borrower will furnish to nthe Administrative Agent and Term Agent for distribution to each Lender prompt nwritten notice after any Financial Officer or other executive officer obtains nknowledge of any of the following: n n   n n a the occurrence of any Default; n n   n n b the filing or commencement of any action, suit or proceeding by or before nany arbitrator or Governmental Authority against or affecting Holdings, the nParent Borrower or any Subsidiary thereof that, if adversely determined, would nreasonably be expected to result in a Material Adverse Effect  other than any nDisclosed Matters ; n n   n n c the occurrence of any ERISA Event that, alone or together with any other nERISA Events that have occurred, would result in liability of Holdings and its nSubsidiaries in an aggregate amount exceeding  100,000,000; n n d any Lien  other than Liens permitted under Section 6.02 a ,  b  or  m   or nclaim made or asserted against any of the Collateral in an amount or securing nan amount in excess of  30,000,000; n n   n n95 n n   n n   n n   n n      n n   n n   n n   n n e any loss, damage, or destruction to, or any condemnation or other taking by na Governmental Authority of, all or any portion of the Collateral, whether or nnot covered by insurance, having an aggregate fair market value in excess of n 30,000,000; n n   n n f any default notice received under or with respect to any leased location or npublic warehouse where Collateral with a fair market value in excess of n 50,000,000 is located and that is material to the conduct of the business of nHoldings and its Subsidiaries taken as a whole  which shall be delivered nwithin 5 Business Days after receipt thereof ; and n n   n n g any other development that results in, or would reasonably be expected to nresult in, a Material Adverse Effect. n n   n nEach notice delivered under this Section shall be accompanied by a statement nof a Financial Officer or other executive officer of the Parent Borrower nsetting forth the details of the event or development requiring such notice nand any action taken or proposed to be taken with respect thereto. n nSECTION 5.03.</t>
-  </si>
-  <si>
-    <t>the parent borrower furnish tonthe administrative agent term agent distribution lender promptnwritten notice financial officer executive officer obtainsnknowledge followingnn nnathe occurrence defaultnn nnbthe filing commencement action suit proceeding beforenany arbitrator governmental authority affecting holdings thenparent borrower subsidiary thereof adversely determined wouldnreasonably expected result material adverse effect anyndisclosed mattersnn nncthe occurrence erisa event alone together othernerisa events occurred would result liability holdings itsnsubsidiaries aggregate amount exceeding nndany lien liens permitted section b ornclaim made asserted collateral amount securingnan amount excess nn nnnn nn nn nn nn nn nn nneany loss damage destruction condemnation taking byna governmental authority portion collateral whether ornnot covered insurance aggregate fair market value excess ofnnn nnfany default notice received respect leased location ornpublic warehouse collateral fair market value excess ofn located material conduct business ofnholdings subsidiaries taken whole shall deliverednwithin business days receipt thereof andnn nngany development results would reasonably expected tonresult material adverse effectnn nneach notice delivered section shall accompanied statementnof financial officer executive officer parent borrowernsetting forth details event development requiring noticenand action taken proposed taken respect theretonnsection</t>
-  </si>
-  <si>
-    <t>Each of Holdings and the Parent nBorrower will, and will cause each of its Material Subsidiaries to,  a  do or ncause to be done all things necessary to preserve, renew and keep in full nforce and effect its legal existence and  b  except as would not reasonably be nexpected to have a Material Adverse Effect, take all reasonable action to npreserve, renew and keep in full force and effect its rights, licenses, npermits, privileges and franchises; provided that the foregoing shall not nprohibit any merger, consolidation, liquidation, transfer of assets or ndissolution permitted under Section 6.03 and, in the case of an asset ntransfer, Section 6.05. n n   n nSECTION 5.05.</t>
-  </si>
-  <si>
-    <t>each holdings parentnborrower cause material subsidiaries orncause done things necessary preserve renew keep fullnforce effect legal existence b except would reasonably benexpected material adverse effect take reasonable action tonpreserve renew keep full force effect rights licensesnpermits privileges franchises provided foregoing shall notnprohibit merger consolidation liquidation transfer assets orndissolution permitted section case assetntransfer section nn nnsection</t>
-  </si>
-  <si>
-    <t>Each of Holdings and the Parent Borrower nwill, and will cause each of its Subsidiaries to, comply with all laws, rules, nregulations and orders of any Governmental Authority applicable to it or its nproperty, except where the failure to do so, individually or in the aggregate, nwould not result in a Material Adverse Effect. n n   n nSECTION 5.10.</t>
-  </si>
-  <si>
-    <t>each holdings parent borrowernwill cause subsidiaries comply laws rulesnregulations orders governmental authority applicable itsnproperty except failure individually aggregatenwould result material adverse effectnn nnsection</t>
-  </si>
-  <si>
-    <t>Except for the Disclosed Matters and except nwith respect to any matters that, individually or in the aggregate, would not nresult in a Material Adverse Effect, each of Holdings and the Parent Borrower nwill, and will cause each of its Subsidiaries to,  a  conduct its operations nand keep and maintain its real property in material compliance with all nEnvironmental Laws; and  b  obtain and renew all environmental permits nnecessary for its operations and properties. n n   n nSECTION 5.18.</t>
-  </si>
-  <si>
-    <t>except disclosed matters exceptnwith respect matters individually aggregate would notnresult material adverse effect holdings parent borrowernwill cause subsidiaries conduct operationsnand keep maintain real property material compliance allnenvironmental laws b obtain renew environmental permitsnnecessary operations propertiesnn nnsection</t>
-  </si>
-  <si>
-    <t>Amendments of Material Documents.</t>
-  </si>
-  <si>
-    <t>amendments material documents</t>
-  </si>
-  <si>
-    <t>The rights and remedies of the Administrative Agent, the nTerm Agent, the Co-Collateral Agents, each Issuing Bank and the Lenders nhereunder and under the other Loan Documents are cumulative and are not nexclusive of any rights or remedies that they would otherwise have.</t>
-  </si>
-  <si>
-    <t>the rights remedies administrative agent thenterm agent cocollateral agents issuing bank lendersnhereunder loan documents cumulative notnexclusive rights remedies would otherwise</t>
-  </si>
-  <si>
-    <t>Binding Effect; Several Agreement n...................................................................17 n nSECTION 6.05.</t>
-  </si>
-  <si>
-    <t>binding effect several agreementnnnsection</t>
-  </si>
-  <si>
-    <t>The rights and remedies of the nAdministrative Agent, the other Agents, the Issuing Banks and the Lenders nhereunder and under the other Loan Documents are cumulative and are not nexclusive of any rights or remedies that they would otherwise have.</t>
-  </si>
-  <si>
-    <t>the rights remedies thenadministrative agent agents issuing banks lendersnhereunder loan documents cumulative notnexclusive rights remedies would otherwise</t>
+    <t>commitment_fee</t>
+  </si>
+  <si>
+    <t>Any change in the Alternate Base nRate due to a change in the Prime Rate, the Federal Funds Effective Rate or nthe Adjusted LIBO Rate shall be effective from and including the effective ndate of such change in the Prime Rate, the Federal Funds Rate or the Adjusted nLIBO Rate, respectively. n n xe2 x80 x9cAmortization Reserve xe2 x80 x9d means, on any date, a Reserve equal to the excess, if nany, of  a  the aggregate amount of all payments of principal in respect of nPermitted First-Lien Indebtedness and Permitted Second-Lien Indebtedness nscheduled to be paid within 90 days after such date over  b   20,000,000. n n xe2 x80 x9cApplicable Commitment Fee Percentage xe2 x80 x9d means 0.375  per annum. n n xe2 x80 x9cApplicable Lending Office xe2 x80 x9d means, for each Issuing Bank or Lender, the office nor branch of such Issuing Bank or Lender  or an affiliate of such Issuing Bank nor Lender  designated in an Administrative Questionnaire delivered by such nIssuing Bank or Lender to the Administrative Agent or such other office or nbranch of such Issuing Bank or Lender as such Issuing Bank or Lender may, from ntime to time, in accordance with the terms of this Agreement, specify to the nAdministrative Agent, the Borrowers and the Account Parties as the office or nbranch by which its Letters of Credit, Loans or Commitments, as applicable, nare to be made and maintained. n n xe2 x80 x9cApplicable Percentage xe2 x80 x9d means, with respect to any Lender, at any time, the nfraction, expressed as a percentage,  a  the numerator of which, in the case nof a Revolving Lender, is the Revolving Commitment of such Revolving Lender nand in the case of a Term Lender, is the then outstanding principal amount of nthe Term Loans owing to such Term Lender and  b  the denominator of which is nthe sum of  i  the Revolving Maximum Credit plus  ii  the aggregate principal namount of the Term Loans then outstanding; provided that when a Defaulting nLender shall exist,  xe2 x80 x9cApplicable Percentage xe2 x80 x9d shall mean such percentage ndisregarding any Defaulting Lender xe2 x80 x99s Revolving Commitment.</t>
+  </si>
+  <si>
+    <t>any change alternate basenrate due change prime rate federal funds effective rate ornthe adjusted libo rate shall effective including effectivendate change prime rate federal funds rate adjustednlibo rate respectivelynnxexxcamortization reservexexxd means date reserve equal excess ifnany aggregate amount payments principal respect ofnpermitted firstlien indebtedness permitted secondlien indebtednessnscheduled paid within days date b nnxexxcapplicable commitment fee percentagexexxd means per annumnnxexxcapplicable lending officexexxd means issuing bank lender officenor branch issuing bank lender affiliate issuing banknor lender designated administrative questionnaire delivered suchnissuing bank lender administrative agent office ornbranch issuing bank lender issuing bank lender may fromntime time accordance terms agreement specify thenadministrative agent borrowers account parties office ornbranch letters credit loans commitments applicablenare made maintainednnxexxcapplicable percentagexexxd means respect lender time thenfraction expressed percentage numerator casenof revolving lender revolving commitment revolving lendernand case term lender outstanding principal amount ofnthe term loans owing term lender b denominator isnthe sum revolving maximum credit plus ii aggregate principalnamount term loans outstanding provided defaultingnlender shall exist xexxcapplicable percentagexexxd shall mean percentagendisregarding defaulting lenderxexxs revolving commitment</t>
+  </si>
+  <si>
+    <t>Notwithstanding anything to the ncontrary herein, it is understood and agreed that any joinder to the Existing nIntercreditor Agreement executed and delivered by the trustee or the ncollateral agent  or equivalent agent or representative  for holders of any nPermitted First-Lien Indebtedness or Permitted Second-Lien Indebtedness nsecured by any real property or Intellectual Property, shall be deemed to nconstitute a  xe2 x80 x9cCollateral Cooperation Agreement xe2 x80 x9d that meets each of the nrequirements of this definition. n n xe2 x80 x9cCommitment xe2 x80 x9d means, with respect to each Revolving Lender, the Revolving nCommitment of such Revolving Lender or with respect to each Term Lender, the nTerm Commitment of such Term Lender, as the case may be. n n xe2 x80 x9cCommitment Letter xe2 x80 x9d means the Commitment Letter, dated as of May 14, 2014, namong the Lead Arrangers, certain of their Affiliates and the Parent Borrower. n n xe2 x80 x9cCommitment Parties xe2 x80 x9d means the Lead Arrangers  each as identified on the cover npage of this Agreement  and their Affiliates that are Lenders. n n xe2 x80 x9cCommodity Exchange Act xe2 x80 x9d means the Commodity Exchange Act  7 U.S.C.</t>
+  </si>
+  <si>
+    <t>notwithstanding anything thencontrary herein understood agreed joinder existingnintercreditor agreement executed delivered trustee thencollateral agent equivalent agent representative holders anynpermitted firstlien indebtedness permitted secondlien indebtednessnsecured real property intellectual property shall deemed tonconstitute xexxccollateral cooperation agreementxexxd meets thenrequirements definitionnnxexxccommitmentxexxd means respect revolving lender revolvingncommitment revolving lender respect term lender thenterm commitment term lender case may bennxexxccommitment letterxexxd means commitment letter dated may namong lead arrangers certain affiliates parent borrowernnxexxccommitment partiesxexxd means lead arrangers identified covernpage agreement affiliates lendersnnxexxccommodity exchange actxexxd means commodity exchange act usc</t>
+  </si>
+  <si>
+    <t>The LC Exposure of any Lender at nany time shall be its Applicable Revolving Percentage of the total LC Exposure nat such time. n n xe2 x80 x9cLender Presentation xe2 x80 x9d means the Lender Presentation dated June 2014 relating nto the Parent Borrower and the Transactions. n n xe2 x80 x9cLenders xe2 x80 x9d means, collectively, the Revolving Lenders and the Term Lenders; nprovided, that, no Disqualified Lender shall be a Lender.</t>
+  </si>
+  <si>
+    <t>the lc exposure lender atnany time shall applicable revolving percentage total lc exposurenat timennxexxclender presentationxexxd means lender presentation dated june relatingnto parent borrower transactionsnnxexxclendersxexxd means collectively revolving lenders term lendersnprovided disqualified lender shall lender</t>
+  </si>
+  <si>
+    <t>For purposes of ncalculating the  xe2 x80 x9cRequired Lenders xe2 x80 x9d, the Revolving Commitments, Revolving nCredit Exposure and Term Loans of any Defaulting Lender shall be deemed to be nzero. n n xe2 x80 x9cRequired Revolving Lenders xe2 x80 x9d means, at any time, those Revolving Lenders who ncollectively hold more than 50  of the aggregate of the Revolving Commitments nof all Revolving Lenders  or if the Revolving Commitment shall have been nterminated, the then outstanding Revolving Credit Exposure ; provided, that, nat any time there are three  3  or more Revolving Lenders,  xe2 x80 x9cRequired Revolving nLenders xe2 x80 x9d must include at least three  3  Revolving Lenders that are not nAffiliates of each other.</t>
+  </si>
+  <si>
+    <t>for purposes ofncalculating xexxcrequired lendersxexxd revolving commitments revolvingncredit exposure term loans defaulting lender shall deemed benzeronnxexxcrequired revolving lendersxexxd means time revolving lenders whoncollectively hold aggregate revolving commitmentsnof revolving lenders revolving commitment shall beennterminated outstanding revolving credit exposure provided thatnat time three revolving lenders xexxcrequired revolvingnlendersxexxd must include least three revolving lenders notnaffiliates</t>
+  </si>
+  <si>
+    <t>The term n xe2 x80 x9c2023 Indenture xe2 x80 x9d means the Indenture, dated as of October 1, 1982 as nsupplemented by the First Supplemental Indenture dated as of March 15, 1983, nthe Second Supplemental Indenture dated as of May 1, 1984, the Third nSupplemental Indenture dated as of March 7, 1986, the Fourth Supplemental nIndenture dated as of June 7, 1991 and the Fifth Supplemental Indenture dated nas of January 27, 2002 between the Parent Borrower and U.S. Bank National nAssociation  successor to Bank of America National Trust and Savings nAssociation , as Trustee.</t>
+  </si>
+  <si>
+    <t>the termnxexxc indenturexexxd means indenture dated october asnsupplemented first supplemental indenture dated march nthe second supplemental indenture dated may thirdnsupplemental indenture dated march fourth supplementalnindenture dated june fifth supplemental indenture datednas january parent borrower us bank nationalnassociation successor bank america national trust savingsnassociation trustee</t>
+  </si>
+  <si>
+    <t>The initial amount of each nRevolving Lender xe2 x80 x99s Commitment is set forth on Schedule 2.01, in an amendment nto this Agreement entered into in connection with a Commitment Increase or in nthe Assignment and Assumption pursuant to which such Lender shall have assumed nits Commitment, as applicable.</t>
+  </si>
+  <si>
+    <t>the initial amount eachnrevolving lenderxexxs commitment set forth schedule amendmentnto agreement entered connection commitment increase innthe assignment assumption pursuant lender shall assumednits commitment applicable</t>
+  </si>
+  <si>
+    <t>The initial aggregate amount of the Revolving nLenders xe2 x80 x99 Commitments on the Closing Date is  1,850,000,000. n n xe2 x80 x9cRevolving Commitment Increase xe2 x80 x9d has the meaning assigned to such term in nSection 2.22. n n xe2 x80 x9cRevolving Credit Exposure xe2 x80 x9d means, with respect to any Revolving Lender at any ntime, the sum of the outstanding principal amount of such Revolving Lender xe2 x80 x99s nRevolving Loans and its LC Exposure and Swingline Exposure at such time plus nan amount equal to its Applicable Revolving Percentage of the aggregate nprincipal amount of Protective Advances outstanding at such time. n n xe2 x80 x9cRevolving Credit Line Cap xe2 x80 x9d as used herein means the lesser of  a  the nRevolving Maximum Credit and  b  the Borrowing Base. n n xe2 x80 x9cRevolving Lenders xe2 x80 x9d means the Persons listed on Schedule 2.01 as a Lender nhaving a Revolving Commitment and any other Person that shall have become a nparty hereto as a Revolving Lender pursuant to an Assignment and Assumption or npursuant to Section 2.22 or 2.23, other than any such Person that ceases to be na party hereto pursuant to an Assignment and Assumption.</t>
+  </si>
+  <si>
+    <t>the initial aggregate amount revolvingnlendersxexx commitments closing date nnxexxcrevolving commitment increasexexxd meaning assigned term innsection nnxexxcrevolving credit exposurexexxd means respect revolving lender anyntime sum outstanding principal amount revolving lenderxexxsnrevolving loans lc exposure swingline exposure time plusnan amount equal applicable revolving percentage aggregatenprincipal amount protective advances outstanding timennxexxcrevolving credit line capxexxd used herein means lesser thenrevolving maximum credit b borrowing basennxexxcrevolving lendersxexxd means persons listed schedule lendernhaving revolving commitment person shall become anparty hereto revolving lender pursuant assignment assumption ornpursuant section person ceases bena party hereto pursuant assignment assumption</t>
+  </si>
+  <si>
+    <t>The initial namount of each Lender xe2 x80 x99s Term Commitment is set forth on Schedule 2.01 or in nthe Assignment and Assumption pursuant to which such Lender shall have assumed nits Term Commitment, as applicable.</t>
+  </si>
+  <si>
+    <t>the initialnamount lenderxexxs term commitment set forth schedule innthe assignment assumption pursuant lender shall assumednits term commitment applicable</t>
+  </si>
+  <si>
+    <t>Commitments. n n   n n a Subject to the terms and conditions set forth herein, each Revolving Lender nseverally agrees to make Revolving Loans to the Borrowers from time to time nduring the Availability Period in an aggregate principal amount that will not nresult in  i  such Lender xe2 x80 x99s Revolving Credit Exposure exceeding such Revolving nLender xe2 x80 x99s Revolving Commitment or  ii  the sum of the total Revolving Credit nExposures exceeding the Revolving Credit Line Cap.</t>
+  </si>
+  <si>
+    <t>commitmentsnn nnasubject terms conditions set forth herein revolving lendernseverally agrees make revolving loans borrowers time timenduring availability period aggregate principal amount notnresult lenderxexxs revolving credit exposure exceeding revolvingnlenderxexxs revolving commitment ii sum total revolving creditnexposures exceeding revolving credit line cap</t>
+  </si>
+  <si>
+    <t>The failure of any Revolving Lender to make nany Revolving Loan required to be made by it shall not relieve any other nRevolving Lender of its obligations hereunder; provided that the Revolving nCommitments of the Revolving Lenders are several and no Revolving Lender shall nbe responsible for any other Lender xe2 x80 x99s failure to make Loans as required.</t>
+  </si>
+  <si>
+    <t>the failure revolving lender makenany revolving loan required made shall relieve othernrevolving lender obligations hereunder provided revolvingncommitments revolving lenders several revolving lender shallnbe responsible lenderxexxs failure make loans required</t>
+  </si>
+  <si>
+    <t>Each Revolving Lender shall ncomply with its obligation under this paragraph by wire transfer of nimmediately available funds, in the same manner as provided in Section 2.06 nwith respect to Revolving Loans made by such Lender  and Section 2.06 shall napply, mutatis mutandis, to the payment obligations of the Lenders , and the nAdministrative Agent shall promptly pay to the applicable Swingline Lender the namounts so received by it from the Revolving Lenders.</t>
+  </si>
+  <si>
+    <t>each revolving lender shallncomply obligation paragraph wire transfer ofnimmediately available funds manner provided section nwith respect revolving loans made lender section shallnapply mutatis mutandis payment obligations lenders thenadministrative agent shall promptly pay applicable swingline lender thenamounts received revolving lenders</t>
+  </si>
+  <si>
+    <t>Each Revolving Lender hereby absolutely and unconditionally agrees, nupon receipt of notice as provided above, to pay to the Administrative Agent nsuch Lender xe2 x80 x99s Applicable Revolving Percentage of such Protective Advances. nEach Revolving Lender acknowledges and agrees that its obligation to acquire nparticipations in Protective Advances pursuant to this paragraph is absolute nand unconditional and shall not be affected by any circumstance whatsoever, nincluding the occurrence and continuance of a Default or reduction or ntermination of the Revolving Commitments, and that each such payment shall be nmade without any offset, abatement, withholding or reduction whatsoever.</t>
+  </si>
+  <si>
+    <t>each revolving lender hereby absolutely unconditionally agreesnupon receipt notice provided pay administrative agentnsuch lenderxexxs applicable revolving percentage protective advancesneach revolving lender acknowledges agrees obligation acquirenparticipations protective advances pursuant paragraph absolutenand unconditional shall affected circumstance whatsoevernincluding occurrence continuance default reduction orntermination revolving commitments payment shall benmade without offset abatement withholding reduction whatsoever</t>
+  </si>
+  <si>
+    <t>If requested by the applicable Issuing nBank, such Account Party also shall submit a letter of credit application on nsuch Issuing Bank xe2 x80 x99s standard form in connection with any request for a Letter nof Credit. n n   n n ii A Letter of Credit shall be issued, amended, renewed or extended only if n and upon issuance, amendment, renewal or extension of each Letter of Credit nthe applicable Account Party shall be deemed to represent and warrant that , nafter giving effect to such issuance, amendment, renewal or extension,  A  the nLC Exposure shall not exceed  750,000,000,  B  the sum of the total Revolving nCredit Exposures shall not exceed the Revolving Credit Line Cap, and  C  after ngiving effect thereto, the LC Exposure of any Issuing Bank shall not exceed nthe amount for such Issuing Bank set forth on Schedule 2.05 except as notherwise agreed by such Issuing Bank with the approval of Administrative nAgent and the Parent Borrower. n n   n n iii Each Issuing Bank shall provide to the LC Agent and the Administrative nAgent not later than 3:00 p.m.  or promptly thereafter, if unable to do so by n3:00 p.m. , New York City time, on the first Business Day of each calendar nweek a report of such Issuing Bank setting forth  A  the aggregate amount of nall Letters of Credit issued by such Issuing Bank that are outstanding as of n3:00 p.m. on the last Business Day of the preceding calendar week,  B  the naverage daily undrawn amount of all Letters of Credit issued by such Issuing nBank for each calendar day during the period since the last calendar day ncovered by the preceding weekly report  or, in the case of the first weekly nreport, during the period from and including the Closing Date  and  C  the naggregate amount of LC Disbursements made by such Issuing Bank and not nreimbursed as of the time of such report.</t>
+  </si>
+  <si>
+    <t>if requested applicable issuingnbank account party also shall submit letter credit application onnsuch issuing bankxexxs standard form connection request letternof creditnn nniia letter credit shall issued amended renewed extended ifnand upon issuance amendment renewal extension letter creditnthe applicable account party shall deemed represent warrant thatnafter giving effect issuance amendment renewal extension a thenlc exposure shall exceed b sum total revolvingncredit exposures shall exceed revolving credit line cap c afterngiving effect thereto lc exposure issuing bank shall exceednthe amount issuing bank set forth schedule except asnotherwise agreed issuing bank approval administrativenagent parent borrowernn nniiieach issuing bank shall provide lc agent administrativenagent later pm promptly thereafter unable byn pm new york city time first business day calendarnweek report issuing bank setting forth a aggregate amount ofnall letters credit issued issuing bank outstanding ofn pm last business day preceding calendar week b thenaverage daily undrawn amount letters credit issued issuingnbank calendar day period since last calendar dayncovered preceding weekly report case first weeklynreport period including closing date c thenaggregate amount lc disbursements made issuing bank notnreimbursed time report</t>
+  </si>
+  <si>
+    <t>If an Issuing Bank shall make any LC Disbursement, then, nunless the applicable Account Party shall reimburse such LC Disbursement in nfull on the date such LC Disbursement is made, the unpaid amount thereof shall nbear interest, for each day from and including the date such LC Disbursement nis made to but excluding the date that such Account Party reimburses such LC nDisbursement, at the rate per annum then applicable to an ABR Revolving Loan; nprovided that, if such Account Party fails to reimburse such LC Disbursement nwhen due pursuant to paragraph  e  of this Section, then Section 2.12 c  shall napply.</t>
+  </si>
+  <si>
+    <t>if issuing bank shall make lc disbursement thennunless applicable account party shall reimburse lc disbursement innfull date lc disbursement made unpaid amount thereof shallnbear interest day including date lc disbursementnis made excluding date account party reimburses lcndisbursement rate per annum applicable abr revolving loannprovided account party fails reimburse lc disbursementnwhen due pursuant paragraph e section section c shallnapply</t>
+  </si>
+  <si>
+    <t>Account Parties shall ndesignate each Revolving Lender  or an Affiliate of a Revolving Lender nidentified by such Revolving Lender to Parent Borrower for such purpose  to be nan Issuing Bank hereunder and such Revolving Lender  or the Affiliate of such nRevolving Lender, as the case may be  upon such designation shall agree to nbecome an Issuing Bank, except that a Revolving Lender shall not be required nto be an Issuing Bank with the consent of Administrative Agent and Parent nBorrower; provided, that, Parent Borrower xe2 x80 x99s consent shall not be required in nthe determination of which Lenders are Issuing Banks on the Closing Date.</t>
+  </si>
+  <si>
+    <t>account parties shallndesignate revolving lender affiliate revolving lendernidentified revolving lender parent borrower purpose benan issuing bank hereunder revolving lender affiliate suchnrevolving lender case may upon designation shall agree tonbecome issuing bank except revolving lender shall requirednto issuing bank consent administrative agent parentnborrower provided parent borrowerxexxs consent shall required innthe determination lenders issuing banks closing date</t>
+  </si>
+  <si>
+    <t>The following nprovisions shall apply to any Extended Letter of Credit, notwithstanding any ncontrary provision set forth herein. n n   n n i The participations of each Revolving Lender in each Extended Letter of nCredit shall terminate at the close of business on the date that is five nBusiness Days prior to the Scheduled Maturity Date, with the effect that nRevolving Lenders shall not have any obligations to acquire participations in nany LC Disbursement made thereafter or otherwise with respect to such Extended nLetter of Credit, except with respect to demands for drawings submitted on or nprior to such date. n n   n n ii On or prior to the date that is fifteen days prior to the Scheduled nMaturity Date  or on the date of any earlier termination of the Commitments , neach Account Party shall deposit with each Issuing Bank an amount in cash  or nother credit support approved by such Issuing Bank in its n n   n n59 n n   n n   n n   n n      n n   n n   n nsole discretion  equal to the LC Exposure as of such date attributable to the nExtended Letters of Credit issued by such Issuing Bank for the account of such nAccount Party.</t>
+  </si>
+  <si>
+    <t>the followingnprovisions shall apply extended letter credit notwithstanding anyncontrary provision set forth hereinnn nnithe participations revolving lender extended letter ofncredit shall terminate close business date fivenbusiness days prior scheduled maturity date effect thatnrevolving lenders shall obligations acquire participations innany lc disbursement made thereafter otherwise respect extendednletter credit except respect demands drawings submitted ornprior datenn nniion prior date fifteen days prior schedulednmaturity date date earlier termination commitmentsneach account party shall deposit issuing bank amount cash ornother credit support approved issuing bank itsnn nnnn nn nn nn nn nn nnsole discretion equal lc exposure date attributable thenextended letters credit issued issuing bank account suchnaccount party</t>
+  </si>
+  <si>
+    <t>Moneys nin such account shall be applied by the relevant Issuing Bank to reimburse LC nDisbursements in respect of such Extended Letters of Credit issued for the naccount of such Account Party for which such Issuing Bank has not been nreimbursed and, to the extent not so applied, shall be held for the nsatisfaction of any reimbursement obligations of such Account Party for such nIssuing Bank xe2 x80 x99s LC Exposure at such time and, to the extent of any excess over nsuch Issuing Bank xe2 x80 x99s LC Exposure at such time, returned to the applicable nAccount Party. n n   n n iii After the close of business on the date that is five Business Days prior nto the Scheduled Maturity Date, the fees that would have accrued pursuant to nclause  i  of Section 2.11 b   if the participations of the Revolving Lenders nin the Extended Letters of Credit had not terminated  shall continue to accrue non the LC Exposure in respect of each Extended Letter of Credit and shall be npayable to each applicable Issuing Bank for its own account. n n   n nSECTION 2.06.</t>
+  </si>
+  <si>
+    <t>moneysnin account shall applied relevant issuing bank reimburse lcndisbursements respect extended letters credit issued thenaccount account party issuing bank beennreimbursed extent applied shall held thensatisfaction reimbursement obligations account party suchnissuing bankxexxs lc exposure time extent excess overnsuch issuing bankxexxs lc exposure time returned applicablenaccount partynn nniiiafter close business date five business days priornto scheduled maturity date fees would accrued pursuant tonclause section b participations revolving lendersnin extended letters credit terminated shall continue accruenon lc exposure respect extended letter credit shall benpayable applicable issuing bank accountnn nnsection</t>
+  </si>
+  <si>
+    <t>All amounts in respect of interest, fees or other amounts npayable by Loan Parties in respect of Revolving Credit Exposure shall be sent nby Federal funds wire transfer to the Revolving Agent Payment Account, except nas Administrative Agent may otherwise agree.</t>
+  </si>
+  <si>
+    <t>all amounts respect interest fees amountsnpayable loan parties respect revolving credit exposure shall sentnby federal funds wire transfer revolving agent payment account exceptnas administrative agent may otherwise agree</t>
+  </si>
+  <si>
+    <t>Fees. n n   n n a The Parent Borrower agrees to pay to the Revolving Agent for the account of neach Revolving Lender a commitment fee, which shall accrue at the Applicable nCommitment Fee Percentage on the daily unused amount of the Revolving nCommitment of such Lender during the period from and including the Closing nDate to but excluding the date on which such Revolving Commitment terminates. nAccrued commitment fees shall be payable in arrears on the last day of March, nJune, September and December of each year and on the date on which the nRevolving Commitments terminate, commencing on the first such date to occur nafter the date hereof.</t>
+  </si>
+  <si>
+    <t>feesnn nnathe parent borrower agrees pay revolving agent account ofneach revolving lender commitment fee shall accrue applicablencommitment fee percentage daily unused amount revolvingncommitment lender period including closingndate excluding date revolving commitment terminatesnaccrued commitment fees shall payable arrears last day marchnjune september december year date thenrevolving commitments terminate commencing first date occurnafter date hereof</t>
+  </si>
+  <si>
+    <t>All commitment fees shall be computed on the basis of a nyear of 360 days and shall be payable for the actual number of days elapsed n including the first day but excluding the last day .</t>
+  </si>
+  <si>
+    <t>all commitment fees shall computed basis anyear days shall payable actual number days elapsednincluding first day excluding last day</t>
+  </si>
+  <si>
+    <t>For purposes of ncomputing commitment fees, the Revolving Commitment of a Lender shall be ndeemed to be used to the extent of the outstanding Revolving Loans and LC nExposures of such Lender  and the Swingline Exposure of such Lender shall be nconsidered Revolving Loans for such purposes . n n   n n b The Parent Borrower agrees to pay  i  to the Revolving Agent for the naccount of each Revolving Lender a participation fee with respect to its nparticipations in  A  Stand-by Letters of Credit, which shall accrue at the nApplicable Revolving Loan Margin for Eurodollar Borrowings, and  B  Trade nLetters of Credit, which shall accrue at a rate equal to 50  of the Applicable nRevolving Loan Margin used for Eurodollar Borrowings, in each case on the naverage daily amount of such Revolving Lender xe2 x80 x99s LC Exposure  excluding any nportion thereof attributable to unreimbursed LC Disbursements  during the nperiod from and including the Closing Date to but excluding the later of the ndate on which such Lender xe2 x80 x99s Commitment terminates and the date on which such nLender ceases to have any LC Exposure, and  ii  to each Issuing Bank a nfronting fee, which shall accrue at the rate of 0.125  per annum, on the naverage daily amount of the LC Exposure in respect of Stand-by Letters of nCredit issued by such Issuing Bank  excluding any portion thereof attributable nto unreimbursed LC Disbursements  during the period from and including the nClosing Date to but excluding the later of the date of termination of the nCommitments and the date on which there ceases to be any LC Exposure, as well nas such Issuing Bank xe2 x80 x99s standard fees with respect to the issuance, amendment, nrenewal or extension of any Letter of Credit or processing of drawings nthereunder.</t>
+  </si>
+  <si>
+    <t>for purposes ofncomputing commitment fees revolving commitment lender shall bendeemed used extent outstanding revolving loans lcnexposures lender swingline exposure lender shall benconsidered revolving loans purposesnn nnbthe parent borrower agrees pay revolving agent thenaccount revolving lender participation fee respect itsnparticipations a standby letters credit shall accrue thenapplicable revolving loan margin eurodollar borrowings b tradenletters credit shall accrue rate equal applicablenrevolving loan margin used eurodollar borrowings case thenaverage daily amount revolving lenderxexxs lc exposure excluding anynportion thereof attributable unreimbursed lc disbursements thenperiod including closing date excluding later thendate lenderxexxs commitment terminates date suchnlender ceases lc exposure ii issuing bank anfronting fee shall accrue rate per annum thenaverage daily amount lc exposure respect standby letters ofncredit issued issuing bank excluding portion thereof attributablento unreimbursed lc disbursements period including thenclosing date excluding later date termination thencommitments date ceases lc exposure wellnas issuing bankxexxs standard fees respect issuance amendmentnrenewal extension letter credit processing drawingsnthereunder</t>
+  </si>
+  <si>
+    <t>Participation fees and fronting fees accrued through and including nthe last day of March, June, September and December of each year shall be npayable on the third Business Day following such last day, commencing on the nfirst such date to occur after the Closing Date; provided that all such fees nshall be payable on the date on which the Revolving Commitments terminate and nany such fees accruing after the date on which the Revolving Commitments nterminate shall be payable on demand.</t>
+  </si>
+  <si>
+    <t>participation fees fronting fees accrued includingnthe last day march june september december year shall benpayable third business day following last day commencing thenfirst date occur closing date provided feesnshall payable date revolving commitments terminate andnany fees accruing date revolving commitmentsnterminate shall payable demand</t>
+  </si>
+  <si>
+    <t>Such amounts shall be due and payable on the date of neffectiveness of such Repricing Event. n n   n n d The Parent Borrower agrees to pay to the Revolving Agent, the Term Agent nand the Lead Arrangers, as applicable, the fees payable in the amounts and at nthe times separately agreed upon between the Parent Borrower and such Agent nand Lead Arrangers. n n   n n e All fees payable hereunder shall be paid on the dates due, in immediately navailable funds, to the Administrative Agent  or to the applicable Issuing nBank, in the case of fees payable to it or to the Term Agent with respect to nfees under Section 2.11 c   for distribution, in the case of commitment fees nand participation fees, to the Lenders.</t>
+  </si>
+  <si>
+    <t>such amounts shall due payable date ofneffectiveness repricing eventnn nndthe parent borrower agrees pay revolving agent term agentnand lead arrangers applicable fees payable amounts atnthe times separately agreed upon parent borrower agentnand lead arrangersnn nneall fees payable hereunder shall paid dates due immediatelynavailable funds administrative agent applicable issuingnbank case fees payable term agent respect tonfees section c distribution case commitment feesnand participation fees lenders</t>
+  </si>
+  <si>
+    <t>As reflected on the summary statement,  i  nthe Revolving Agent shall transfer to each Revolving Lender its Applicable nRevolving Percentage of repayments, and  ii  each Revolving Lender shall ntransfer to the Revolving Agent  as provided below  or the Revolving Agent nshall transfer to each Lender, such amounts as are necessary to insure that, nafter giving effect to all such transfers, the amount of the Revolving Loans nmade by each Revolving Lender shall be equal to such Lender 's Applicable nRevolving Percentage of all Revolving Loans outstanding as of such Settlement nDate.</t>
+  </si>
+  <si>
+    <t>as reflected summary statement inthe revolving agent shall transfer revolving lender applicablenrevolving percentage repayments ii revolving lender shallntransfer revolving agent provided revolving agentnshall transfer lender amounts necessary insure thatnafter giving effect transfers amount revolving loansnmade revolving lender shall equal lenders applicablenrevolving percentage revolving loans outstanding settlementndate</t>
+  </si>
+  <si>
+    <t>The obligation of each Revolving Lender to transfer nsuch funds is irrevocable, unconditional and without recourse to or warranty nby the Revolving Agent.</t>
+  </si>
+  <si>
+    <t>the obligation revolving lender transfernsuch funds irrevocable unconditional without recourse warrantynby revolving agent</t>
+  </si>
+  <si>
+    <t>If and to the extent any Revolving Lender shall not nhave so made its transfer to the Revolving Agent, such Revolving Lender agrees nto pay to the Revolving Agent, forthwith on demand such amount, together with ninterest thereon, for each day from such date until the date such amount is npaid to the Revolving Agent, equal to the greater of the Federal Funds nEffective Rate and a rate determined by the Revolving Agent in accordance with nbanking industry rules on interbank compensation plus any administrative, nprocessing, or similar fees customarily charged by the Revolving Agent in nconnection with the foregoing. n n   n nSECTION 2.20.</t>
+  </si>
+  <si>
+    <t>if extent revolving lender shall notnhave made transfer revolving agent revolving lender agreesnto pay revolving agent forthwith demand amount together withninterest thereon day date date amount isnpaid revolving agent equal greater federal fundsneffective rate rate determined revolving agent accordance withnbanking industry rules interbank compensation plus administrativenprocessing similar fees customarily charged revolving agent innconnection foregoingnn nnsection</t>
+  </si>
+  <si>
+    <t>Notwithstanding any provision of this nAgreement to the contrary, if any Lender becomes a Defaulting Lender, then the nfollowing provisions shall apply for so long as such Lender is a Defaulting nLender: n n   n n a fees shall cease to accrue on the unfunded portion of the Revolving nCommitment of such Defaulting Lender pursuant to Section 2.11 a ; n n   n n b the Revolving Commitment and Revolving Credit Exposure of such Defaulting nLender and the Term Loans of such Defaulting Lender shall not be included in ndetermining whether all Lenders, the Required Lenders, the Required Revolving nLenders, the Supermajority Required Lenders or the Required Term Lenders have ntaken or may take any action hereunder  including any consent to any amendment nor waiver pursuant to Section 9.02 , provided that  i  such Defaulting nLender xe2 x80 x99s Revolving Commitment may not be increased or extended without its nconsent and  ii  the principal amount of, or interest or fees payable on, such nDefaulting Lender xe2 x80 x99s Loans or participations in LC Disbursements may not be nreduced or excused or the scheduled date of payment may not be postponed as to nsuch Defaulting Lender without such Defaulting Lender xe2 x80 x99s consent; n n   n n c if any Swingline Exposure or LC Exposure exists, or any Protective Advance nis outstanding, at the time a Revolving Lender becomes a Defaulting Lender nthen: n n   n n i all or any part of such Swingline Exposure and LC Exposure and nparticipations in Protective Advances shall be reallocated among the non- nDefaulting Revolving Lenders in accordance with their respective Applicable nRevolving Percentages but only to the extent  x  the sum of all non-Defaulting nRevolving Lenders xe2 x80 x99 Revolving Credit Exposures plus such Defaulting Lender xe2 x80 x99s nSwingline Exposure and LC Exposure and participations in Protective Advances ndoes not exceed the total of all non-Defaulting Lenders xe2 x80 x99 Commitments  it being nunderstood that in no event shall any non-Defaulting Lender xe2 x80 x99s Revolving Credit nExposure exceed such Lender xe2 x80 x99s Commitment as a result of such reallocation  and n y  the conditions set forth in Section 4.02 are satisfied at such time; n n   n n ii if the reallocation described in clause  i  above cannot, or can only npartially, be effected, the Borrowers or the Account Parties shall within two nBusiness Days following notice by the Administrative Agent  A  first, prepay nsuch Swingline Exposure and Protective Advances and  B  second, cash ncollateralize  or, if approved by each applicable Issuing Bank in its sole ndiscretion, otherwise provide credit support for  such Defaulting Lender xe2 x80 x99s LC nExposure  after giving effect to any partial reallocation pursuant to clause n i  above  in accordance with the procedures set forth in Section 2.05 j  for nso long as such LC Exposure is outstanding; n n   n n iii if the Borrowers or the Account Parties cash collateralize, or otherwise nprovide credit support for, any portion of such Defaulting Lender xe2 x80 x99s LC nExposure pursuant to this paragraph  c , the Borrowers shall not be required nto pay any fees to such Defaulting Lender pursuant to Section 2.11 b  with nrespect to such Defaulting Lender xe2 x80 x99s LC Exposure during the period such nDefaulting Lender xe2 x80 x99s LC Exposure is cash collateralized or otherwise has credit nsupport provided therefor; n n   n n iv if the LC Exposure of the non-Defaulting Lenders is reallocated pursuant nto this paragraph  c , then the fees payable to the Lenders pursuant to nSection 2.11 a  and Section 2.11 b  shall be adjusted in accordance with such nnon-Defaulting Lenders xe2 x80 x99 Applicable Revolving Percentages; and n n   n n v if any Defaulting Lender xe2 x80 x99s LC Exposure is neither cash collateralized, nor notherwise has credit support provided therefor nor is reallocated pursuant to nthis paragraph  c , then, without prejudice to any rights or remedies of the nIssuing Bank or any Lender hereunder, all Letter of n n   n n   n n81 n n   n n   n n   n n      n n   n n   n nCredit fees payable under Section 2.11 b  with respect to such Defaulting nLender xe2 x80 x99s LC Exposure shall be payable to the Issuing Bank until such LC nExposure is cash collateralized, otherwise has credit support provided ntherefor and/or is reallocated; n n   n n d so long as any Revolving Lender is a Defaulting Lender, the Swingline nLender shall not be required to fund any Swingline Loan and the Issuing Bank nshall not be required to issue, amend or increase any Letter of Credit, unless nit is satisfied that the related exposure will be 100  covered by the nRevolving Commitments of the non-Defaulting Revolving Lenders and/or cash ncollateral  or other credit support, if approved by each applicable Issuing nBank in its sole discretion  will be provided by the Borrowers or the Account nParties in accordance with Section 2.21 c , and participating interests in any nsuch newly issued or increased Letter of Credit or newly made Swingline Loan nshall be allocated among non-Defaulting Revolving Lenders in a manner nconsistent with Section 2.21 c  i   and Defaulting Lenders shall not nparticipate therein ; and n n   n n e any amount payable to a Defaulting Lender that is a Revolving Lender nhereunder  whether on account of principal, interest, fees or otherwise and nincluding any amount that would otherwise be payable to such Defaulting Lender npursuant to Section 2.17 c , but excluding Section 2.18 b   shall, in lieu of nbeing distributed to such Defaulting Lender, be retained by the Administrative nAgent in a segregated account  which may be invested as requested by the nParent Borrower, at the Parent Borrower xe2 x80 x99s risk and expense, subject to napproval by the Administrative Agent  and, subject to any applicable nrequirements of law, be applied at such time or times as may be determined by nthe Administrative Agent  i  first, to the payment of any amounts  other than nin respect of Protective Advances  owing by such Defaulting Lender to the nAdministrative Agent hereunder,  ii  second, pro rata, to the payment of any namounts owing by such Defaulting Lender to any Issuing Bank or Swingline nLender hereunder or to the Administrative Agent in respect of Protective nAdvances,  iii  third, as the Parent Borrower may request  so long as no nDefault has occurred and is continuing  to the funding of any Loan or the nfunding or cash collateralization of any participating interest in any nSwingline Loan, Protective Advance or Letter of Credit in respect of which nsuch Defaulting Lender has failed to fund its portion thereof as required by nthis Agreement  such amounts to be determined by the Administrative Agent in nconsultation with the Parent Borrower ,  iv  fourth, if so determined by the nAdministrative Agent and the Borrowers or the Account Parties, held in such naccount as cash collateral for future funding obligations of the Defaulting nLender under this Agreement,  v  fifth, pro rata, to the payment of any namounts owing to the Borrowers, the Account Parties or the Lenders as a result nof any judgment of a court of competent jurisdiction obtained by the nBorrowers, the Account Parties or any Lender against such Defaulting Lender as na result of such Defaulting Lender xe2 x80 x99s breach of its obligations under this nAgreement and  vi  sixth, to such Defaulting Lender or as otherwise directed nby a court of competent jurisdiction; provided that if such payment is  A  a nprepayment of the principal amount of any Loans or reimbursement obligations nin respect of LC Disbursements which a Defaulting Lender has funded its nparticipation obligations and  B  made at a time when the conditions set forth nin Section 4.02 are satisfied, such payment shall be applied solely to prepay nthe Loans of, and reimbursement obligations owed to, all non-Defaulting nLenders pro rata prior to being applied to the prepayment of any Loans, or nreimbursement obligations owed to, any Defaulting Lender. n n   n n f In the event that the Administrative Agent, the Borrowers, the Account nParties, the Issuing Bank and the Swingline Lender each agrees that a nDefaulting Lender has adequately remedied all matters that caused such Lender nto be a Defaulting Lender, then the Swingline Exposure and LC Exposure of the nLenders, and their participations in Protective Advances, shall be readjusted nto reflect the inclusion of such Lender xe2 x80 x99s Commitment and on such date such nLender shall purchase at par such of the Loans of the other Lenders  other nthan Swingline Loans and Protective Advances  as the Administrative Agent nshall determine may be necessary in order for such Lender to hold such Loans nin accordance with its Applicable Percentage.</t>
+  </si>
+  <si>
+    <t>notwithstanding provision thisnagreement contrary lender becomes defaulting lender thenfollowing provisions shall apply long lender defaultingnlendernn nnafees shall cease accrue unfunded portion revolvingncommitment defaulting lender pursuant section ann nnbthe revolving commitment revolving credit exposure defaultingnlender term loans defaulting lender shall included inndetermining whether lenders required lenders required revolvingnlenders supermajority required lenders required term lenders haventaken may take action hereunder including consent amendmentnor waiver pursuant section provided defaultingnlenderxexxs revolving commitment may increased extended without itsnconsent ii principal amount interest fees payable suchndefaulting lenderxexxs loans participations lc disbursements may benreduced excused scheduled date payment may postponed tonsuch defaulting lender without defaulting lenderxexxs consentnn nncif swingline exposure lc exposure exists protective advancenis outstanding time revolving lender becomes defaulting lendernthennn nniall part swingline exposure lc exposure andnparticipations protective advances shall reallocated among nonndefaulting revolving lenders accordance respective applicablenrevolving percentages extent x sum nondefaultingnrevolving lendersxexx revolving credit exposures plus defaulting lenderxexxsnswingline exposure lc exposure participations protective advancesndoes exceed total nondefaulting lendersxexx commitments beingnunderstood event shall nondefaulting lenderxexxs revolving creditnexposure exceed lenderxexxs commitment result reallocation andny conditions set forth section satisfied timenn nniiif reallocation described clause cannot onlynpartially effected borrowers account parties shall within twonbusiness days following notice administrative agent a first prepaynsuch swingline exposure protective advances b second cashncollateralize approved applicable issuing bank solendiscretion otherwise provide credit support defaulting lenderxexxs lcnexposure giving effect partial reallocation pursuant clauseni accordance procedures set forth section j fornso long lc exposure outstandingnn nniiiif borrowers account parties cash collateralize otherwisenprovide credit support portion defaulting lenderxexxs lcnexposure pursuant paragraph c borrowers shall requirednto pay fees defaulting lender pursuant section b withnrespect defaulting lenderxexxs lc exposure period suchndefaulting lenderxexxs lc exposure cash collateralized otherwise creditnsupport provided therefornn nn ( iv ) lc exposure non - defaulting lenders reallocated pursuant \ nto paragraph ( c ), fees payable lenders pursuant \ nsection 2 . 11 ( ) section 2 . 11 ( b ) shall adjusted accordance \ nnon - defaulting lenders \ xe2 \ x80 \ x99 applicable revolving percentages ; \ n \ n \ n \ n ( v ) defaulting lender \ xe2 \ x80 \ x99s lc exposure neither cash collateralized , \ notherwise credit support provided therefor reallocated pursuant \ nthis paragraph ( c ), , without prejudice rights remedies \ nissuing bank lender hereunder , letter \ n \ n \ n \ n \ n \ n81 \ n \ n \ n \ n \ n \ n \ n \ n * * *\ n \ n \ n \ n \ n \ ncredit fees payable section 2 . 11 ( b ) respect defaulting \ nlender \ xe2 \ x80 \ x99s lc exposure shall payable issuing bank lc \ nexposure cash collateralized , otherwise credit support provided \ ntherefor / reallocated ;\ n \ n \ n \ n ( ) long revolving lender defaulting lender , swingline \ nlender shall required fund swingline loan issuing bank \ nshall required issue , amend increase letter credit , unless \ nit satisfied related exposure 100 % covered \ nrevolving commitments non - defaulting revolving lenders / cash \ ncollateral ( credit support , approved applicable issuing \ nbank sole discretion ) provided borrowers account \ nparties accordance section 2 . 21 ( c ), participating interests \ nsuch newly issued increased letter credit newly made swingline loan \ nshall allocated among non - defaulting revolving lenders manner \ nconsistent section 2 . 21 ( c )( ) ( defaulting lenders shall \ nparticipate therein ); \ n \ n \ n \ n ( e ) amount payable defaulting lender revolving lender \ nhereunder ( whether account principal , interest , fees otherwise \ nincluding amount would otherwise payable defaulting lender \ npursuant section 2 . 17 ( c ), excluding section 2 . 18 ( b )) shall , lieu \ nbeing distributed defaulting lender , retained administrative \ nagent segregated account ( may invested requested \ nparent borrower , parent borrower \ xe2 \ x80 \ x99s risk expense , subject \ napproval administrative agent ) , subject applicable \ nrequirements law , applied time times may determined \ nthe administrative agent ( ) first , payment amounts ( \ nin respect protective advances ) owing defaulting lender \ nadministrative agent hereunder , ( ii ) second , pro rata , payment \ namounts owing defaulting lender issuing bank swingline \ nlender hereunder administrative agent respect protective \ nadvances , ( iii ) third , parent borrower may request ( long \ ndefault occurred continuing ) funding loan \ nfunding cash collateralization participating interest \ nswingline loan , protective advance letter credit respect \ nsuch defaulting lender failed fund portion thereof required \ nthis agreement ( amounts determined administrative agent \ nconsultation parent borrower ), ( iv ) fourth , determined \ nadministrative agent borrowers account parties , held \ naccount cash collateral future funding obligations defaulting \ nlender agreement , ( v ) fifth , pro rata , payment \ namounts owing borrowers , account parties lenders result \ nof judgment court competent jurisdiction obtained \ nborrowers , account parties lender defaulting lender \ na result defaulting lender \ xe2 \ x80 \ x99s breach obligations \ nagreement ( vi ) sixth , defaulting lender otherwise directed \ nby court competent jurisdiction ; provided payment ( a ) \ nprepayment principal amount loans reimbursement obligations \ nin respect lc disbursements defaulting lender funded \ nparticipation obligations ( b ) made time conditions set forth \ nin section 4 . 02 satisfied , payment shall applied solely prepay \ nthe loans , reimbursement obligations owed , non - defaulting \ nlenders pro rata prior applied prepayment loans , \ nreimbursement obligations owed , defaulting lender .\ n \ n \ n \ n ( f ) in event administrative agent , borrowers , account \ nparties , issuing bank swingline lender agrees \ ndefaulting lender adequately remedied matters caused lender \ nto defaulting lender , swingline exposure lc exposure \ nlenders , participations protective advances , shall readjusted \ nto reflect inclusion lender \ xe2 \ x80 \ x99s commitment date \ nlender shall purchase par loans lenders ( \ nthan swingline loans protective advances ) administrative agent \ nshall determine may necessary order lender hold loans \ nin accordance applicable percentage .</t>
+  </si>
+  <si>
+    <t>For the avoidance of doubt, no nadjustments will be made retroactively with n n   n n82 n n   n n   n n   n n      n n   n n   n nrespect to fees that ceased to accrue pursuant to clause  a  above while such nLender was a Defaulting Lender or payments that were allocated pursuant to nclause  e  above while such Lender was a Defaulting Lender. n n   n nSECTION 2.22.</t>
+  </si>
+  <si>
+    <t>for avoidance doubt nonadjustments made retroactively withnn nnnn nn nn nn nn nn nnrespect fees ceased accrue pursuant clause suchnlender defaulting lender payments allocated pursuant tonclause e lender defaulting lendernn nnsection</t>
+  </si>
+  <si>
+    <t>Increase in Commitments and Additional Term Loans. n n   n n a At any time after the Closing Date, the Parent Borrower may, by written nnotice to the Administrative Agent  which shall promptly deliver a copy to neach of the Lenders , request at any time or from time to time that the nRevolving Maximum Credit be increased; provided that  i  the aggregate amount nof each such increase pursuant to this Section 2.22  each a  xe2 x80 x9cRevolving nCommitment Increase xe2 x80 x9d  shall not be less than  50,000,000 and the amount of  A  nall such Revolving Commitment Increases pursuant to this Section 2.22, plus n B  the amount of any outstanding Additional Term Loans made pursuant to this nSection 2.22, minus  C  the amount of any of the Term Loans that have been nrepaid, shall not exceed  300,000,000,  ii  each such request of the Parent nBorrower shall be deemed to be an offer to each Revolving Lender to increase nits Revolving Commitment by its Applicable Revolving Percentage of the nproposed increased amount,  iii  each Revolving Lender, in its sole ndiscretion, may either  A  agree to increase its Revolving Commitment by all nor a portion of the offered amount or  B  decline to increase its Revolving nCommitment,  iv  each such Revolving Commitment Increase will be documented nsolely as an increase to the Revolving Commitments without any change in terms n except as provided in clause  vii  below ,  v  as of the date of any such nRevolving Commitment Increase and after giving effect thereto, no Default or nEvent of Default shall exist or have occurred and be continuing,  vi  no nRevolving Lender shall be required to increase its Revolving Commitment for nsuch Revolving Commitment Increase,  vii  except for the initial fee payable nin respect of the Revolving Commitment Increase of any Revolving Lender, the nterms of such Revolving Commitment Increase and the Revolving Loans pursuant nthereto shall be the same as for all other Revolving Loans and Revolving nCommitments, including in the event that the fees, interest rate and other ncompensation offered or paid in respect of any Revolving Commitment Increase n other than the initial fee payable in respect of the Revolving Commitment nIncrease of any Revolving Lender  are higher than the amounts paid and payable nto the then existing Revolving Lenders in respect of their existing nCommitments and Loans pursuant thereto, the fees, interest rate and other ncompensation payable to the existing Revolving Lenders in respect of their nexisting Commitments and Loans pursuant thereto shall be increased to the same nas those paid in connection with the Revolving Commitment Increase, except for nthe initial fee payable in respect of the Revolving Commitment Increase of a nRevolving Lender,  ix  the Parent Borrower shall not make more than a total of nfive requests for any Revolving Commitment Increase and Additional Term Loans n other than any Revolving Commitment Increase made in respect of Term Loans nthat have been repaid ,  x  after giving effect to any Revolving Commitment nIncrease, the Revolving Maximum Credit and the outstanding Term Loans shall nnot exceed  2,650,000,000, and  xi  to the extent that such Revolving nCommitment Increase is not then permitted under the Existing Term Loan nAgreement or any other agreement governing any Indebtedness of the Loan nParties or such Revolving Commitment Increase would give rise to the nobligation to grant a Lien on any assets of the Loan Parties, Parent Borrower nshall have obtained the required consents or waivers so as to permit such nRevolving Commitment Increase and to not require the grant of any such Lien. nIn the event that the Revolving Lenders shall have agreed to increase their nRevolving Commitments by an aggregate amount less than the increase in the ntotal Revolving Commitments requested by the Parent Borrower, the Parent nBorrower may arrange for one or more banks or other financial institutions n any bank or other financial institution increasing its Revolving Commitment nor providing a new Revolving Commitment pursuant to this Section 2.22 being ncalled an  xe2 x80 x9cAugmenting Revolving Lender xe2 x80 x9d , which may include any Revolving nLender, to provide Revolving Commitments or increase its existing Revolving nCommitment in an aggregate amount equal to the unsubscribed amount; provided nthat each Augmenting Revolving Lender, if not already a Revolving Lender  or nan Affiliate of a Revolving Lender  hereunder, shall be subject to the napproval of the Administrative Agent  not to be unreasonably withheld ; nprovided further that any individual Revolving Commitment extended or nincreased pursuant to this Section 2.22 shall be in n n   n n83 n n   n n   n n   n n      n n   n n   n na minimum amount of  10,000,000  or, if less, the balance of the unsubscribed namount of the requested increase in total Revolving Commitments .</t>
+  </si>
+  <si>
+    <t>increase commitments additional term loansnn nnaat time closing date parent borrower may writtennnotice administrative agent shall promptly deliver copy toneach lenders request time time time thenrevolving maximum credit increased provided aggregate amountnof increase pursuant section xexxcrevolvingncommitment increasexexxd shall less amount anall revolving commitment increases pursuant section plusnb amount outstanding additional term loans made pursuant thisnsection minus c amount term loans beennrepaid shall exceed ii request parentnborrower shall deemed offer revolving lender increasenits revolving commitment applicable revolving percentage thenproposed increased amount iii revolving lender solendiscretion may either a agree increase revolving commitment allnor portion offered amount b decline increase revolvingncommitment iv revolving commitment increase documentednsolely increase revolving commitments without change termsnexcept provided clause vii v date suchnrevolving commitment increase giving effect thereto default ornevent default shall exist occurred continuing vi nonrevolving lender shall required increase revolving commitment fornsuch revolving commitment increase vii except initial fee payablenin respect revolving commitment increase revolving lender thenterms revolving commitment increase revolving loans pursuantnthereto shall revolving loans revolvingncommitments including event fees interest rate otherncompensation offered paid respect revolving commitment increasenother initial fee payable respect revolving commitmentnincrease revolving lender higher amounts paid payablento existing revolving lenders respect existingncommitments loans pursuant thereto fees interest rate otherncompensation payable existing revolving lenders respect theirnexisting commitments loans pursuant thereto shall increased samenas paid connection revolving commitment increase except fornthe initial fee payable respect revolving commitment increase anrevolving lender ix parent borrower shall make total ofnfive requests revolving commitment increase additional term loansnother revolving commitment increase made respect term loansnthat repaid x giving effect revolving commitmentnincrease revolving maximum credit outstanding term loans shallnnot exceed xi extent revolvingncommitment increase permitted existing term loannagreement agreement governing indebtedness loannparties revolving commitment increase would give rise thenobligation grant lien assets loan parties parent borrowernshall obtained required consents waivers permit suchnrevolving commitment increase require grant liennin event revolving lenders shall agreed increase theirnrevolving commitments aggregate amount less increase thentotal revolving commitments requested parent borrower parentnborrower may arrange one banks financial institutionsnany bank financial institution increasing revolving commitmentnor providing new revolving commitment pursuant section beingncalled xexxcaugmenting revolving lenderxexxd may include revolvingnlender provide revolving commitments increase existing revolvingncommitment aggregate amount equal unsubscribed amount providednthat augmenting revolving lender already revolving lender ornan affiliate revolving lender hereunder shall subject thenapproval administrative agent unreasonably withheldnprovided individual revolving commitment extended ornincreased pursuant section shall innn nnnn nn nn nn nn nn nna minimum amount $ 10 , 000 , 000 ( , less , balance unsubscribed \ namount requested increase total revolving commitments ).</t>
+  </si>
+  <si>
+    <t>The fees payable by the Parent Borrower to a nsuccessor Administrative Agent, Revolving Agent, Term Agent or Co-Collateral nAgent, as applicable, shall be the same as those payable to its predecessor nunless otherwise agreed between the Parent Borrower and such successor agent. nAfter any retiring Agent xe2 x80 x99s resignation as such Agent, the provisions of this nArticle VIII shall inure to its benefit as to any actions taken or omitted to nbe taken by it while it was such Agent under this Agreement and the other Loan nDocuments. n n   n nSECTION 8.11.</t>
+  </si>
+  <si>
+    <t>the fees payable parent borrower ansuccessor administrative agent revolving agent term agent cocollateralnagent applicable shall payable predecessornunless otherwise agreed parent borrower successor agentnafter retiring agentxexxs resignation agent provisions thisnarticle viii shall inure benefit actions taken omitted tonbe taken agent agreement loanndocumentsnn nnsection</t>
+  </si>
+  <si>
+    <t>Changes in identity nor corporate structure would include mergers, consolidations and acquisitions, nas well as any change in the form, nature or jurisdiction of corporate norganization. n n   n n d  The following is a list of all other names  including trade names or nsimilar appellations  used by each Grantor or any of its divisions or other nbusiness units in connection with the conduct of its business or the ownership nof its properties at any time during the past five years: n n   n   n   n---   n    n   nGrantor n n  n nOther Name Used   n   n n n  n n   n   n n n  n n   n   n n n  n n   n   n n n  n n   n   n   n n   n n e  Set forth below is the organizational identification number, if any, nissued by the jurisdiction of formation of each Grantor: n n   n   n   n---   n    n   nGrantor n n  n nOrganizational Identification Number   n   n n n  n n   n   n n n  n n   n   n n n  n n   n   n n n  n n   n   n   n n   n n f  Set forth below is the Federal Taxpayer Identification Number of each nGrantor: n n   n   n   n---   n    n   nGrantor n n  n nFederal Taxpayer Identification Number   n   n n n  n n   n   n n n  n n   n   n n n  n n   n   n n n  n n   n   n   n n      n n   n n   n n   n n   n n2.</t>
+  </si>
+  <si>
+    <t>changes identitynor corporate structure would include mergers consolidations acquisitionsnas well change form nature jurisdiction corporatenorganizationnn nnd the following list names including trade names ornsimilar appellations used grantor divisions othernbusiness units connection conduct business ownershipnof properties time past five yearsnn n n n n n ngrantornnnnother name used n nnnnn n nnnnn n nnnnn n nnnnn n n nn nne set forth organizational identification number anynissued jurisdiction formation grantornn n n n n n ngrantornnnnorganizational identification number n nnnnn n nnnnn n nnnnn n nnnnn n n nn nnf set forth federal taxpayer identification number eachngrantornn n n n n n ngrantornnnnfederal taxpayer identification number n nnnnn n nnnnn n nnnnn n nnnnn n n nn nn nn nn nn nn</t>
   </si>
 </sst>
 </file>
@@ -519,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,7 +582,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -554,7 +596,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -568,7 +610,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -582,7 +624,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="n">
-        <v>283</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -596,7 +638,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="n">
-        <v>307</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -610,7 +652,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="n">
-        <v>308</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -624,7 +666,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="n">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -638,7 +680,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="n">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -652,7 +694,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="n">
-        <v>314</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -666,7 +708,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="n">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -680,7 +722,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="n">
-        <v>316</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -694,7 +736,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="n">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -708,7 +750,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="n">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -722,7 +764,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="n">
-        <v>325</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -736,7 +778,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="n">
-        <v>329</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -750,7 +792,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="n">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -764,7 +806,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="n">
-        <v>349</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -778,7 +820,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="n">
-        <v>353</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -792,7 +834,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="n">
-        <v>369</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -806,7 +848,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="n">
-        <v>398</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -820,7 +862,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="n">
-        <v>418</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -834,7 +876,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="n">
-        <v>482</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -848,7 +890,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="n">
-        <v>628</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -862,7 +904,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="n">
-        <v>735</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -872,6 +914,104 @@
       </c>
       <c r="D25" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
